--- a/database/industries/siman/sesoufi/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sesoufi/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sesoufi\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sesoufi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5A24AD-3D1C-436E-8BED-5EB53B01FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773C0108-685C-4D73-8BA1-A0C29D9DD3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="100">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سصوفی-سیمان‌ صوفیان‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -802,12 +802,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -862,7 +862,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1031,7 +1031,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1412,7 +1412,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1531,11 +1531,11 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -1561,11 +1561,11 @@
       <c r="AF11" s="11">
         <v>0</v>
       </c>
-      <c r="AG11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>0</v>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>58</v>
@@ -1612,14 +1612,14 @@
       <c r="AW11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY11" s="11" t="s">
-        <v>58</v>
+      <c r="AX11" s="11">
+        <v>3621</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>0</v>
       </c>
       <c r="AZ11" s="11">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="11">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1717,53 +1717,53 @@
       <c r="AE12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG12" s="13" t="s">
-        <v>58</v>
+      <c r="AF12" s="13">
+        <v>127510</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>160367</v>
       </c>
       <c r="AH12" s="13">
-        <v>127510</v>
+        <v>175578</v>
       </c>
       <c r="AI12" s="13">
-        <v>160367</v>
+        <v>125023</v>
       </c>
       <c r="AJ12" s="13">
-        <v>175578</v>
+        <v>132647</v>
       </c>
       <c r="AK12" s="13">
-        <v>125023</v>
+        <v>166769</v>
       </c>
       <c r="AL12" s="13">
-        <v>132647</v>
+        <v>193019</v>
       </c>
       <c r="AM12" s="13">
-        <v>166769</v>
+        <v>170804</v>
       </c>
       <c r="AN12" s="13">
-        <v>193019</v>
+        <v>163290</v>
       </c>
       <c r="AO12" s="13">
-        <v>170804</v>
+        <v>73241</v>
       </c>
       <c r="AP12" s="13">
-        <v>163290</v>
+        <v>94486</v>
       </c>
       <c r="AQ12" s="13">
-        <v>73241</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>94486</v>
+        <v>166084</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS12" s="13">
-        <v>166084</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU12" s="13">
-        <v>0</v>
+      <c r="AU12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV12" s="13" t="s">
         <v>58</v>
@@ -1787,7 +1787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1849,39 +1849,39 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>97872</v>
+      </c>
+      <c r="X13" s="11">
+        <v>67087</v>
       </c>
       <c r="Y13" s="11">
-        <v>97872</v>
+        <v>68411</v>
       </c>
       <c r="Z13" s="11">
-        <v>67087</v>
+        <v>64245</v>
       </c>
       <c r="AA13" s="11">
-        <v>68411</v>
+        <v>55320</v>
       </c>
       <c r="AB13" s="11">
-        <v>64245</v>
+        <v>61660</v>
       </c>
       <c r="AC13" s="11">
-        <v>55320</v>
+        <v>35239</v>
       </c>
       <c r="AD13" s="11">
-        <v>61660</v>
+        <v>42079</v>
       </c>
       <c r="AE13" s="11">
-        <v>35239</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>42079</v>
-      </c>
-      <c r="AG13" s="11">
         <v>56222</v>
       </c>
+      <c r="AF13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1912,41 +1912,41 @@
       <c r="AQ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS13" s="11" t="s">
-        <v>58</v>
+      <c r="AR13" s="11">
+        <v>61258</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>69165</v>
       </c>
       <c r="AT13" s="11">
-        <v>61258</v>
+        <v>72172</v>
       </c>
       <c r="AU13" s="11">
-        <v>69165</v>
+        <v>52548</v>
       </c>
       <c r="AV13" s="11">
-        <v>72172</v>
+        <v>52024</v>
       </c>
       <c r="AW13" s="11">
-        <v>52548</v>
+        <v>68487</v>
       </c>
       <c r="AX13" s="11">
-        <v>52024</v>
+        <v>64433</v>
       </c>
       <c r="AY13" s="11">
-        <v>68487</v>
+        <v>60936</v>
       </c>
       <c r="AZ13" s="11">
-        <v>64433</v>
+        <v>36337</v>
       </c>
       <c r="BA13" s="11">
-        <v>60936</v>
+        <v>22004</v>
       </c>
       <c r="BB13" s="11">
-        <v>36337</v>
+        <v>28423</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2083,29 +2083,29 @@
       <c r="AU14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW14" s="13" t="s">
-        <v>58</v>
+      <c r="AV14" s="13">
+        <v>1607</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>11036</v>
       </c>
       <c r="AX14" s="13">
-        <v>1607</v>
+        <v>13252</v>
       </c>
       <c r="AY14" s="13">
-        <v>11036</v>
+        <v>17696</v>
       </c>
       <c r="AZ14" s="13">
-        <v>13252</v>
+        <v>21015</v>
       </c>
       <c r="BA14" s="13">
-        <v>17696</v>
+        <v>19044</v>
       </c>
       <c r="BB14" s="13">
-        <v>21015</v>
+        <v>23978</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2167,39 +2167,39 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>73497</v>
+      </c>
+      <c r="X15" s="11">
+        <v>67338</v>
       </c>
       <c r="Y15" s="11">
-        <v>73497</v>
+        <v>58923</v>
       </c>
       <c r="Z15" s="11">
-        <v>67338</v>
+        <v>65087</v>
       </c>
       <c r="AA15" s="11">
-        <v>58923</v>
+        <v>40103</v>
       </c>
       <c r="AB15" s="11">
-        <v>65087</v>
+        <v>44607</v>
       </c>
       <c r="AC15" s="11">
-        <v>40103</v>
+        <v>35055</v>
       </c>
       <c r="AD15" s="11">
-        <v>44607</v>
+        <v>46944</v>
       </c>
       <c r="AE15" s="11">
-        <v>35055</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>46944</v>
-      </c>
-      <c r="AG15" s="11">
         <v>79229</v>
       </c>
+      <c r="AF15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2230,41 +2230,41 @@
       <c r="AQ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>58</v>
+      <c r="AR15" s="11">
+        <v>30189</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>69431</v>
       </c>
       <c r="AT15" s="11">
-        <v>30189</v>
+        <v>57757</v>
       </c>
       <c r="AU15" s="11">
-        <v>69431</v>
+        <v>64337</v>
       </c>
       <c r="AV15" s="11">
-        <v>57757</v>
+        <v>35806</v>
       </c>
       <c r="AW15" s="11">
-        <v>64337</v>
+        <v>29273</v>
       </c>
       <c r="AX15" s="11">
-        <v>35806</v>
+        <v>33780</v>
       </c>
       <c r="AY15" s="11">
-        <v>29273</v>
+        <v>28009</v>
       </c>
       <c r="AZ15" s="11">
-        <v>33780</v>
+        <v>29623</v>
       </c>
       <c r="BA15" s="11">
-        <v>28009</v>
+        <v>36526</v>
       </c>
       <c r="BB15" s="11">
-        <v>29623</v>
+        <v>14527</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2326,26 +2326,26 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
       </c>
       <c r="Y16" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z16" s="13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA16" s="13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="13">
         <v>0</v>
@@ -2353,11 +2353,11 @@
       <c r="AE16" s="13">
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>0</v>
+      <c r="AF16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH16" s="13" t="s">
         <v>58</v>
@@ -2423,7 +2423,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2485,92 +2485,92 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>600</v>
+      </c>
+      <c r="X17" s="11">
+        <v>546</v>
       </c>
       <c r="Y17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>1637</v>
+      </c>
+      <c r="AB17" s="11">
+        <v>430</v>
+      </c>
+      <c r="AC17" s="11">
+        <v>748</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>1362</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>1097</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR17" s="11">
         <v>600</v>
       </c>
-      <c r="Z17" s="11">
-        <v>546</v>
-      </c>
-      <c r="AA17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>200</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>1637</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>430</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>748</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>1362</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>1097</v>
-      </c>
-      <c r="AH17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
+      <c r="AS17" s="11">
+        <v>610</v>
       </c>
       <c r="AT17" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="11">
-        <v>610</v>
+        <v>2320</v>
       </c>
       <c r="AV17" s="11">
         <v>0</v>
       </c>
       <c r="AW17" s="11">
-        <v>2320</v>
+        <v>570</v>
       </c>
       <c r="AX17" s="11">
         <v>0</v>
       </c>
       <c r="AY17" s="11">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="11">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2644,39 +2644,39 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>17688</v>
+      </c>
+      <c r="X18" s="13">
+        <v>18992</v>
       </c>
       <c r="Y18" s="13">
-        <v>17688</v>
+        <v>17827</v>
       </c>
       <c r="Z18" s="13">
-        <v>18992</v>
+        <v>17643</v>
       </c>
       <c r="AA18" s="13">
-        <v>17827</v>
+        <v>6246</v>
       </c>
       <c r="AB18" s="13">
-        <v>17643</v>
+        <v>4915</v>
       </c>
       <c r="AC18" s="13">
-        <v>6246</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="13">
-        <v>4915</v>
+        <v>1038</v>
       </c>
       <c r="AE18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>1038</v>
-      </c>
-      <c r="AG18" s="13">
         <v>612</v>
       </c>
+      <c r="AF18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH18" s="13" t="s">
         <v>58</v>
       </c>
@@ -2707,14 +2707,14 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13">
+        <v>559</v>
       </c>
       <c r="AS18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="13">
-        <v>559</v>
+      <c r="AT18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>58</v>
@@ -2741,7 +2741,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2803,38 +2803,38 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="Z19" s="11">
         <v>0</v>
       </c>
       <c r="AA19" s="11">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="11">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AC19" s="11">
         <v>0</v>
       </c>
       <c r="AD19" s="11">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="11">
         <v>0</v>
       </c>
-      <c r="AF19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AF19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>58</v>
@@ -2866,11 +2866,11 @@
       <c r="AQ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
+      <c r="AR19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>0</v>
       </c>
       <c r="AT19" s="11">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2962,39 +2962,39 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="Z20" s="13">
-        <v>0</v>
+        <v>14817</v>
       </c>
       <c r="AA20" s="13">
-        <v>2601</v>
+        <v>13223</v>
       </c>
       <c r="AB20" s="13">
-        <v>14817</v>
+        <v>10161</v>
       </c>
       <c r="AC20" s="13">
-        <v>13223</v>
+        <v>11620</v>
       </c>
       <c r="AD20" s="13">
-        <v>10161</v>
+        <v>7712</v>
       </c>
       <c r="AE20" s="13">
-        <v>11620</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>7712</v>
-      </c>
-      <c r="AG20" s="13">
         <v>30065</v>
       </c>
+      <c r="AF20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH20" s="13" t="s">
         <v>58</v>
       </c>
@@ -3025,41 +3025,41 @@
       <c r="AQ20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS20" s="13" t="s">
-        <v>58</v>
+      <c r="AR20" s="13">
+        <v>10731</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>17685</v>
       </c>
       <c r="AT20" s="13">
-        <v>10731</v>
+        <v>16794</v>
       </c>
       <c r="AU20" s="13">
-        <v>17685</v>
+        <v>14449</v>
       </c>
       <c r="AV20" s="13">
-        <v>16794</v>
+        <v>14539</v>
       </c>
       <c r="AW20" s="13">
-        <v>14449</v>
+        <v>19316</v>
       </c>
       <c r="AX20" s="13">
-        <v>14539</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="13">
-        <v>19316</v>
+        <v>24995</v>
       </c>
       <c r="AZ20" s="13">
-        <v>0</v>
+        <v>14823</v>
       </c>
       <c r="BA20" s="13">
-        <v>24995</v>
+        <v>7571</v>
       </c>
       <c r="BB20" s="13">
-        <v>14823</v>
+        <v>7676</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3121,39 +3121,39 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>922</v>
+      </c>
+      <c r="X21" s="11">
+        <v>6849</v>
       </c>
       <c r="Y21" s="11">
-        <v>922</v>
+        <v>7143</v>
       </c>
       <c r="Z21" s="11">
-        <v>6849</v>
+        <v>103</v>
       </c>
       <c r="AA21" s="11">
-        <v>7143</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="11">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="11">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AD21" s="11">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="AE21" s="11">
-        <v>260</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>636</v>
-      </c>
-      <c r="AG21" s="11">
         <v>539</v>
       </c>
+      <c r="AF21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG21" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH21" s="11" t="s">
         <v>58</v>
       </c>
@@ -3184,41 +3184,41 @@
       <c r="AQ21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>58</v>
+      <c r="AR21" s="11">
+        <v>3279</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>0</v>
       </c>
       <c r="AT21" s="11">
-        <v>3279</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="11">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="AV21" s="11">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="AW21" s="11">
-        <v>431</v>
+        <v>1234</v>
       </c>
       <c r="AX21" s="11">
-        <v>446</v>
+        <v>24420</v>
       </c>
       <c r="AY21" s="11">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="11">
-        <v>24420</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="11">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="BB21" s="11">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3346,38 +3346,38 @@
       <c r="AR22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT22" s="13" t="s">
-        <v>58</v>
+      <c r="AS22" s="13">
+        <v>11757</v>
+      </c>
+      <c r="AT22" s="13">
+        <v>16685</v>
       </c>
       <c r="AU22" s="13">
-        <v>11757</v>
+        <v>18139</v>
       </c>
       <c r="AV22" s="13">
-        <v>16685</v>
+        <v>17221</v>
       </c>
       <c r="AW22" s="13">
-        <v>18139</v>
+        <v>32488</v>
       </c>
       <c r="AX22" s="13">
-        <v>0</v>
+        <v>31053</v>
       </c>
       <c r="AY22" s="13">
-        <v>32488</v>
+        <v>42723</v>
       </c>
       <c r="AZ22" s="13">
-        <v>31053</v>
+        <v>44638</v>
       </c>
       <c r="BA22" s="13">
-        <v>42723</v>
+        <v>24354</v>
       </c>
       <c r="BB22" s="13">
-        <v>44638</v>
+        <v>18185</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3502,41 +3502,41 @@
       <c r="AQ23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS23" s="11" t="s">
-        <v>58</v>
+      <c r="AR23" s="11">
+        <v>5670</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>12036</v>
       </c>
       <c r="AT23" s="11">
-        <v>5670</v>
+        <v>14465</v>
       </c>
       <c r="AU23" s="11">
-        <v>12036</v>
+        <v>12460</v>
       </c>
       <c r="AV23" s="11">
-        <v>14465</v>
+        <v>7220</v>
       </c>
       <c r="AW23" s="11">
-        <v>12460</v>
+        <v>3800</v>
       </c>
       <c r="AX23" s="11">
-        <v>7220</v>
+        <v>2970</v>
       </c>
       <c r="AY23" s="11">
-        <v>3800</v>
+        <v>1100</v>
       </c>
       <c r="AZ23" s="11">
-        <v>2970</v>
+        <v>685</v>
       </c>
       <c r="BA23" s="11">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="BB23" s="11">
-        <v>685</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>71</v>
       </c>
@@ -3597,103 +3597,103 @@
         <v>0</v>
       </c>
       <c r="W24" s="15">
-        <v>0</v>
+        <v>190579</v>
       </c>
       <c r="X24" s="15">
-        <v>0</v>
+        <v>160812</v>
       </c>
       <c r="Y24" s="15">
-        <v>190579</v>
+        <v>158551</v>
       </c>
       <c r="Z24" s="15">
-        <v>160812</v>
+        <v>162180</v>
       </c>
       <c r="AA24" s="15">
-        <v>158551</v>
+        <v>116544</v>
       </c>
       <c r="AB24" s="15">
-        <v>162180</v>
+        <v>122251</v>
       </c>
       <c r="AC24" s="15">
-        <v>116544</v>
+        <v>82922</v>
       </c>
       <c r="AD24" s="15">
-        <v>122251</v>
+        <v>99771</v>
       </c>
       <c r="AE24" s="15">
-        <v>82922</v>
+        <v>167764</v>
       </c>
       <c r="AF24" s="15">
-        <v>99771</v>
+        <v>127510</v>
       </c>
       <c r="AG24" s="15">
-        <v>167764</v>
+        <v>160367</v>
       </c>
       <c r="AH24" s="15">
-        <v>127510</v>
+        <v>175578</v>
       </c>
       <c r="AI24" s="15">
-        <v>160367</v>
+        <v>125023</v>
       </c>
       <c r="AJ24" s="15">
-        <v>175578</v>
+        <v>132647</v>
       </c>
       <c r="AK24" s="15">
-        <v>125023</v>
+        <v>166769</v>
       </c>
       <c r="AL24" s="15">
-        <v>132647</v>
+        <v>193019</v>
       </c>
       <c r="AM24" s="15">
-        <v>166769</v>
+        <v>170804</v>
       </c>
       <c r="AN24" s="15">
-        <v>193019</v>
+        <v>163290</v>
       </c>
       <c r="AO24" s="15">
-        <v>170804</v>
+        <v>73241</v>
       </c>
       <c r="AP24" s="15">
-        <v>163290</v>
+        <v>94486</v>
       </c>
       <c r="AQ24" s="15">
-        <v>73241</v>
+        <v>166084</v>
       </c>
       <c r="AR24" s="15">
-        <v>94486</v>
+        <v>112286</v>
       </c>
       <c r="AS24" s="15">
-        <v>166084</v>
+        <v>180684</v>
       </c>
       <c r="AT24" s="15">
-        <v>112286</v>
+        <v>177873</v>
       </c>
       <c r="AU24" s="15">
-        <v>180684</v>
+        <v>164684</v>
       </c>
       <c r="AV24" s="15">
-        <v>177873</v>
+        <v>128863</v>
       </c>
       <c r="AW24" s="15">
-        <v>164684</v>
+        <v>166204</v>
       </c>
       <c r="AX24" s="15">
-        <v>111642</v>
+        <v>173529</v>
       </c>
       <c r="AY24" s="15">
-        <v>166204</v>
+        <v>175459</v>
       </c>
       <c r="AZ24" s="15">
-        <v>173529</v>
+        <v>147121</v>
       </c>
       <c r="BA24" s="15">
-        <v>175459</v>
+        <v>109638</v>
       </c>
       <c r="BB24" s="15">
-        <v>147121</v>
+        <v>93143</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>72</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>56</v>
       </c>
@@ -3839,18 +3839,18 @@
       <c r="AE26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH26" s="11">
+      <c r="AF26" s="11">
         <v>4245</v>
       </c>
-      <c r="AI26" s="11">
+      <c r="AG26" s="11">
         <v>1040</v>
       </c>
+      <c r="AH26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI26" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ26" s="11" t="s">
         <v>58</v>
       </c>
@@ -3863,23 +3863,23 @@
       <c r="AM26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP26" s="11">
+      <c r="AN26" s="11">
         <v>990</v>
       </c>
-      <c r="AQ26" s="11">
+      <c r="AO26" s="11">
         <v>10</v>
       </c>
-      <c r="AR26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS26" s="11" t="s">
-        <v>58</v>
+      <c r="AP26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="11">
+        <v>0</v>
       </c>
       <c r="AT26" s="11">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="BB26" s="11">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>59</v>
       </c>
@@ -3998,14 +3998,14 @@
       <c r="AE27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF27" s="13" t="s">
-        <v>58</v>
+      <c r="AF27" s="13">
+        <v>3752</v>
       </c>
       <c r="AG27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH27" s="13">
-        <v>3752</v>
+      <c r="AH27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI27" s="13" t="s">
         <v>58</v>
@@ -4019,27 +4019,27 @@
       <c r="AL27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM27" s="13" t="s">
-        <v>58</v>
+      <c r="AM27" s="13">
+        <v>303</v>
       </c>
       <c r="AN27" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AO27" s="13">
-        <v>303</v>
-      </c>
-      <c r="AP27" s="13" t="s">
-        <v>58</v>
+        <v>1471</v>
+      </c>
+      <c r="AP27" s="13">
+        <v>570</v>
       </c>
       <c r="AQ27" s="13">
-        <v>1471</v>
-      </c>
-      <c r="AR27" s="13">
-        <v>570</v>
-      </c>
-      <c r="AS27" s="13">
         <v>371</v>
       </c>
+      <c r="AR27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS27" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT27" s="13" t="s">
         <v>58</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>73</v>
       </c>
@@ -4130,39 +4130,39 @@
       <c r="V28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>58</v>
+      <c r="W28" s="11">
+        <v>6497</v>
+      </c>
+      <c r="X28" s="11">
+        <v>7173</v>
       </c>
       <c r="Y28" s="11">
-        <v>6497</v>
+        <v>8197</v>
       </c>
       <c r="Z28" s="11">
-        <v>7173</v>
+        <v>4407</v>
       </c>
       <c r="AA28" s="11">
-        <v>8197</v>
+        <v>1941</v>
       </c>
       <c r="AB28" s="11">
-        <v>4407</v>
+        <v>2561</v>
       </c>
       <c r="AC28" s="11">
-        <v>1941</v>
+        <v>2615</v>
       </c>
       <c r="AD28" s="11">
-        <v>2561</v>
+        <v>2767</v>
       </c>
       <c r="AE28" s="11">
-        <v>2615</v>
-      </c>
-      <c r="AF28" s="11">
-        <v>2767</v>
-      </c>
-      <c r="AG28" s="11">
         <v>4960</v>
       </c>
+      <c r="AF28" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG28" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH28" s="11" t="s">
         <v>58</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>61</v>
       </c>
@@ -4352,41 +4352,41 @@
       <c r="AQ29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS29" s="13" t="s">
-        <v>58</v>
+      <c r="AR29" s="13">
+        <v>741</v>
+      </c>
+      <c r="AS29" s="13">
+        <v>1244</v>
       </c>
       <c r="AT29" s="13">
-        <v>741</v>
+        <v>1001</v>
       </c>
       <c r="AU29" s="13">
-        <v>1244</v>
+        <v>1274</v>
       </c>
       <c r="AV29" s="13">
-        <v>1001</v>
+        <v>1272</v>
       </c>
       <c r="AW29" s="13">
-        <v>1274</v>
+        <v>1916</v>
       </c>
       <c r="AX29" s="13">
-        <v>1272</v>
+        <v>3079</v>
       </c>
       <c r="AY29" s="13">
-        <v>1916</v>
+        <v>5717</v>
       </c>
       <c r="AZ29" s="13">
-        <v>3079</v>
+        <v>2455</v>
       </c>
       <c r="BA29" s="13">
-        <v>5717</v>
+        <v>822</v>
       </c>
       <c r="BB29" s="13">
-        <v>2455</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>62</v>
       </c>
@@ -4511,11 +4511,11 @@
       <c r="AQ30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS30" s="11" t="s">
-        <v>58</v>
+      <c r="AR30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="11">
+        <v>0</v>
       </c>
       <c r="AT30" s="11">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>74</v>
       </c>
@@ -4607,38 +4607,38 @@
       <c r="V31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>58</v>
+      <c r="W31" s="13">
+        <v>8883</v>
+      </c>
+      <c r="X31" s="13">
+        <v>7526</v>
       </c>
       <c r="Y31" s="13">
-        <v>8883</v>
+        <v>10061</v>
       </c>
       <c r="Z31" s="13">
-        <v>7526</v>
+        <v>3726</v>
       </c>
       <c r="AA31" s="13">
-        <v>10061</v>
+        <v>2580</v>
       </c>
       <c r="AB31" s="13">
-        <v>3726</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="13">
-        <v>2580</v>
+        <v>1574</v>
       </c>
       <c r="AD31" s="13">
-        <v>0</v>
+        <v>5879</v>
       </c>
       <c r="AE31" s="13">
-        <v>1574</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>5879</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH31" s="13" t="s">
         <v>58</v>
@@ -4704,7 +4704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>75</v>
       </c>
@@ -4766,39 +4766,39 @@
       <c r="V32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="11" t="s">
-        <v>58</v>
+      <c r="W32" s="11">
+        <v>2805</v>
+      </c>
+      <c r="X32" s="11">
+        <v>1772</v>
       </c>
       <c r="Y32" s="11">
-        <v>2805</v>
+        <v>479</v>
       </c>
       <c r="Z32" s="11">
-        <v>1772</v>
+        <v>76</v>
       </c>
       <c r="AA32" s="11">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="AB32" s="11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="11">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AD32" s="11">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="AE32" s="11">
-        <v>176</v>
-      </c>
-      <c r="AF32" s="11">
-        <v>2122</v>
-      </c>
-      <c r="AG32" s="11">
         <v>1548</v>
       </c>
+      <c r="AF32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH32" s="11" t="s">
         <v>58</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>76</v>
       </c>
@@ -4928,35 +4928,35 @@
       <c r="W33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y33" s="13" t="s">
-        <v>58</v>
+      <c r="X33" s="13">
+        <v>910</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>2238</v>
       </c>
       <c r="Z33" s="13">
-        <v>910</v>
+        <v>1240</v>
       </c>
       <c r="AA33" s="13">
-        <v>2238</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="13">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="13">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AD33" s="13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AE33" s="13">
-        <v>349</v>
-      </c>
-      <c r="AF33" s="13">
-        <v>103</v>
-      </c>
-      <c r="AG33" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH33" s="13" t="s">
         <v>58</v>
@@ -5022,7 +5022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>69</v>
       </c>
@@ -5150,38 +5150,38 @@
       <c r="AR34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT34" s="11" t="s">
-        <v>58</v>
+      <c r="AS34" s="11">
+        <v>99</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>224</v>
       </c>
       <c r="AU34" s="11">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="AV34" s="11">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="11">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="11">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="AY34" s="11">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="AZ34" s="11">
-        <v>347</v>
+        <v>456</v>
       </c>
       <c r="BA34" s="11">
-        <v>1169</v>
+        <v>330</v>
       </c>
       <c r="BB34" s="11">
-        <v>456</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>77</v>
       </c>
@@ -5242,43 +5242,43 @@
         <v>0</v>
       </c>
       <c r="W35" s="15">
-        <v>0</v>
+        <v>18185</v>
       </c>
       <c r="X35" s="15">
-        <v>0</v>
+        <v>17381</v>
       </c>
       <c r="Y35" s="15">
-        <v>18185</v>
+        <v>20975</v>
       </c>
       <c r="Z35" s="15">
-        <v>17381</v>
+        <v>9449</v>
       </c>
       <c r="AA35" s="15">
-        <v>20975</v>
+        <v>4670</v>
       </c>
       <c r="AB35" s="15">
-        <v>9449</v>
+        <v>2561</v>
       </c>
       <c r="AC35" s="15">
-        <v>4670</v>
+        <v>4714</v>
       </c>
       <c r="AD35" s="15">
-        <v>2561</v>
+        <v>10871</v>
       </c>
       <c r="AE35" s="15">
-        <v>4714</v>
+        <v>6508</v>
       </c>
       <c r="AF35" s="15">
-        <v>10871</v>
+        <v>7997</v>
       </c>
       <c r="AG35" s="15">
-        <v>6508</v>
+        <v>1040</v>
       </c>
       <c r="AH35" s="15">
-        <v>7997</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="15">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="15">
         <v>0</v>
@@ -5290,55 +5290,55 @@
         <v>0</v>
       </c>
       <c r="AM35" s="15">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="AN35" s="15">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AO35" s="15">
-        <v>303</v>
+        <v>1481</v>
       </c>
       <c r="AP35" s="15">
-        <v>990</v>
+        <v>570</v>
       </c>
       <c r="AQ35" s="15">
-        <v>1481</v>
+        <v>371</v>
       </c>
       <c r="AR35" s="15">
-        <v>570</v>
+        <v>741</v>
       </c>
       <c r="AS35" s="15">
-        <v>371</v>
+        <v>1343</v>
       </c>
       <c r="AT35" s="15">
-        <v>741</v>
+        <v>1225</v>
       </c>
       <c r="AU35" s="15">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="AV35" s="15">
-        <v>1225</v>
+        <v>1272</v>
       </c>
       <c r="AW35" s="15">
-        <v>1471</v>
+        <v>1916</v>
       </c>
       <c r="AX35" s="15">
-        <v>1272</v>
+        <v>3426</v>
       </c>
       <c r="AY35" s="15">
-        <v>1916</v>
+        <v>6886</v>
       </c>
       <c r="AZ35" s="15">
-        <v>3426</v>
+        <v>2911</v>
       </c>
       <c r="BA35" s="15">
-        <v>6886</v>
+        <v>1152</v>
       </c>
       <c r="BB35" s="15">
-        <v>2911</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>78</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="BA36" s="17"/>
       <c r="BB36" s="17"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>79</v>
       </c>
@@ -5455,11 +5455,11 @@
       <c r="V37" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="19" t="s">
-        <v>58</v>
+      <c r="W37" s="19">
+        <v>0</v>
+      </c>
+      <c r="X37" s="19">
+        <v>0</v>
       </c>
       <c r="Y37" s="19">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>80</v>
       </c>
@@ -5613,103 +5613,103 @@
         <v>0</v>
       </c>
       <c r="W38" s="15">
-        <v>0</v>
+        <v>208764</v>
       </c>
       <c r="X38" s="15">
-        <v>0</v>
+        <v>178193</v>
       </c>
       <c r="Y38" s="15">
-        <v>208764</v>
+        <v>179526</v>
       </c>
       <c r="Z38" s="15">
-        <v>178193</v>
+        <v>171629</v>
       </c>
       <c r="AA38" s="15">
-        <v>179526</v>
+        <v>121214</v>
       </c>
       <c r="AB38" s="15">
-        <v>171629</v>
+        <v>124812</v>
       </c>
       <c r="AC38" s="15">
-        <v>121214</v>
+        <v>87636</v>
       </c>
       <c r="AD38" s="15">
-        <v>124812</v>
+        <v>110642</v>
       </c>
       <c r="AE38" s="15">
-        <v>87636</v>
+        <v>174272</v>
       </c>
       <c r="AF38" s="15">
-        <v>110642</v>
+        <v>135507</v>
       </c>
       <c r="AG38" s="15">
-        <v>174272</v>
+        <v>161407</v>
       </c>
       <c r="AH38" s="15">
-        <v>135507</v>
+        <v>175578</v>
       </c>
       <c r="AI38" s="15">
-        <v>161407</v>
+        <v>125023</v>
       </c>
       <c r="AJ38" s="15">
-        <v>175578</v>
+        <v>132647</v>
       </c>
       <c r="AK38" s="15">
-        <v>125023</v>
+        <v>166769</v>
       </c>
       <c r="AL38" s="15">
-        <v>132647</v>
+        <v>193019</v>
       </c>
       <c r="AM38" s="15">
-        <v>166769</v>
+        <v>171107</v>
       </c>
       <c r="AN38" s="15">
-        <v>193019</v>
+        <v>164280</v>
       </c>
       <c r="AO38" s="15">
-        <v>171107</v>
+        <v>74722</v>
       </c>
       <c r="AP38" s="15">
-        <v>164280</v>
+        <v>95056</v>
       </c>
       <c r="AQ38" s="15">
-        <v>74722</v>
+        <v>166455</v>
       </c>
       <c r="AR38" s="15">
-        <v>95056</v>
+        <v>113027</v>
       </c>
       <c r="AS38" s="15">
-        <v>166455</v>
+        <v>182027</v>
       </c>
       <c r="AT38" s="15">
-        <v>113027</v>
+        <v>179098</v>
       </c>
       <c r="AU38" s="15">
-        <v>182027</v>
+        <v>166155</v>
       </c>
       <c r="AV38" s="15">
-        <v>179098</v>
+        <v>130135</v>
       </c>
       <c r="AW38" s="15">
-        <v>166155</v>
+        <v>168120</v>
       </c>
       <c r="AX38" s="15">
-        <v>112914</v>
+        <v>176955</v>
       </c>
       <c r="AY38" s="15">
-        <v>168120</v>
+        <v>182345</v>
       </c>
       <c r="AZ38" s="15">
-        <v>176955</v>
+        <v>150032</v>
       </c>
       <c r="BA38" s="15">
-        <v>182345</v>
+        <v>110790</v>
       </c>
       <c r="BB38" s="15">
-        <v>150032</v>
+        <v>93531</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5764,7 +5764,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5819,7 +5819,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5874,7 +5874,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
         <v>81</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -6086,7 +6086,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>82</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -6205,11 +6205,11 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>0</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
       </c>
       <c r="Y45" s="11">
         <v>0</v>
@@ -6235,11 +6235,11 @@
       <c r="AF45" s="11">
         <v>0</v>
       </c>
-      <c r="AG45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="11">
-        <v>0</v>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI45" s="11" t="s">
         <v>58</v>
@@ -6286,14 +6286,14 @@
       <c r="AW45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY45" s="11" t="s">
-        <v>58</v>
+      <c r="AX45" s="11">
+        <v>3621</v>
+      </c>
+      <c r="AY45" s="11">
+        <v>0</v>
       </c>
       <c r="AZ45" s="11">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="BA45" s="11">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>59</v>
       </c>
@@ -6391,53 +6391,53 @@
       <c r="AE46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG46" s="13" t="s">
-        <v>58</v>
+      <c r="AF46" s="13">
+        <v>132992</v>
+      </c>
+      <c r="AG46" s="13">
+        <v>158829</v>
       </c>
       <c r="AH46" s="13">
-        <v>132992</v>
+        <v>172744</v>
       </c>
       <c r="AI46" s="13">
-        <v>158829</v>
+        <v>131116</v>
       </c>
       <c r="AJ46" s="13">
-        <v>172744</v>
+        <v>112650</v>
       </c>
       <c r="AK46" s="13">
-        <v>131116</v>
+        <v>182807</v>
       </c>
       <c r="AL46" s="13">
-        <v>112650</v>
+        <v>185165</v>
       </c>
       <c r="AM46" s="13">
-        <v>182807</v>
+        <v>171975</v>
       </c>
       <c r="AN46" s="13">
-        <v>185165</v>
+        <v>159026</v>
       </c>
       <c r="AO46" s="13">
-        <v>171975</v>
+        <v>71406</v>
       </c>
       <c r="AP46" s="13">
-        <v>159026</v>
+        <v>94628</v>
       </c>
       <c r="AQ46" s="13">
-        <v>71406</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>94628</v>
+        <v>162921</v>
+      </c>
+      <c r="AR46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS46" s="13">
-        <v>162921</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU46" s="13">
-        <v>0</v>
+      <c r="AU46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV46" s="13" t="s">
         <v>58</v>
@@ -6461,7 +6461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>60</v>
       </c>
@@ -6523,39 +6523,39 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>97872</v>
+      </c>
+      <c r="X47" s="11">
+        <v>67087</v>
       </c>
       <c r="Y47" s="11">
-        <v>97872</v>
+        <v>68411</v>
       </c>
       <c r="Z47" s="11">
-        <v>67087</v>
+        <v>64245</v>
       </c>
       <c r="AA47" s="11">
-        <v>68411</v>
+        <v>55320</v>
       </c>
       <c r="AB47" s="11">
-        <v>64245</v>
+        <v>61660</v>
       </c>
       <c r="AC47" s="11">
-        <v>55320</v>
+        <v>35239</v>
       </c>
       <c r="AD47" s="11">
-        <v>61660</v>
+        <v>42079</v>
       </c>
       <c r="AE47" s="11">
-        <v>35239</v>
-      </c>
-      <c r="AF47" s="11">
-        <v>42079</v>
-      </c>
-      <c r="AG47" s="11">
         <v>56222</v>
       </c>
+      <c r="AF47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH47" s="11" t="s">
         <v>58</v>
       </c>
@@ -6586,41 +6586,41 @@
       <c r="AQ47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS47" s="11" t="s">
-        <v>58</v>
+      <c r="AR47" s="11">
+        <v>61258</v>
+      </c>
+      <c r="AS47" s="11">
+        <v>69165</v>
       </c>
       <c r="AT47" s="11">
-        <v>61258</v>
+        <v>72172</v>
       </c>
       <c r="AU47" s="11">
-        <v>69165</v>
+        <v>52548</v>
       </c>
       <c r="AV47" s="11">
-        <v>72172</v>
+        <v>52024</v>
       </c>
       <c r="AW47" s="11">
-        <v>52548</v>
+        <v>68487</v>
       </c>
       <c r="AX47" s="11">
-        <v>52024</v>
+        <v>64433</v>
       </c>
       <c r="AY47" s="11">
-        <v>68487</v>
+        <v>60936</v>
       </c>
       <c r="AZ47" s="11">
-        <v>64433</v>
+        <v>36337</v>
       </c>
       <c r="BA47" s="11">
-        <v>60936</v>
+        <v>22004</v>
       </c>
       <c r="BB47" s="11">
-        <v>36337</v>
+        <v>28423</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>61</v>
       </c>
@@ -6757,29 +6757,29 @@
       <c r="AU48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW48" s="13" t="s">
-        <v>58</v>
+      <c r="AV48" s="13">
+        <v>1607</v>
+      </c>
+      <c r="AW48" s="13">
+        <v>11036</v>
       </c>
       <c r="AX48" s="13">
-        <v>1607</v>
+        <v>13252</v>
       </c>
       <c r="AY48" s="13">
-        <v>11036</v>
+        <v>17696</v>
       </c>
       <c r="AZ48" s="13">
-        <v>13252</v>
+        <v>21015</v>
       </c>
       <c r="BA48" s="13">
-        <v>17696</v>
+        <v>19044</v>
       </c>
       <c r="BB48" s="13">
-        <v>21015</v>
+        <v>23978</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>62</v>
       </c>
@@ -6841,39 +6841,39 @@
       <c r="V49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>58</v>
+      <c r="W49" s="11">
+        <v>76934</v>
+      </c>
+      <c r="X49" s="11">
+        <v>68812</v>
       </c>
       <c r="Y49" s="11">
-        <v>76934</v>
+        <v>60429</v>
       </c>
       <c r="Z49" s="11">
-        <v>68812</v>
+        <v>62463</v>
       </c>
       <c r="AA49" s="11">
-        <v>60429</v>
+        <v>36697</v>
       </c>
       <c r="AB49" s="11">
-        <v>62463</v>
+        <v>55673</v>
       </c>
       <c r="AC49" s="11">
-        <v>36697</v>
+        <v>31725</v>
       </c>
       <c r="AD49" s="11">
-        <v>55673</v>
+        <v>42014</v>
       </c>
       <c r="AE49" s="11">
-        <v>31725</v>
-      </c>
-      <c r="AF49" s="11">
-        <v>42014</v>
-      </c>
-      <c r="AG49" s="11">
         <v>73716</v>
       </c>
+      <c r="AF49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH49" s="11" t="s">
         <v>58</v>
       </c>
@@ -6904,41 +6904,41 @@
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS49" s="11" t="s">
-        <v>58</v>
+      <c r="AR49" s="11">
+        <v>48708</v>
+      </c>
+      <c r="AS49" s="11">
+        <v>60988</v>
       </c>
       <c r="AT49" s="11">
-        <v>48708</v>
+        <v>60989</v>
       </c>
       <c r="AU49" s="11">
-        <v>60988</v>
+        <v>49061</v>
       </c>
       <c r="AV49" s="11">
-        <v>60989</v>
+        <v>39040</v>
       </c>
       <c r="AW49" s="11">
-        <v>49061</v>
+        <v>40282</v>
       </c>
       <c r="AX49" s="11">
-        <v>39038</v>
+        <v>34487</v>
       </c>
       <c r="AY49" s="11">
-        <v>40282</v>
+        <v>31150</v>
       </c>
       <c r="AZ49" s="11">
-        <v>34487</v>
+        <v>31020</v>
       </c>
       <c r="BA49" s="11">
-        <v>31150</v>
+        <v>22741</v>
       </c>
       <c r="BB49" s="11">
-        <v>31020</v>
+        <v>18913</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>63</v>
       </c>
@@ -7000,26 +7000,26 @@
       <c r="V50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="13" t="s">
-        <v>58</v>
+      <c r="W50" s="13">
+        <v>0</v>
+      </c>
+      <c r="X50" s="13">
+        <v>0</v>
       </c>
       <c r="Y50" s="13">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z50" s="13">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA50" s="13">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AB50" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="13">
         <v>0</v>
@@ -7027,11 +7027,11 @@
       <c r="AE50" s="13">
         <v>0</v>
       </c>
-      <c r="AF50" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="13">
-        <v>0</v>
+      <c r="AF50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH50" s="13" t="s">
         <v>58</v>
@@ -7097,7 +7097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>64</v>
       </c>
@@ -7159,39 +7159,39 @@
       <c r="V51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>58</v>
+      <c r="W51" s="11">
+        <v>0</v>
+      </c>
+      <c r="X51" s="11">
+        <v>0</v>
       </c>
       <c r="Y51" s="11">
         <v>0</v>
       </c>
       <c r="Z51" s="11">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AA51" s="11">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="AB51" s="11">
-        <v>123</v>
+        <v>727</v>
       </c>
       <c r="AC51" s="11">
-        <v>483</v>
+        <v>934</v>
       </c>
       <c r="AD51" s="11">
-        <v>727</v>
+        <v>1073</v>
       </c>
       <c r="AE51" s="11">
-        <v>934</v>
-      </c>
-      <c r="AF51" s="11">
-        <v>1073</v>
-      </c>
-      <c r="AG51" s="11">
         <v>1330</v>
       </c>
+      <c r="AF51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH51" s="11" t="s">
         <v>58</v>
       </c>
@@ -7222,41 +7222,41 @@
       <c r="AQ51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS51" s="11" t="s">
-        <v>58</v>
+      <c r="AR51" s="11">
+        <v>579</v>
+      </c>
+      <c r="AS51" s="11">
+        <v>119</v>
       </c>
       <c r="AT51" s="11">
-        <v>579</v>
+        <v>823</v>
       </c>
       <c r="AU51" s="11">
-        <v>119</v>
+        <v>1229</v>
       </c>
       <c r="AV51" s="11">
-        <v>823</v>
+        <v>616</v>
       </c>
       <c r="AW51" s="11">
-        <v>1229</v>
+        <v>306</v>
       </c>
       <c r="AX51" s="11">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="11">
-        <v>306</v>
+        <v>100</v>
       </c>
       <c r="AZ51" s="11">
         <v>0</v>
       </c>
       <c r="BA51" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>65</v>
       </c>
@@ -7318,38 +7318,38 @@
       <c r="V52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>58</v>
+      <c r="W52" s="13">
+        <v>18658</v>
+      </c>
+      <c r="X52" s="13">
+        <v>16528</v>
       </c>
       <c r="Y52" s="13">
-        <v>18658</v>
+        <v>18890</v>
       </c>
       <c r="Z52" s="13">
-        <v>16528</v>
+        <v>17373</v>
       </c>
       <c r="AA52" s="13">
-        <v>18890</v>
+        <v>6568</v>
       </c>
       <c r="AB52" s="13">
-        <v>17373</v>
+        <v>4223</v>
       </c>
       <c r="AC52" s="13">
-        <v>6568</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="13">
-        <v>4223</v>
+        <v>1298</v>
       </c>
       <c r="AE52" s="13">
         <v>0</v>
       </c>
-      <c r="AF52" s="13">
-        <v>1298</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>0</v>
+      <c r="AF52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH52" s="13" t="s">
         <v>58</v>
@@ -7381,14 +7381,14 @@
       <c r="AQ52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR52" s="13" t="s">
-        <v>58</v>
+      <c r="AR52" s="13">
+        <v>472</v>
       </c>
       <c r="AS52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT52" s="13">
-        <v>472</v>
+      <c r="AT52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU52" s="13" t="s">
         <v>58</v>
@@ -7415,7 +7415,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>66</v>
       </c>
@@ -7477,38 +7477,38 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>0</v>
+      </c>
+      <c r="X53" s="11">
+        <v>0</v>
       </c>
       <c r="Y53" s="11">
-        <v>0</v>
+        <v>4741</v>
       </c>
       <c r="Z53" s="11">
         <v>0</v>
       </c>
       <c r="AA53" s="11">
-        <v>4741</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="11">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AC53" s="11">
         <v>0</v>
       </c>
       <c r="AD53" s="11">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="11">
         <v>0</v>
       </c>
-      <c r="AF53" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>0</v>
+      <c r="AF53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH53" s="11" t="s">
         <v>58</v>
@@ -7540,11 +7540,11 @@
       <c r="AQ53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS53" s="11" t="s">
-        <v>58</v>
+      <c r="AR53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="11">
+        <v>0</v>
       </c>
       <c r="AT53" s="11">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>67</v>
       </c>
@@ -7636,39 +7636,39 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>0</v>
+      </c>
+      <c r="X54" s="13">
+        <v>7401</v>
       </c>
       <c r="Y54" s="13">
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="Z54" s="13">
-        <v>7401</v>
+        <v>14817</v>
       </c>
       <c r="AA54" s="13">
-        <v>10002</v>
+        <v>13300</v>
       </c>
       <c r="AB54" s="13">
-        <v>14817</v>
+        <v>11525</v>
       </c>
       <c r="AC54" s="13">
-        <v>13300</v>
+        <v>11620</v>
       </c>
       <c r="AD54" s="13">
-        <v>11525</v>
+        <v>7712</v>
       </c>
       <c r="AE54" s="13">
-        <v>11620</v>
-      </c>
-      <c r="AF54" s="13">
-        <v>7712</v>
-      </c>
-      <c r="AG54" s="13">
         <v>30065</v>
       </c>
+      <c r="AF54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG54" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH54" s="13" t="s">
         <v>58</v>
       </c>
@@ -7699,41 +7699,41 @@
       <c r="AQ54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS54" s="13" t="s">
-        <v>58</v>
+      <c r="AR54" s="13">
+        <v>14005</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>17689</v>
       </c>
       <c r="AT54" s="13">
-        <v>14005</v>
+        <v>17671</v>
       </c>
       <c r="AU54" s="13">
-        <v>17689</v>
+        <v>14449</v>
       </c>
       <c r="AV54" s="13">
-        <v>17671</v>
+        <v>14539</v>
       </c>
       <c r="AW54" s="13">
-        <v>14449</v>
+        <v>19316</v>
       </c>
       <c r="AX54" s="13">
-        <v>14540</v>
+        <v>23960</v>
       </c>
       <c r="AY54" s="13">
-        <v>19316</v>
+        <v>25454</v>
       </c>
       <c r="AZ54" s="13">
-        <v>23960</v>
+        <v>14823</v>
       </c>
       <c r="BA54" s="13">
-        <v>25454</v>
+        <v>7571</v>
       </c>
       <c r="BB54" s="13">
-        <v>14823</v>
+        <v>7676</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>68</v>
       </c>
@@ -7795,11 +7795,11 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>0</v>
+      </c>
+      <c r="X55" s="11">
+        <v>0</v>
       </c>
       <c r="Y55" s="11">
         <v>0</v>
@@ -7822,11 +7822,11 @@
       <c r="AE55" s="11">
         <v>0</v>
       </c>
-      <c r="AF55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>0</v>
+      <c r="AF55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH55" s="11" t="s">
         <v>58</v>
@@ -7858,14 +7858,14 @@
       <c r="AQ55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="11" t="s">
-        <v>58</v>
+      <c r="AR55" s="11">
+        <v>23</v>
+      </c>
+      <c r="AS55" s="11">
+        <v>0</v>
       </c>
       <c r="AT55" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AU55" s="11">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>69</v>
       </c>
@@ -8020,38 +8020,38 @@
       <c r="AR56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT56" s="13" t="s">
-        <v>58</v>
+      <c r="AS56" s="13">
+        <v>11025</v>
+      </c>
+      <c r="AT56" s="13">
+        <v>16247</v>
       </c>
       <c r="AU56" s="13">
-        <v>11025</v>
+        <v>18357</v>
       </c>
       <c r="AV56" s="13">
-        <v>16247</v>
+        <v>17407</v>
       </c>
       <c r="AW56" s="13">
-        <v>18357</v>
+        <v>33793</v>
       </c>
       <c r="AX56" s="13">
-        <v>0</v>
+        <v>32024</v>
       </c>
       <c r="AY56" s="13">
-        <v>33793</v>
+        <v>42177</v>
       </c>
       <c r="AZ56" s="13">
-        <v>32024</v>
+        <v>44162</v>
       </c>
       <c r="BA56" s="13">
-        <v>42177</v>
+        <v>23819</v>
       </c>
       <c r="BB56" s="13">
-        <v>44162</v>
+        <v>18195</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>70</v>
       </c>
@@ -8176,41 +8176,41 @@
       <c r="AQ57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS57" s="11" t="s">
-        <v>58</v>
+      <c r="AR57" s="11">
+        <v>5647</v>
+      </c>
+      <c r="AS57" s="11">
+        <v>11031</v>
       </c>
       <c r="AT57" s="11">
-        <v>5647</v>
+        <v>14635</v>
       </c>
       <c r="AU57" s="11">
-        <v>11031</v>
+        <v>11323</v>
       </c>
       <c r="AV57" s="11">
-        <v>14635</v>
+        <v>7483</v>
       </c>
       <c r="AW57" s="11">
-        <v>11323</v>
+        <v>5478</v>
       </c>
       <c r="AX57" s="11">
-        <v>7485</v>
+        <v>2532</v>
       </c>
       <c r="AY57" s="11">
-        <v>5478</v>
+        <v>1587</v>
       </c>
       <c r="AZ57" s="11">
-        <v>2532</v>
+        <v>609</v>
       </c>
       <c r="BA57" s="11">
-        <v>1587</v>
+        <v>70</v>
       </c>
       <c r="BB57" s="11">
-        <v>609</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>83</v>
       </c>
@@ -8271,103 +8271,103 @@
         <v>0</v>
       </c>
       <c r="W58" s="15">
-        <v>0</v>
+        <v>193464</v>
       </c>
       <c r="X58" s="15">
-        <v>0</v>
+        <v>159828</v>
       </c>
       <c r="Y58" s="15">
-        <v>193464</v>
+        <v>162497</v>
       </c>
       <c r="Z58" s="15">
-        <v>159828</v>
+        <v>159106</v>
       </c>
       <c r="AA58" s="15">
-        <v>162497</v>
+        <v>112383</v>
       </c>
       <c r="AB58" s="15">
-        <v>159106</v>
+        <v>134286</v>
       </c>
       <c r="AC58" s="15">
-        <v>112383</v>
+        <v>79518</v>
       </c>
       <c r="AD58" s="15">
-        <v>134286</v>
+        <v>94176</v>
       </c>
       <c r="AE58" s="15">
-        <v>79518</v>
+        <v>161333</v>
       </c>
       <c r="AF58" s="15">
-        <v>94176</v>
+        <v>132992</v>
       </c>
       <c r="AG58" s="15">
-        <v>161333</v>
+        <v>158829</v>
       </c>
       <c r="AH58" s="15">
-        <v>132992</v>
+        <v>172744</v>
       </c>
       <c r="AI58" s="15">
-        <v>158829</v>
+        <v>131116</v>
       </c>
       <c r="AJ58" s="15">
-        <v>172744</v>
+        <v>112650</v>
       </c>
       <c r="AK58" s="15">
-        <v>131116</v>
+        <v>182807</v>
       </c>
       <c r="AL58" s="15">
-        <v>112650</v>
+        <v>185165</v>
       </c>
       <c r="AM58" s="15">
-        <v>182807</v>
+        <v>171975</v>
       </c>
       <c r="AN58" s="15">
-        <v>185165</v>
+        <v>159026</v>
       </c>
       <c r="AO58" s="15">
-        <v>171975</v>
+        <v>71406</v>
       </c>
       <c r="AP58" s="15">
-        <v>159026</v>
+        <v>94628</v>
       </c>
       <c r="AQ58" s="15">
-        <v>71406</v>
+        <v>162921</v>
       </c>
       <c r="AR58" s="15">
-        <v>94628</v>
+        <v>130692</v>
       </c>
       <c r="AS58" s="15">
-        <v>162921</v>
+        <v>170017</v>
       </c>
       <c r="AT58" s="15">
-        <v>130692</v>
+        <v>182537</v>
       </c>
       <c r="AU58" s="15">
-        <v>170017</v>
+        <v>146967</v>
       </c>
       <c r="AV58" s="15">
-        <v>182537</v>
+        <v>132716</v>
       </c>
       <c r="AW58" s="15">
-        <v>146967</v>
+        <v>178698</v>
       </c>
       <c r="AX58" s="15">
-        <v>115310</v>
+        <v>174309</v>
       </c>
       <c r="AY58" s="15">
-        <v>178698</v>
+        <v>179100</v>
       </c>
       <c r="AZ58" s="15">
-        <v>174309</v>
+        <v>147966</v>
       </c>
       <c r="BA58" s="15">
-        <v>179100</v>
+        <v>95249</v>
       </c>
       <c r="BB58" s="15">
-        <v>147966</v>
+        <v>97454</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>84</v>
       </c>
@@ -8424,7 +8424,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>56</v>
       </c>
@@ -8513,18 +8513,18 @@
       <c r="AE60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH60" s="11">
+      <c r="AF60" s="11">
         <v>4245</v>
       </c>
-      <c r="AI60" s="11">
+      <c r="AG60" s="11">
         <v>1040</v>
       </c>
+      <c r="AH60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI60" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ60" s="11" t="s">
         <v>58</v>
       </c>
@@ -8537,23 +8537,23 @@
       <c r="AM60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP60" s="11">
+      <c r="AN60" s="11">
         <v>990</v>
       </c>
-      <c r="AQ60" s="11">
+      <c r="AO60" s="11">
         <v>10</v>
       </c>
-      <c r="AR60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS60" s="11" t="s">
-        <v>58</v>
+      <c r="AP60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ60" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="11">
+        <v>0</v>
       </c>
       <c r="AT60" s="11">
         <v>0</v>
@@ -8580,10 +8580,10 @@
         <v>0</v>
       </c>
       <c r="BB60" s="11">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>59</v>
       </c>
@@ -8672,14 +8672,14 @@
       <c r="AE61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF61" s="13" t="s">
-        <v>58</v>
+      <c r="AF61" s="13">
+        <v>5454</v>
       </c>
       <c r="AG61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH61" s="13">
-        <v>5454</v>
+      <c r="AH61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI61" s="13" t="s">
         <v>58</v>
@@ -8693,27 +8693,27 @@
       <c r="AL61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN61" s="13" t="s">
-        <v>58</v>
+      <c r="AM61" s="13">
+        <v>303</v>
+      </c>
+      <c r="AN61" s="13">
+        <v>1833</v>
       </c>
       <c r="AO61" s="13">
-        <v>303</v>
+        <v>1474</v>
       </c>
       <c r="AP61" s="13">
-        <v>1833</v>
+        <v>577</v>
       </c>
       <c r="AQ61" s="13">
-        <v>1474</v>
-      </c>
-      <c r="AR61" s="13">
-        <v>577</v>
-      </c>
-      <c r="AS61" s="13">
         <v>390</v>
       </c>
+      <c r="AR61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS61" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT61" s="13" t="s">
         <v>58</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>73</v>
       </c>
@@ -8804,39 +8804,39 @@
       <c r="V62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="11" t="s">
-        <v>58</v>
+      <c r="W62" s="11">
+        <v>6497</v>
+      </c>
+      <c r="X62" s="11">
+        <v>7173</v>
       </c>
       <c r="Y62" s="11">
-        <v>6497</v>
+        <v>8197</v>
       </c>
       <c r="Z62" s="11">
-        <v>7173</v>
+        <v>4407</v>
       </c>
       <c r="AA62" s="11">
-        <v>8197</v>
+        <v>1941</v>
       </c>
       <c r="AB62" s="11">
-        <v>4407</v>
+        <v>2561</v>
       </c>
       <c r="AC62" s="11">
-        <v>1941</v>
+        <v>2615</v>
       </c>
       <c r="AD62" s="11">
-        <v>2561</v>
+        <v>2767</v>
       </c>
       <c r="AE62" s="11">
-        <v>2615</v>
-      </c>
-      <c r="AF62" s="11">
-        <v>2767</v>
-      </c>
-      <c r="AG62" s="11">
         <v>4960</v>
       </c>
+      <c r="AF62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG62" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH62" s="11" t="s">
         <v>58</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>61</v>
       </c>
@@ -9026,41 +9026,41 @@
       <c r="AQ63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS63" s="13" t="s">
-        <v>58</v>
+      <c r="AR63" s="13">
+        <v>741</v>
+      </c>
+      <c r="AS63" s="13">
+        <v>1244</v>
       </c>
       <c r="AT63" s="13">
-        <v>741</v>
+        <v>1001</v>
       </c>
       <c r="AU63" s="13">
-        <v>1244</v>
+        <v>1274</v>
       </c>
       <c r="AV63" s="13">
-        <v>1001</v>
+        <v>1272</v>
       </c>
       <c r="AW63" s="13">
-        <v>1274</v>
+        <v>1916</v>
       </c>
       <c r="AX63" s="13">
-        <v>1272</v>
+        <v>3079</v>
       </c>
       <c r="AY63" s="13">
-        <v>1916</v>
+        <v>5717</v>
       </c>
       <c r="AZ63" s="13">
-        <v>3079</v>
+        <v>2455</v>
       </c>
       <c r="BA63" s="13">
-        <v>5717</v>
+        <v>822</v>
       </c>
       <c r="BB63" s="13">
-        <v>2455</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>62</v>
       </c>
@@ -9185,11 +9185,11 @@
       <c r="AQ64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS64" s="11" t="s">
-        <v>58</v>
+      <c r="AR64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="11">
+        <v>0</v>
       </c>
       <c r="AT64" s="11">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>74</v>
       </c>
@@ -9281,38 +9281,38 @@
       <c r="V65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="13" t="s">
-        <v>58</v>
+      <c r="W65" s="13">
+        <v>8883</v>
+      </c>
+      <c r="X65" s="13">
+        <v>7526</v>
       </c>
       <c r="Y65" s="13">
-        <v>8883</v>
+        <v>10061</v>
       </c>
       <c r="Z65" s="13">
-        <v>7526</v>
+        <v>3726</v>
       </c>
       <c r="AA65" s="13">
-        <v>10061</v>
+        <v>2580</v>
       </c>
       <c r="AB65" s="13">
-        <v>3726</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="13">
-        <v>2580</v>
+        <v>2152</v>
       </c>
       <c r="AD65" s="13">
-        <v>0</v>
+        <v>5879</v>
       </c>
       <c r="AE65" s="13">
-        <v>2152</v>
-      </c>
-      <c r="AF65" s="13">
-        <v>5879</v>
-      </c>
-      <c r="AG65" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH65" s="13" t="s">
         <v>58</v>
@@ -9378,7 +9378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>75</v>
       </c>
@@ -9440,39 +9440,39 @@
       <c r="V66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>58</v>
+      <c r="W66" s="11">
+        <v>2805</v>
+      </c>
+      <c r="X66" s="11">
+        <v>1772</v>
       </c>
       <c r="Y66" s="11">
-        <v>2805</v>
+        <v>479</v>
       </c>
       <c r="Z66" s="11">
-        <v>1772</v>
+        <v>76</v>
       </c>
       <c r="AA66" s="11">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="AB66" s="11">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="11">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="AD66" s="11">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="AE66" s="11">
-        <v>176</v>
-      </c>
-      <c r="AF66" s="11">
-        <v>2122</v>
-      </c>
-      <c r="AG66" s="11">
         <v>1548</v>
       </c>
+      <c r="AF66" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG66" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH66" s="11" t="s">
         <v>58</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>76</v>
       </c>
@@ -9602,35 +9602,35 @@
       <c r="W67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y67" s="13" t="s">
-        <v>58</v>
+      <c r="X67" s="13">
+        <v>910</v>
+      </c>
+      <c r="Y67" s="13">
+        <v>2238</v>
       </c>
       <c r="Z67" s="13">
-        <v>910</v>
+        <v>1240</v>
       </c>
       <c r="AA67" s="13">
-        <v>2238</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="13">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="13">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AD67" s="13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AE67" s="13">
-        <v>349</v>
-      </c>
-      <c r="AF67" s="13">
-        <v>103</v>
-      </c>
-      <c r="AG67" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG67" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH67" s="13" t="s">
         <v>58</v>
@@ -9696,7 +9696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>69</v>
       </c>
@@ -9824,38 +9824,38 @@
       <c r="AR68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT68" s="11" t="s">
-        <v>58</v>
+      <c r="AS68" s="11">
+        <v>99</v>
+      </c>
+      <c r="AT68" s="11">
+        <v>224</v>
       </c>
       <c r="AU68" s="11">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="AV68" s="11">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="11">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="11">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="AY68" s="11">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="AZ68" s="11">
-        <v>347</v>
+        <v>456</v>
       </c>
       <c r="BA68" s="11">
-        <v>1169</v>
+        <v>330</v>
       </c>
       <c r="BB68" s="11">
-        <v>456</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>85</v>
       </c>
@@ -9916,43 +9916,43 @@
         <v>0</v>
       </c>
       <c r="W69" s="15">
-        <v>0</v>
+        <v>18185</v>
       </c>
       <c r="X69" s="15">
-        <v>0</v>
+        <v>17381</v>
       </c>
       <c r="Y69" s="15">
-        <v>18185</v>
+        <v>20975</v>
       </c>
       <c r="Z69" s="15">
-        <v>17381</v>
+        <v>9449</v>
       </c>
       <c r="AA69" s="15">
-        <v>20975</v>
+        <v>4670</v>
       </c>
       <c r="AB69" s="15">
-        <v>9449</v>
+        <v>2561</v>
       </c>
       <c r="AC69" s="15">
-        <v>4670</v>
+        <v>5292</v>
       </c>
       <c r="AD69" s="15">
-        <v>2561</v>
+        <v>10871</v>
       </c>
       <c r="AE69" s="15">
-        <v>5292</v>
+        <v>6508</v>
       </c>
       <c r="AF69" s="15">
-        <v>10871</v>
+        <v>9699</v>
       </c>
       <c r="AG69" s="15">
-        <v>6508</v>
+        <v>1040</v>
       </c>
       <c r="AH69" s="15">
-        <v>9699</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="15">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="15">
         <v>0</v>
@@ -9964,55 +9964,55 @@
         <v>0</v>
       </c>
       <c r="AM69" s="15">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="AN69" s="15">
-        <v>0</v>
+        <v>2823</v>
       </c>
       <c r="AO69" s="15">
-        <v>303</v>
+        <v>1484</v>
       </c>
       <c r="AP69" s="15">
-        <v>2823</v>
+        <v>577</v>
       </c>
       <c r="AQ69" s="15">
-        <v>1484</v>
+        <v>390</v>
       </c>
       <c r="AR69" s="15">
-        <v>577</v>
+        <v>741</v>
       </c>
       <c r="AS69" s="15">
-        <v>390</v>
+        <v>1343</v>
       </c>
       <c r="AT69" s="15">
-        <v>741</v>
+        <v>1225</v>
       </c>
       <c r="AU69" s="15">
-        <v>1343</v>
+        <v>1471</v>
       </c>
       <c r="AV69" s="15">
-        <v>1225</v>
+        <v>1272</v>
       </c>
       <c r="AW69" s="15">
-        <v>1471</v>
+        <v>1916</v>
       </c>
       <c r="AX69" s="15">
-        <v>1272</v>
+        <v>3426</v>
       </c>
       <c r="AY69" s="15">
-        <v>1916</v>
+        <v>6886</v>
       </c>
       <c r="AZ69" s="15">
-        <v>3426</v>
+        <v>2911</v>
       </c>
       <c r="BA69" s="15">
-        <v>6886</v>
+        <v>1152</v>
       </c>
       <c r="BB69" s="15">
-        <v>2911</v>
+        <v>388</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>78</v>
       </c>
@@ -10069,7 +10069,7 @@
       <c r="BA70" s="17"/>
       <c r="BB70" s="17"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>79</v>
       </c>
@@ -10129,11 +10129,11 @@
       <c r="V71" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="19" t="s">
-        <v>58</v>
+      <c r="W71" s="19">
+        <v>0</v>
+      </c>
+      <c r="X71" s="19">
+        <v>0</v>
       </c>
       <c r="Y71" s="19">
         <v>0</v>
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>86</v>
       </c>
@@ -10283,7 +10283,7 @@
       <c r="BA72" s="17"/>
       <c r="BB72" s="17"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="s">
         <v>87</v>
       </c>
@@ -10343,11 +10343,11 @@
       <c r="V73" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W73" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X73" s="19" t="s">
-        <v>58</v>
+      <c r="W73" s="19">
+        <v>0</v>
+      </c>
+      <c r="X73" s="19">
+        <v>0</v>
       </c>
       <c r="Y73" s="19">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>80</v>
       </c>
@@ -10501,103 +10501,103 @@
         <v>0</v>
       </c>
       <c r="W74" s="15">
-        <v>0</v>
+        <v>211649</v>
       </c>
       <c r="X74" s="15">
-        <v>0</v>
+        <v>177209</v>
       </c>
       <c r="Y74" s="15">
-        <v>211649</v>
+        <v>183472</v>
       </c>
       <c r="Z74" s="15">
-        <v>177209</v>
+        <v>168555</v>
       </c>
       <c r="AA74" s="15">
-        <v>183472</v>
+        <v>117053</v>
       </c>
       <c r="AB74" s="15">
-        <v>168555</v>
+        <v>136847</v>
       </c>
       <c r="AC74" s="15">
-        <v>117053</v>
+        <v>84810</v>
       </c>
       <c r="AD74" s="15">
-        <v>136847</v>
+        <v>105047</v>
       </c>
       <c r="AE74" s="15">
-        <v>84810</v>
+        <v>167841</v>
       </c>
       <c r="AF74" s="15">
-        <v>105047</v>
+        <v>142691</v>
       </c>
       <c r="AG74" s="15">
-        <v>167841</v>
+        <v>159869</v>
       </c>
       <c r="AH74" s="15">
-        <v>142691</v>
+        <v>172744</v>
       </c>
       <c r="AI74" s="15">
-        <v>159869</v>
+        <v>131116</v>
       </c>
       <c r="AJ74" s="15">
-        <v>172744</v>
+        <v>112650</v>
       </c>
       <c r="AK74" s="15">
-        <v>131116</v>
+        <v>182807</v>
       </c>
       <c r="AL74" s="15">
-        <v>112650</v>
+        <v>185165</v>
       </c>
       <c r="AM74" s="15">
-        <v>182807</v>
+        <v>172278</v>
       </c>
       <c r="AN74" s="15">
-        <v>185165</v>
+        <v>161849</v>
       </c>
       <c r="AO74" s="15">
-        <v>172278</v>
+        <v>72890</v>
       </c>
       <c r="AP74" s="15">
-        <v>161849</v>
+        <v>95205</v>
       </c>
       <c r="AQ74" s="15">
-        <v>72890</v>
+        <v>163311</v>
       </c>
       <c r="AR74" s="15">
-        <v>95205</v>
+        <v>131433</v>
       </c>
       <c r="AS74" s="15">
-        <v>163311</v>
+        <v>171360</v>
       </c>
       <c r="AT74" s="15">
-        <v>131433</v>
+        <v>183762</v>
       </c>
       <c r="AU74" s="15">
-        <v>171360</v>
+        <v>148438</v>
       </c>
       <c r="AV74" s="15">
-        <v>183762</v>
+        <v>133988</v>
       </c>
       <c r="AW74" s="15">
-        <v>148438</v>
+        <v>180614</v>
       </c>
       <c r="AX74" s="15">
-        <v>116582</v>
+        <v>177735</v>
       </c>
       <c r="AY74" s="15">
-        <v>180614</v>
+        <v>185986</v>
       </c>
       <c r="AZ74" s="15">
-        <v>177735</v>
+        <v>150877</v>
       </c>
       <c r="BA74" s="15">
-        <v>185986</v>
+        <v>96401</v>
       </c>
       <c r="BB74" s="15">
-        <v>150877</v>
+        <v>97842</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -10652,7 +10652,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -10707,7 +10707,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -10762,7 +10762,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
         <v>88</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10974,7 +10974,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>89</v>
       </c>
@@ -11031,7 +11031,7 @@
       <c r="BA80" s="9"/>
       <c r="BB80" s="9"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>56</v>
       </c>
@@ -11093,11 +11093,11 @@
       <c r="V81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>58</v>
+      <c r="W81" s="11">
+        <v>0</v>
+      </c>
+      <c r="X81" s="11">
+        <v>0</v>
       </c>
       <c r="Y81" s="11">
         <v>0</v>
@@ -11156,11 +11156,11 @@
       <c r="AQ81" s="11">
         <v>0</v>
       </c>
-      <c r="AR81" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS81" s="11">
-        <v>0</v>
+      <c r="AR81" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT81" s="11" t="s">
         <v>58</v>
@@ -11174,14 +11174,14 @@
       <c r="AW81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY81" s="11" t="s">
-        <v>58</v>
+      <c r="AX81" s="11">
+        <v>1620</v>
+      </c>
+      <c r="AY81" s="11">
+        <v>0</v>
       </c>
       <c r="AZ81" s="11">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="BA81" s="11">
         <v>0</v>
@@ -11190,7 +11190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>59</v>
       </c>
@@ -11279,53 +11279,53 @@
       <c r="AE82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG82" s="13" t="s">
-        <v>58</v>
+      <c r="AF82" s="13">
+        <v>370316</v>
+      </c>
+      <c r="AG82" s="13">
+        <v>593166</v>
       </c>
       <c r="AH82" s="13">
-        <v>370316</v>
+        <v>656975</v>
       </c>
       <c r="AI82" s="13">
-        <v>593166</v>
+        <v>663330</v>
       </c>
       <c r="AJ82" s="13">
-        <v>656975</v>
+        <v>678947</v>
       </c>
       <c r="AK82" s="13">
-        <v>663330</v>
+        <v>1132444</v>
       </c>
       <c r="AL82" s="13">
-        <v>678947</v>
+        <v>854807</v>
       </c>
       <c r="AM82" s="13">
-        <v>1132444</v>
+        <v>788989</v>
       </c>
       <c r="AN82" s="13">
-        <v>854807</v>
+        <v>683241</v>
       </c>
       <c r="AO82" s="13">
-        <v>788989</v>
+        <v>316567</v>
       </c>
       <c r="AP82" s="13">
-        <v>683241</v>
+        <v>462861</v>
       </c>
       <c r="AQ82" s="13">
-        <v>316567</v>
-      </c>
-      <c r="AR82" s="13">
-        <v>462861</v>
+        <v>855789</v>
+      </c>
+      <c r="AR82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS82" s="13">
-        <v>855789</v>
+        <v>0</v>
       </c>
       <c r="AT82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU82" s="13">
-        <v>0</v>
+      <c r="AU82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV82" s="13" t="s">
         <v>58</v>
@@ -11349,7 +11349,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>60</v>
       </c>
@@ -11411,39 +11411,39 @@
       <c r="V83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>58</v>
+      <c r="W83" s="11">
+        <v>240050</v>
+      </c>
+      <c r="X83" s="11">
+        <v>175882</v>
       </c>
       <c r="Y83" s="11">
-        <v>240050</v>
+        <v>183844</v>
       </c>
       <c r="Z83" s="11">
-        <v>175882</v>
+        <v>178487</v>
       </c>
       <c r="AA83" s="11">
-        <v>183844</v>
+        <v>167448</v>
       </c>
       <c r="AB83" s="11">
-        <v>178487</v>
+        <v>190559</v>
       </c>
       <c r="AC83" s="11">
-        <v>167448</v>
+        <v>109119</v>
       </c>
       <c r="AD83" s="11">
-        <v>190559</v>
+        <v>130400</v>
       </c>
       <c r="AE83" s="11">
-        <v>109119</v>
-      </c>
-      <c r="AF83" s="11">
-        <v>130400</v>
-      </c>
-      <c r="AG83" s="11">
         <v>174094</v>
       </c>
+      <c r="AF83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG83" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH83" s="11" t="s">
         <v>58</v>
       </c>
@@ -11474,41 +11474,41 @@
       <c r="AQ83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS83" s="11" t="s">
-        <v>58</v>
+      <c r="AR83" s="11">
+        <v>412214</v>
+      </c>
+      <c r="AS83" s="11">
+        <v>465818</v>
       </c>
       <c r="AT83" s="11">
-        <v>412214</v>
+        <v>555529</v>
       </c>
       <c r="AU83" s="11">
-        <v>465818</v>
+        <v>438161</v>
       </c>
       <c r="AV83" s="11">
-        <v>555529</v>
+        <v>408674</v>
       </c>
       <c r="AW83" s="11">
-        <v>438161</v>
+        <v>509975</v>
       </c>
       <c r="AX83" s="11">
-        <v>408675</v>
+        <v>469885</v>
       </c>
       <c r="AY83" s="11">
-        <v>509975</v>
+        <v>443554</v>
       </c>
       <c r="AZ83" s="11">
-        <v>469885</v>
+        <v>262130</v>
       </c>
       <c r="BA83" s="11">
-        <v>443554</v>
+        <v>155316</v>
       </c>
       <c r="BB83" s="11">
-        <v>262130</v>
+        <v>205013</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>61</v>
       </c>
@@ -11645,29 +11645,29 @@
       <c r="AU84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW84" s="13" t="s">
-        <v>58</v>
+      <c r="AV84" s="13">
+        <v>11090</v>
+      </c>
+      <c r="AW84" s="13">
+        <v>71784</v>
       </c>
       <c r="AX84" s="13">
-        <v>11090</v>
+        <v>85772</v>
       </c>
       <c r="AY84" s="13">
-        <v>71784</v>
+        <v>113312</v>
       </c>
       <c r="AZ84" s="13">
-        <v>85772</v>
+        <v>124936</v>
       </c>
       <c r="BA84" s="13">
-        <v>113312</v>
+        <v>112923</v>
       </c>
       <c r="BB84" s="13">
-        <v>124936</v>
+        <v>147213</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>62</v>
       </c>
@@ -11729,39 +11729,39 @@
       <c r="V85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="11" t="s">
-        <v>58</v>
+      <c r="W85" s="11">
+        <v>161027</v>
+      </c>
+      <c r="X85" s="11">
+        <v>151856</v>
       </c>
       <c r="Y85" s="11">
-        <v>161027</v>
+        <v>133004</v>
       </c>
       <c r="Z85" s="11">
-        <v>151856</v>
+        <v>137472</v>
       </c>
       <c r="AA85" s="11">
-        <v>133004</v>
+        <v>80737</v>
       </c>
       <c r="AB85" s="11">
-        <v>137472</v>
+        <v>122525</v>
       </c>
       <c r="AC85" s="11">
-        <v>80737</v>
+        <v>69816</v>
       </c>
       <c r="AD85" s="11">
-        <v>122525</v>
+        <v>92435</v>
       </c>
       <c r="AE85" s="11">
-        <v>69816</v>
-      </c>
-      <c r="AF85" s="11">
-        <v>92435</v>
-      </c>
-      <c r="AG85" s="11">
         <v>162174</v>
       </c>
+      <c r="AF85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG85" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH85" s="11" t="s">
         <v>58</v>
       </c>
@@ -11792,41 +11792,41 @@
       <c r="AQ85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS85" s="11" t="s">
-        <v>58</v>
+      <c r="AR85" s="11">
+        <v>255681</v>
+      </c>
+      <c r="AS85" s="11">
+        <v>333582</v>
       </c>
       <c r="AT85" s="11">
-        <v>255681</v>
+        <v>376193</v>
       </c>
       <c r="AU85" s="11">
-        <v>333582</v>
+        <v>355744</v>
       </c>
       <c r="AV85" s="11">
-        <v>376193</v>
+        <v>281873</v>
       </c>
       <c r="AW85" s="11">
-        <v>355744</v>
+        <v>285493</v>
       </c>
       <c r="AX85" s="11">
-        <v>281876</v>
+        <v>234304</v>
       </c>
       <c r="AY85" s="11">
-        <v>285493</v>
+        <v>211020</v>
       </c>
       <c r="AZ85" s="11">
-        <v>234304</v>
+        <v>208868</v>
       </c>
       <c r="BA85" s="11">
-        <v>211020</v>
+        <v>154246</v>
       </c>
       <c r="BB85" s="11">
-        <v>208868</v>
+        <v>126623</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>63</v>
       </c>
@@ -11888,26 +11888,26 @@
       <c r="V86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="13" t="s">
-        <v>58</v>
+      <c r="W86" s="13">
+        <v>0</v>
+      </c>
+      <c r="X86" s="13">
+        <v>0</v>
       </c>
       <c r="Y86" s="13">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="Z86" s="13">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="AA86" s="13">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AB86" s="13">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="13">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AD86" s="13">
         <v>0</v>
@@ -11915,11 +11915,11 @@
       <c r="AE86" s="13">
         <v>0</v>
       </c>
-      <c r="AF86" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG86" s="13">
-        <v>0</v>
+      <c r="AF86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH86" s="13" t="s">
         <v>58</v>
@@ -11985,7 +11985,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>64</v>
       </c>
@@ -12047,39 +12047,39 @@
       <c r="V87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="11" t="s">
-        <v>58</v>
+      <c r="W87" s="11">
+        <v>0</v>
+      </c>
+      <c r="X87" s="11">
+        <v>0</v>
       </c>
       <c r="Y87" s="11">
         <v>0</v>
       </c>
       <c r="Z87" s="11">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="AA87" s="11">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="AB87" s="11">
-        <v>264</v>
+        <v>1557</v>
       </c>
       <c r="AC87" s="11">
-        <v>1034</v>
+        <v>2002</v>
       </c>
       <c r="AD87" s="11">
-        <v>1557</v>
+        <v>2301</v>
       </c>
       <c r="AE87" s="11">
-        <v>2002</v>
-      </c>
-      <c r="AF87" s="11">
-        <v>2301</v>
-      </c>
-      <c r="AG87" s="11">
         <v>2851</v>
       </c>
+      <c r="AF87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG87" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH87" s="11" t="s">
         <v>58</v>
       </c>
@@ -12110,41 +12110,41 @@
       <c r="AQ87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS87" s="11" t="s">
-        <v>58</v>
+      <c r="AR87" s="11">
+        <v>1997</v>
+      </c>
+      <c r="AS87" s="11">
+        <v>412</v>
       </c>
       <c r="AT87" s="11">
-        <v>1997</v>
+        <v>2838</v>
       </c>
       <c r="AU87" s="11">
-        <v>412</v>
+        <v>4241</v>
       </c>
       <c r="AV87" s="11">
-        <v>2838</v>
+        <v>2126</v>
       </c>
       <c r="AW87" s="11">
-        <v>4241</v>
+        <v>1057</v>
       </c>
       <c r="AX87" s="11">
-        <v>2125</v>
+        <v>0</v>
       </c>
       <c r="AY87" s="11">
-        <v>1057</v>
+        <v>800</v>
       </c>
       <c r="AZ87" s="11">
         <v>0</v>
       </c>
       <c r="BA87" s="11">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="BB87" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>65</v>
       </c>
@@ -12206,38 +12206,38 @@
       <c r="V88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="13" t="s">
-        <v>58</v>
+      <c r="W88" s="13">
+        <v>39502</v>
+      </c>
+      <c r="X88" s="13">
+        <v>36885</v>
       </c>
       <c r="Y88" s="13">
-        <v>39502</v>
+        <v>42156</v>
       </c>
       <c r="Z88" s="13">
-        <v>36885</v>
+        <v>38769</v>
       </c>
       <c r="AA88" s="13">
-        <v>42156</v>
+        <v>14657</v>
       </c>
       <c r="AB88" s="13">
-        <v>38769</v>
+        <v>9425</v>
       </c>
       <c r="AC88" s="13">
-        <v>14657</v>
+        <v>0</v>
       </c>
       <c r="AD88" s="13">
-        <v>9425</v>
+        <v>2896</v>
       </c>
       <c r="AE88" s="13">
         <v>0</v>
       </c>
-      <c r="AF88" s="13">
-        <v>2896</v>
-      </c>
-      <c r="AG88" s="13">
-        <v>0</v>
+      <c r="AF88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH88" s="13" t="s">
         <v>58</v>
@@ -12269,14 +12269,14 @@
       <c r="AQ88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR88" s="13" t="s">
-        <v>58</v>
+      <c r="AR88" s="13">
+        <v>2494</v>
       </c>
       <c r="AS88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT88" s="13">
-        <v>2494</v>
+      <c r="AT88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU88" s="13" t="s">
         <v>58</v>
@@ -12303,7 +12303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>66</v>
       </c>
@@ -12365,38 +12365,38 @@
       <c r="V89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X89" s="11" t="s">
-        <v>58</v>
+      <c r="W89" s="11">
+        <v>0</v>
+      </c>
+      <c r="X89" s="11">
+        <v>0</v>
       </c>
       <c r="Y89" s="11">
-        <v>0</v>
+        <v>12801</v>
       </c>
       <c r="Z89" s="11">
         <v>0</v>
       </c>
       <c r="AA89" s="11">
-        <v>12801</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="11">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="AC89" s="11">
         <v>0</v>
       </c>
       <c r="AD89" s="11">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="AE89" s="11">
         <v>0</v>
       </c>
-      <c r="AF89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="11">
-        <v>0</v>
+      <c r="AF89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH89" s="11" t="s">
         <v>58</v>
@@ -12428,11 +12428,11 @@
       <c r="AQ89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS89" s="11" t="s">
-        <v>58</v>
+      <c r="AR89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="11">
+        <v>0</v>
       </c>
       <c r="AT89" s="11">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>67</v>
       </c>
@@ -12524,39 +12524,39 @@
       <c r="V90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X90" s="13" t="s">
-        <v>58</v>
+      <c r="W90" s="13">
+        <v>0</v>
+      </c>
+      <c r="X90" s="13">
+        <v>19486</v>
       </c>
       <c r="Y90" s="13">
-        <v>0</v>
+        <v>26484</v>
       </c>
       <c r="Z90" s="13">
-        <v>19486</v>
+        <v>40582</v>
       </c>
       <c r="AA90" s="13">
-        <v>26484</v>
+        <v>39657</v>
       </c>
       <c r="AB90" s="13">
-        <v>40582</v>
+        <v>35062</v>
       </c>
       <c r="AC90" s="13">
-        <v>39657</v>
+        <v>35419</v>
       </c>
       <c r="AD90" s="13">
-        <v>35062</v>
+        <v>23506</v>
       </c>
       <c r="AE90" s="13">
-        <v>35419</v>
-      </c>
-      <c r="AF90" s="13">
-        <v>23506</v>
-      </c>
-      <c r="AG90" s="13">
         <v>91656</v>
       </c>
+      <c r="AF90" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG90" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH90" s="13" t="s">
         <v>58</v>
       </c>
@@ -12587,41 +12587,41 @@
       <c r="AQ90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS90" s="13" t="s">
-        <v>58</v>
+      <c r="AR90" s="13">
+        <v>87217</v>
+      </c>
+      <c r="AS90" s="13">
+        <v>106612</v>
       </c>
       <c r="AT90" s="13">
-        <v>87217</v>
+        <v>125424</v>
       </c>
       <c r="AU90" s="13">
-        <v>106612</v>
+        <v>103923</v>
       </c>
       <c r="AV90" s="13">
-        <v>125424</v>
+        <v>98349</v>
       </c>
       <c r="AW90" s="13">
-        <v>103923</v>
+        <v>123271</v>
       </c>
       <c r="AX90" s="13">
-        <v>98349</v>
+        <v>144167</v>
       </c>
       <c r="AY90" s="13">
-        <v>123271</v>
+        <v>147494</v>
       </c>
       <c r="AZ90" s="13">
-        <v>144167</v>
+        <v>86312</v>
       </c>
       <c r="BA90" s="13">
-        <v>147494</v>
+        <v>44337</v>
       </c>
       <c r="BB90" s="13">
-        <v>86312</v>
+        <v>45384</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>68</v>
       </c>
@@ -12683,11 +12683,11 @@
       <c r="V91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X91" s="11" t="s">
-        <v>58</v>
+      <c r="W91" s="11">
+        <v>0</v>
+      </c>
+      <c r="X91" s="11">
+        <v>0</v>
       </c>
       <c r="Y91" s="11">
         <v>0</v>
@@ -12710,11 +12710,11 @@
       <c r="AE91" s="11">
         <v>0</v>
       </c>
-      <c r="AF91" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG91" s="11">
-        <v>0</v>
+      <c r="AF91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG91" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH91" s="11" t="s">
         <v>58</v>
@@ -12746,14 +12746,14 @@
       <c r="AQ91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS91" s="11" t="s">
-        <v>58</v>
+      <c r="AR91" s="11">
+        <v>78</v>
+      </c>
+      <c r="AS91" s="11">
+        <v>0</v>
       </c>
       <c r="AT91" s="11">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AU91" s="11">
         <v>0</v>
@@ -12780,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>69</v>
       </c>
@@ -12908,38 +12908,38 @@
       <c r="AR92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS92" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT92" s="13" t="s">
-        <v>58</v>
+      <c r="AS92" s="13">
+        <v>52599</v>
+      </c>
+      <c r="AT92" s="13">
+        <v>91845</v>
       </c>
       <c r="AU92" s="13">
-        <v>52599</v>
+        <v>106025</v>
       </c>
       <c r="AV92" s="13">
-        <v>91845</v>
+        <v>102196</v>
       </c>
       <c r="AW92" s="13">
-        <v>106025</v>
+        <v>198279</v>
       </c>
       <c r="AX92" s="13">
-        <v>0</v>
+        <v>182959</v>
       </c>
       <c r="AY92" s="13">
-        <v>198279</v>
+        <v>230828</v>
       </c>
       <c r="AZ92" s="13">
-        <v>182959</v>
+        <v>236308</v>
       </c>
       <c r="BA92" s="13">
-        <v>230828</v>
+        <v>127249</v>
       </c>
       <c r="BB92" s="13">
-        <v>236308</v>
+        <v>95063</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>70</v>
       </c>
@@ -13064,41 +13064,41 @@
       <c r="AQ93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS93" s="11" t="s">
-        <v>58</v>
+      <c r="AR93" s="11">
+        <v>30264</v>
+      </c>
+      <c r="AS93" s="11">
+        <v>59181</v>
       </c>
       <c r="AT93" s="11">
-        <v>30264</v>
+        <v>93919</v>
       </c>
       <c r="AU93" s="11">
-        <v>59181</v>
+        <v>76657</v>
       </c>
       <c r="AV93" s="11">
-        <v>93919</v>
+        <v>48772</v>
       </c>
       <c r="AW93" s="11">
-        <v>76657</v>
+        <v>34894</v>
       </c>
       <c r="AX93" s="11">
-        <v>48771</v>
+        <v>15611</v>
       </c>
       <c r="AY93" s="11">
-        <v>34894</v>
+        <v>9195</v>
       </c>
       <c r="AZ93" s="11">
-        <v>15611</v>
+        <v>3434</v>
       </c>
       <c r="BA93" s="11">
-        <v>9195</v>
+        <v>406</v>
       </c>
       <c r="BB93" s="11">
-        <v>3434</v>
+        <v>1600</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
         <v>83</v>
       </c>
@@ -13159,103 +13159,103 @@
         <v>0</v>
       </c>
       <c r="W94" s="15">
-        <v>0</v>
+        <v>440579</v>
       </c>
       <c r="X94" s="15">
-        <v>0</v>
+        <v>384109</v>
       </c>
       <c r="Y94" s="15">
-        <v>440579</v>
+        <v>398354</v>
       </c>
       <c r="Z94" s="15">
-        <v>384109</v>
+        <v>395812</v>
       </c>
       <c r="AA94" s="15">
-        <v>398354</v>
+        <v>303579</v>
       </c>
       <c r="AB94" s="15">
-        <v>395812</v>
+        <v>360428</v>
       </c>
       <c r="AC94" s="15">
-        <v>303579</v>
+        <v>216356</v>
       </c>
       <c r="AD94" s="15">
-        <v>360428</v>
+        <v>251538</v>
       </c>
       <c r="AE94" s="15">
-        <v>216356</v>
+        <v>430775</v>
       </c>
       <c r="AF94" s="15">
-        <v>251538</v>
+        <v>370316</v>
       </c>
       <c r="AG94" s="15">
-        <v>430775</v>
+        <v>593166</v>
       </c>
       <c r="AH94" s="15">
-        <v>370316</v>
+        <v>656975</v>
       </c>
       <c r="AI94" s="15">
-        <v>593166</v>
+        <v>663330</v>
       </c>
       <c r="AJ94" s="15">
-        <v>656975</v>
+        <v>678947</v>
       </c>
       <c r="AK94" s="15">
-        <v>663330</v>
+        <v>1132444</v>
       </c>
       <c r="AL94" s="15">
-        <v>678947</v>
+        <v>854807</v>
       </c>
       <c r="AM94" s="15">
-        <v>1132444</v>
+        <v>788989</v>
       </c>
       <c r="AN94" s="15">
-        <v>854807</v>
+        <v>683241</v>
       </c>
       <c r="AO94" s="15">
-        <v>788989</v>
+        <v>316567</v>
       </c>
       <c r="AP94" s="15">
-        <v>683241</v>
+        <v>462861</v>
       </c>
       <c r="AQ94" s="15">
-        <v>316567</v>
+        <v>855789</v>
       </c>
       <c r="AR94" s="15">
-        <v>462861</v>
+        <v>789945</v>
       </c>
       <c r="AS94" s="15">
-        <v>855789</v>
+        <v>1018204</v>
       </c>
       <c r="AT94" s="15">
-        <v>789945</v>
+        <v>1245748</v>
       </c>
       <c r="AU94" s="15">
-        <v>1018204</v>
+        <v>1084751</v>
       </c>
       <c r="AV94" s="15">
-        <v>1245748</v>
+        <v>953080</v>
       </c>
       <c r="AW94" s="15">
-        <v>1084751</v>
+        <v>1224753</v>
       </c>
       <c r="AX94" s="15">
-        <v>850886</v>
+        <v>1134318</v>
       </c>
       <c r="AY94" s="15">
-        <v>1224753</v>
+        <v>1156203</v>
       </c>
       <c r="AZ94" s="15">
-        <v>1134318</v>
+        <v>921988</v>
       </c>
       <c r="BA94" s="15">
-        <v>1156203</v>
+        <v>594477</v>
       </c>
       <c r="BB94" s="15">
-        <v>921988</v>
+        <v>620896</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>91</v>
       </c>
@@ -13312,7 +13312,7 @@
       <c r="BA95" s="9"/>
       <c r="BB95" s="9"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>56</v>
       </c>
@@ -13401,17 +13401,17 @@
       <c r="AE96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG96" s="11" t="s">
-        <v>58</v>
+      <c r="AF96" s="11">
+        <v>16897</v>
+      </c>
+      <c r="AG96" s="11">
+        <v>4226</v>
       </c>
       <c r="AH96" s="11">
-        <v>16897</v>
+        <v>0</v>
       </c>
       <c r="AI96" s="11">
-        <v>4226</v>
+        <v>0</v>
       </c>
       <c r="AJ96" s="11">
         <v>0</v>
@@ -13426,16 +13426,16 @@
         <v>0</v>
       </c>
       <c r="AN96" s="11">
-        <v>0</v>
+        <v>6071</v>
       </c>
       <c r="AO96" s="11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AP96" s="11">
-        <v>6071</v>
+        <v>0</v>
       </c>
       <c r="AQ96" s="11">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AR96" s="11">
         <v>0</v>
@@ -13468,10 +13468,10 @@
         <v>0</v>
       </c>
       <c r="BB96" s="11">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>59</v>
       </c>
@@ -13560,14 +13560,14 @@
       <c r="AE97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG97" s="13" t="s">
-        <v>58</v>
+      <c r="AF97" s="13">
+        <v>31823</v>
+      </c>
+      <c r="AG97" s="13">
+        <v>0</v>
       </c>
       <c r="AH97" s="13">
-        <v>31823</v>
+        <v>0</v>
       </c>
       <c r="AI97" s="13">
         <v>0</v>
@@ -13582,26 +13582,26 @@
         <v>0</v>
       </c>
       <c r="AM97" s="13">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="AN97" s="13">
-        <v>0</v>
+        <v>15811</v>
       </c>
       <c r="AO97" s="13">
-        <v>2526</v>
+        <v>13153</v>
       </c>
       <c r="AP97" s="13">
-        <v>15811</v>
+        <v>4960</v>
       </c>
       <c r="AQ97" s="13">
-        <v>13153</v>
-      </c>
-      <c r="AR97" s="13">
-        <v>4960</v>
-      </c>
-      <c r="AS97" s="13">
         <v>3557</v>
       </c>
+      <c r="AR97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS97" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT97" s="13" t="s">
         <v>58</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>73</v>
       </c>
@@ -13692,39 +13692,39 @@
       <c r="V98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X98" s="11" t="s">
-        <v>58</v>
+      <c r="W98" s="11">
+        <v>11365</v>
+      </c>
+      <c r="X98" s="11">
+        <v>12937</v>
       </c>
       <c r="Y98" s="11">
-        <v>11365</v>
+        <v>16696</v>
       </c>
       <c r="Z98" s="11">
-        <v>12937</v>
+        <v>9837</v>
       </c>
       <c r="AA98" s="11">
-        <v>16696</v>
+        <v>5173</v>
       </c>
       <c r="AB98" s="11">
-        <v>9837</v>
+        <v>6837</v>
       </c>
       <c r="AC98" s="11">
-        <v>5173</v>
+        <v>7164</v>
       </c>
       <c r="AD98" s="11">
-        <v>6837</v>
+        <v>7520</v>
       </c>
       <c r="AE98" s="11">
-        <v>7164</v>
-      </c>
-      <c r="AF98" s="11">
-        <v>7520</v>
-      </c>
-      <c r="AG98" s="11">
         <v>14182</v>
       </c>
+      <c r="AF98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG98" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH98" s="11" t="s">
         <v>58</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>61</v>
       </c>
@@ -13914,41 +13914,41 @@
       <c r="AQ99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS99" s="13" t="s">
-        <v>58</v>
+      <c r="AR99" s="13">
+        <v>6879</v>
+      </c>
+      <c r="AS99" s="13">
+        <v>11616</v>
       </c>
       <c r="AT99" s="13">
-        <v>6879</v>
+        <v>9606</v>
       </c>
       <c r="AU99" s="13">
-        <v>11616</v>
+        <v>12682</v>
       </c>
       <c r="AV99" s="13">
-        <v>9606</v>
+        <v>12228</v>
       </c>
       <c r="AW99" s="13">
-        <v>12682</v>
+        <v>18284</v>
       </c>
       <c r="AX99" s="13">
-        <v>12257</v>
+        <v>26018</v>
       </c>
       <c r="AY99" s="13">
-        <v>18284</v>
+        <v>45489</v>
       </c>
       <c r="AZ99" s="13">
-        <v>26018</v>
+        <v>19780</v>
       </c>
       <c r="BA99" s="13">
-        <v>45489</v>
+        <v>6820</v>
       </c>
       <c r="BB99" s="13">
-        <v>19780</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>62</v>
       </c>
@@ -14073,11 +14073,11 @@
       <c r="AQ100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS100" s="11" t="s">
-        <v>58</v>
+      <c r="AR100" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS100" s="11">
+        <v>0</v>
       </c>
       <c r="AT100" s="11">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>74</v>
       </c>
@@ -14169,38 +14169,38 @@
       <c r="V101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" s="13" t="s">
-        <v>58</v>
+      <c r="W101" s="13">
+        <v>28850</v>
+      </c>
+      <c r="X101" s="13">
+        <v>25871</v>
       </c>
       <c r="Y101" s="13">
-        <v>28850</v>
+        <v>39219</v>
       </c>
       <c r="Z101" s="13">
-        <v>25871</v>
+        <v>15653</v>
       </c>
       <c r="AA101" s="13">
-        <v>39219</v>
+        <v>12823</v>
       </c>
       <c r="AB101" s="13">
-        <v>15653</v>
+        <v>0</v>
       </c>
       <c r="AC101" s="13">
-        <v>12823</v>
+        <v>10356</v>
       </c>
       <c r="AD101" s="13">
-        <v>0</v>
+        <v>27725</v>
       </c>
       <c r="AE101" s="13">
-        <v>10356</v>
-      </c>
-      <c r="AF101" s="13">
-        <v>27725</v>
-      </c>
-      <c r="AG101" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH101" s="13" t="s">
         <v>58</v>
@@ -14266,7 +14266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>75</v>
       </c>
@@ -14328,39 +14328,39 @@
       <c r="V102" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W102" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X102" s="11" t="s">
-        <v>58</v>
+      <c r="W102" s="11">
+        <v>8190</v>
+      </c>
+      <c r="X102" s="11">
+        <v>5724</v>
       </c>
       <c r="Y102" s="11">
-        <v>8190</v>
+        <v>1524</v>
       </c>
       <c r="Z102" s="11">
-        <v>5724</v>
+        <v>215</v>
       </c>
       <c r="AA102" s="11">
-        <v>1524</v>
+        <v>420</v>
       </c>
       <c r="AB102" s="11">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AC102" s="11">
-        <v>420</v>
+        <v>687</v>
       </c>
       <c r="AD102" s="11">
-        <v>0</v>
+        <v>10147</v>
       </c>
       <c r="AE102" s="11">
-        <v>687</v>
-      </c>
-      <c r="AF102" s="11">
-        <v>10147</v>
-      </c>
-      <c r="AG102" s="11">
         <v>7706</v>
       </c>
+      <c r="AF102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG102" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH102" s="11" t="s">
         <v>58</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="12" t="s">
         <v>76</v>
       </c>
@@ -14490,35 +14490,35 @@
       <c r="W103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y103" s="13" t="s">
-        <v>58</v>
+      <c r="X103" s="13">
+        <v>2955</v>
+      </c>
+      <c r="Y103" s="13">
+        <v>7948</v>
       </c>
       <c r="Z103" s="13">
-        <v>2955</v>
+        <v>4860</v>
       </c>
       <c r="AA103" s="13">
-        <v>7948</v>
+        <v>0</v>
       </c>
       <c r="AB103" s="13">
-        <v>4860</v>
+        <v>0</v>
       </c>
       <c r="AC103" s="13">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="AD103" s="13">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="AE103" s="13">
-        <v>1460</v>
-      </c>
-      <c r="AF103" s="13">
-        <v>430</v>
-      </c>
-      <c r="AG103" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF103" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG103" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH103" s="13" t="s">
         <v>58</v>
@@ -14584,7 +14584,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>69</v>
       </c>
@@ -14712,38 +14712,38 @@
       <c r="AR104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT104" s="11" t="s">
-        <v>58</v>
+      <c r="AS104" s="11">
+        <v>925</v>
+      </c>
+      <c r="AT104" s="11">
+        <v>2022</v>
       </c>
       <c r="AU104" s="11">
-        <v>925</v>
+        <v>1795</v>
       </c>
       <c r="AV104" s="11">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="AW104" s="11">
-        <v>1795</v>
+        <v>0</v>
       </c>
       <c r="AX104" s="11">
-        <v>-29</v>
+        <v>2486</v>
       </c>
       <c r="AY104" s="11">
-        <v>0</v>
+        <v>8421</v>
       </c>
       <c r="AZ104" s="11">
-        <v>2486</v>
+        <v>3427</v>
       </c>
       <c r="BA104" s="11">
-        <v>8421</v>
+        <v>2348</v>
       </c>
       <c r="BB104" s="11">
-        <v>3427</v>
+        <v>2236</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="14" t="s">
         <v>85</v>
       </c>
@@ -14804,43 +14804,43 @@
         <v>0</v>
       </c>
       <c r="W105" s="15">
-        <v>0</v>
+        <v>48405</v>
       </c>
       <c r="X105" s="15">
-        <v>0</v>
+        <v>47487</v>
       </c>
       <c r="Y105" s="15">
-        <v>48405</v>
+        <v>65387</v>
       </c>
       <c r="Z105" s="15">
-        <v>47487</v>
+        <v>30565</v>
       </c>
       <c r="AA105" s="15">
-        <v>65387</v>
+        <v>18416</v>
       </c>
       <c r="AB105" s="15">
-        <v>30565</v>
+        <v>6837</v>
       </c>
       <c r="AC105" s="15">
-        <v>18416</v>
+        <v>19667</v>
       </c>
       <c r="AD105" s="15">
-        <v>6837</v>
+        <v>45822</v>
       </c>
       <c r="AE105" s="15">
-        <v>19667</v>
+        <v>21888</v>
       </c>
       <c r="AF105" s="15">
-        <v>45822</v>
+        <v>48720</v>
       </c>
       <c r="AG105" s="15">
-        <v>21888</v>
+        <v>4226</v>
       </c>
       <c r="AH105" s="15">
-        <v>48720</v>
+        <v>0</v>
       </c>
       <c r="AI105" s="15">
-        <v>4226</v>
+        <v>0</v>
       </c>
       <c r="AJ105" s="15">
         <v>0</v>
@@ -14852,55 +14852,55 @@
         <v>0</v>
       </c>
       <c r="AM105" s="15">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="AN105" s="15">
-        <v>0</v>
+        <v>21882</v>
       </c>
       <c r="AO105" s="15">
-        <v>2526</v>
+        <v>13215</v>
       </c>
       <c r="AP105" s="15">
-        <v>21882</v>
+        <v>4960</v>
       </c>
       <c r="AQ105" s="15">
-        <v>13215</v>
+        <v>3557</v>
       </c>
       <c r="AR105" s="15">
-        <v>4960</v>
+        <v>6879</v>
       </c>
       <c r="AS105" s="15">
-        <v>3557</v>
+        <v>12541</v>
       </c>
       <c r="AT105" s="15">
-        <v>6879</v>
+        <v>11628</v>
       </c>
       <c r="AU105" s="15">
-        <v>12541</v>
+        <v>14477</v>
       </c>
       <c r="AV105" s="15">
-        <v>11628</v>
+        <v>12228</v>
       </c>
       <c r="AW105" s="15">
-        <v>14477</v>
+        <v>18284</v>
       </c>
       <c r="AX105" s="15">
-        <v>12228</v>
+        <v>28504</v>
       </c>
       <c r="AY105" s="15">
-        <v>18284</v>
+        <v>53910</v>
       </c>
       <c r="AZ105" s="15">
-        <v>28504</v>
+        <v>23207</v>
       </c>
       <c r="BA105" s="15">
-        <v>53910</v>
+        <v>9168</v>
       </c>
       <c r="BB105" s="15">
-        <v>23207</v>
+        <v>2763</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="16" t="s">
         <v>92</v>
       </c>
@@ -14957,7 +14957,7 @@
       <c r="BA106" s="17"/>
       <c r="BB106" s="17"/>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
         <v>79</v>
       </c>
@@ -15019,11 +15019,11 @@
       <c r="V107" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X107" s="19" t="s">
-        <v>58</v>
+      <c r="W107" s="19">
+        <v>0</v>
+      </c>
+      <c r="X107" s="19">
+        <v>0</v>
       </c>
       <c r="Y107" s="19">
         <v>0</v>
@@ -15116,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="16" t="s">
         <v>93</v>
       </c>
@@ -15173,7 +15173,7 @@
       <c r="BA108" s="17"/>
       <c r="BB108" s="17"/>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="18" t="s">
         <v>87</v>
       </c>
@@ -15235,11 +15235,11 @@
       <c r="V109" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W109" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X109" s="19" t="s">
-        <v>58</v>
+      <c r="W109" s="19">
+        <v>0</v>
+      </c>
+      <c r="X109" s="19">
+        <v>0</v>
       </c>
       <c r="Y109" s="19">
         <v>0</v>
@@ -15332,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
         <v>94</v>
       </c>
@@ -15389,7 +15389,7 @@
       <c r="BA110" s="9"/>
       <c r="BB110" s="9"/>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>95</v>
       </c>
@@ -15451,11 +15451,11 @@
       <c r="V111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W111" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X111" s="11" t="s">
-        <v>58</v>
+      <c r="W111" s="11">
+        <v>0</v>
+      </c>
+      <c r="X111" s="11">
+        <v>0</v>
       </c>
       <c r="Y111" s="11">
         <v>0</v>
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="14" t="s">
         <v>80</v>
       </c>
@@ -15609,103 +15609,103 @@
         <v>0</v>
       </c>
       <c r="W112" s="15">
-        <v>0</v>
+        <v>488984</v>
       </c>
       <c r="X112" s="15">
-        <v>0</v>
+        <v>431596</v>
       </c>
       <c r="Y112" s="15">
-        <v>488984</v>
+        <v>463741</v>
       </c>
       <c r="Z112" s="15">
-        <v>431596</v>
+        <v>426377</v>
       </c>
       <c r="AA112" s="15">
-        <v>463741</v>
+        <v>321995</v>
       </c>
       <c r="AB112" s="15">
-        <v>426377</v>
+        <v>367265</v>
       </c>
       <c r="AC112" s="15">
-        <v>321995</v>
+        <v>236023</v>
       </c>
       <c r="AD112" s="15">
-        <v>367265</v>
+        <v>297360</v>
       </c>
       <c r="AE112" s="15">
-        <v>236023</v>
+        <v>452663</v>
       </c>
       <c r="AF112" s="15">
-        <v>297360</v>
+        <v>419036</v>
       </c>
       <c r="AG112" s="15">
-        <v>452663</v>
+        <v>597392</v>
       </c>
       <c r="AH112" s="15">
-        <v>419036</v>
+        <v>656975</v>
       </c>
       <c r="AI112" s="15">
-        <v>597392</v>
+        <v>663330</v>
       </c>
       <c r="AJ112" s="15">
-        <v>656975</v>
+        <v>678947</v>
       </c>
       <c r="AK112" s="15">
-        <v>663330</v>
+        <v>1132444</v>
       </c>
       <c r="AL112" s="15">
-        <v>678947</v>
+        <v>854807</v>
       </c>
       <c r="AM112" s="15">
-        <v>1132444</v>
+        <v>791515</v>
       </c>
       <c r="AN112" s="15">
-        <v>854807</v>
+        <v>705123</v>
       </c>
       <c r="AO112" s="15">
-        <v>791515</v>
+        <v>329782</v>
       </c>
       <c r="AP112" s="15">
-        <v>705123</v>
+        <v>467821</v>
       </c>
       <c r="AQ112" s="15">
-        <v>329782</v>
+        <v>859346</v>
       </c>
       <c r="AR112" s="15">
-        <v>467821</v>
+        <v>796824</v>
       </c>
       <c r="AS112" s="15">
-        <v>859346</v>
+        <v>1030745</v>
       </c>
       <c r="AT112" s="15">
-        <v>796824</v>
+        <v>1257376</v>
       </c>
       <c r="AU112" s="15">
-        <v>1030745</v>
+        <v>1099228</v>
       </c>
       <c r="AV112" s="15">
-        <v>1257376</v>
+        <v>965308</v>
       </c>
       <c r="AW112" s="15">
-        <v>1099228</v>
+        <v>1243037</v>
       </c>
       <c r="AX112" s="15">
-        <v>863114</v>
+        <v>1162822</v>
       </c>
       <c r="AY112" s="15">
-        <v>1243037</v>
+        <v>1210113</v>
       </c>
       <c r="AZ112" s="15">
-        <v>1162822</v>
+        <v>945195</v>
       </c>
       <c r="BA112" s="15">
-        <v>1210113</v>
+        <v>603645</v>
       </c>
       <c r="BB112" s="15">
-        <v>945195</v>
+        <v>623659</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -15760,7 +15760,7 @@
       <c r="BA113" s="1"/>
       <c r="BB113" s="1"/>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -15815,7 +15815,7 @@
       <c r="BA114" s="1"/>
       <c r="BB114" s="1"/>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -15870,7 +15870,7 @@
       <c r="BA115" s="1"/>
       <c r="BB115" s="1"/>
     </row>
-    <row r="116" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
         <v>96</v>
       </c>
@@ -16027,7 +16027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -16082,7 +16082,7 @@
       <c r="BA117" s="1"/>
       <c r="BB117" s="1"/>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
         <v>97</v>
       </c>
@@ -16139,7 +16139,7 @@
       <c r="BA118" s="9"/>
       <c r="BB118" s="9"/>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>56</v>
       </c>
@@ -16282,14 +16282,14 @@
       <c r="AW119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX119" s="11" t="s">
-        <v>58</v>
+      <c r="AX119" s="11">
+        <v>447390</v>
       </c>
       <c r="AY119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ119" s="11">
-        <v>447390</v>
+      <c r="AZ119" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA119" s="11" t="s">
         <v>58</v>
@@ -16298,7 +16298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>59</v>
       </c>
@@ -16387,48 +16387,48 @@
       <c r="AE120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF120" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG120" s="13" t="s">
-        <v>58</v>
+      <c r="AF120" s="13">
+        <v>2784498</v>
+      </c>
+      <c r="AG120" s="13">
+        <v>3734620</v>
       </c>
       <c r="AH120" s="13">
-        <v>2784498</v>
+        <v>3803171</v>
       </c>
       <c r="AI120" s="13">
-        <v>3734620</v>
+        <v>5059108</v>
       </c>
       <c r="AJ120" s="13">
-        <v>3803171</v>
+        <v>6027048</v>
       </c>
       <c r="AK120" s="13">
-        <v>5059108</v>
+        <v>6194752</v>
       </c>
       <c r="AL120" s="13">
-        <v>6027048</v>
+        <v>4616461</v>
       </c>
       <c r="AM120" s="13">
-        <v>6194752</v>
+        <v>4587812</v>
       </c>
       <c r="AN120" s="13">
-        <v>4616461</v>
+        <v>4296411</v>
       </c>
       <c r="AO120" s="13">
-        <v>4587812</v>
+        <v>4433339</v>
       </c>
       <c r="AP120" s="13">
-        <v>4296411</v>
+        <v>4891375</v>
       </c>
       <c r="AQ120" s="13">
-        <v>4433339</v>
-      </c>
-      <c r="AR120" s="13">
-        <v>4891375</v>
-      </c>
-      <c r="AS120" s="13">
         <v>5252785</v>
       </c>
+      <c r="AR120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS120" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT120" s="13" t="s">
         <v>58</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>60</v>
       </c>
@@ -16519,39 +16519,39 @@
       <c r="V121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X121" s="11" t="s">
-        <v>58</v>
+      <c r="W121" s="11">
+        <v>2452693</v>
+      </c>
+      <c r="X121" s="11">
+        <v>2621700</v>
       </c>
       <c r="Y121" s="11">
-        <v>2452693</v>
+        <v>2687346</v>
       </c>
       <c r="Z121" s="11">
-        <v>2621700</v>
+        <v>2778224</v>
       </c>
       <c r="AA121" s="11">
-        <v>2687346</v>
+        <v>3026898</v>
       </c>
       <c r="AB121" s="11">
-        <v>2778224</v>
+        <v>3090480</v>
       </c>
       <c r="AC121" s="11">
-        <v>3026898</v>
+        <v>3096541</v>
       </c>
       <c r="AD121" s="11">
-        <v>3090480</v>
+        <v>3098933</v>
       </c>
       <c r="AE121" s="11">
-        <v>3096541</v>
-      </c>
-      <c r="AF121" s="11">
-        <v>3098933</v>
-      </c>
-      <c r="AG121" s="11">
         <v>3096546</v>
       </c>
+      <c r="AF121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG121" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH121" s="11" t="s">
         <v>58</v>
       </c>
@@ -16582,41 +16582,41 @@
       <c r="AQ121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS121" s="11" t="s">
-        <v>58</v>
+      <c r="AR121" s="11">
+        <v>6729146</v>
+      </c>
+      <c r="AS121" s="11">
+        <v>6734880</v>
       </c>
       <c r="AT121" s="11">
-        <v>6729146</v>
+        <v>7697293</v>
       </c>
       <c r="AU121" s="11">
-        <v>6734880</v>
+        <v>8338300</v>
       </c>
       <c r="AV121" s="11">
-        <v>7697293</v>
+        <v>7855490</v>
       </c>
       <c r="AW121" s="11">
-        <v>8338300</v>
+        <v>7446304</v>
       </c>
       <c r="AX121" s="11">
-        <v>7855493</v>
+        <v>7292614</v>
       </c>
       <c r="AY121" s="11">
-        <v>7446304</v>
+        <v>7279014</v>
       </c>
       <c r="AZ121" s="11">
-        <v>7292614</v>
+        <v>7213859</v>
       </c>
       <c r="BA121" s="11">
-        <v>7279014</v>
+        <v>7058535</v>
       </c>
       <c r="BB121" s="11">
-        <v>7213859</v>
+        <v>7212926</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>61</v>
       </c>
@@ -16753,29 +16753,29 @@
       <c r="AU122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV122" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW122" s="13" t="s">
-        <v>58</v>
+      <c r="AV122" s="13">
+        <v>6901058</v>
+      </c>
+      <c r="AW122" s="13">
+        <v>6504531</v>
       </c>
       <c r="AX122" s="13">
-        <v>6901058</v>
+        <v>6472382</v>
       </c>
       <c r="AY122" s="13">
-        <v>6504531</v>
+        <v>6403255</v>
       </c>
       <c r="AZ122" s="13">
-        <v>6472382</v>
+        <v>5945087</v>
       </c>
       <c r="BA122" s="13">
-        <v>6403255</v>
+        <v>5929584</v>
       </c>
       <c r="BB122" s="13">
-        <v>5945087</v>
+        <v>6139503</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>62</v>
       </c>
@@ -16837,39 +16837,39 @@
       <c r="V123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W123" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X123" s="11" t="s">
-        <v>58</v>
+      <c r="W123" s="11">
+        <v>2093054</v>
+      </c>
+      <c r="X123" s="11">
+        <v>2206824</v>
       </c>
       <c r="Y123" s="11">
-        <v>2093054</v>
+        <v>2200996</v>
       </c>
       <c r="Z123" s="11">
-        <v>2206824</v>
+        <v>2200855</v>
       </c>
       <c r="AA123" s="11">
-        <v>2200996</v>
+        <v>2200098</v>
       </c>
       <c r="AB123" s="11">
-        <v>2200855</v>
+        <v>2200798</v>
       </c>
       <c r="AC123" s="11">
-        <v>2200098</v>
+        <v>2200662</v>
       </c>
       <c r="AD123" s="11">
-        <v>2200798</v>
+        <v>2200100</v>
       </c>
       <c r="AE123" s="11">
-        <v>2200662</v>
-      </c>
-      <c r="AF123" s="11">
-        <v>2200100</v>
-      </c>
-      <c r="AG123" s="11">
         <v>2199984</v>
       </c>
+      <c r="AF123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG123" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH123" s="11" t="s">
         <v>58</v>
       </c>
@@ -16900,41 +16900,41 @@
       <c r="AQ123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR123" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS123" s="11" t="s">
-        <v>58</v>
+      <c r="AR123" s="11">
+        <v>5249261</v>
+      </c>
+      <c r="AS123" s="11">
+        <v>5469633</v>
       </c>
       <c r="AT123" s="11">
-        <v>5249261</v>
+        <v>6168211</v>
       </c>
       <c r="AU123" s="11">
-        <v>5469633</v>
+        <v>7251055</v>
       </c>
       <c r="AV123" s="11">
-        <v>6168211</v>
+        <v>7220108</v>
       </c>
       <c r="AW123" s="11">
-        <v>7251055</v>
+        <v>7087359</v>
       </c>
       <c r="AX123" s="11">
-        <v>7220167</v>
+        <v>6793980</v>
       </c>
       <c r="AY123" s="11">
-        <v>7087359</v>
+        <v>6774318</v>
       </c>
       <c r="AZ123" s="11">
-        <v>6793980</v>
+        <v>6733333</v>
       </c>
       <c r="BA123" s="11">
-        <v>6774318</v>
+        <v>6782727</v>
       </c>
       <c r="BB123" s="11">
-        <v>6733333</v>
+        <v>6695025</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>63</v>
       </c>
@@ -17002,21 +17002,21 @@
       <c r="X124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z124" s="13" t="s">
-        <v>58</v>
+      <c r="Y124" s="13">
+        <v>2708333</v>
+      </c>
+      <c r="Z124" s="13">
+        <v>2800000</v>
       </c>
       <c r="AA124" s="13">
-        <v>2708333</v>
-      </c>
-      <c r="AB124" s="13">
-        <v>2800000</v>
-      </c>
-      <c r="AC124" s="13">
         <v>3066667</v>
       </c>
+      <c r="AB124" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC124" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AD124" s="13" t="s">
         <v>58</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>64</v>
       </c>
@@ -17164,30 +17164,30 @@
       <c r="Y125" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z125" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA125" s="11" t="s">
-        <v>58</v>
+      <c r="Z125" s="11">
+        <v>2146341</v>
+      </c>
+      <c r="AA125" s="11">
+        <v>2140787</v>
       </c>
       <c r="AB125" s="11">
-        <v>2146341</v>
+        <v>2141678</v>
       </c>
       <c r="AC125" s="11">
-        <v>2140787</v>
+        <v>2143469</v>
       </c>
       <c r="AD125" s="11">
-        <v>2141678</v>
+        <v>2144455</v>
       </c>
       <c r="AE125" s="11">
-        <v>2143469</v>
-      </c>
-      <c r="AF125" s="11">
-        <v>2144455</v>
-      </c>
-      <c r="AG125" s="11">
         <v>2143609</v>
       </c>
+      <c r="AF125" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG125" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH125" s="11" t="s">
         <v>58</v>
       </c>
@@ -17218,41 +17218,41 @@
       <c r="AQ125" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR125" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS125" s="11" t="s">
-        <v>58</v>
+      <c r="AR125" s="11">
+        <v>3449050</v>
+      </c>
+      <c r="AS125" s="11">
+        <v>3462185</v>
       </c>
       <c r="AT125" s="11">
-        <v>3449050</v>
+        <v>3448360</v>
       </c>
       <c r="AU125" s="11">
-        <v>3462185</v>
+        <v>3450773</v>
       </c>
       <c r="AV125" s="11">
-        <v>3448360</v>
+        <v>3451299</v>
       </c>
       <c r="AW125" s="11">
-        <v>3450773</v>
-      </c>
-      <c r="AX125" s="11">
-        <v>3451002</v>
+        <v>3454248</v>
+      </c>
+      <c r="AX125" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY125" s="11">
-        <v>3454248</v>
+        <v>8000000</v>
       </c>
       <c r="AZ125" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA125" s="11">
-        <v>8000000</v>
+      <c r="BA125" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB125" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>65</v>
       </c>
@@ -17314,35 +17314,35 @@
       <c r="V126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W126" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X126" s="13" t="s">
-        <v>58</v>
+      <c r="W126" s="13">
+        <v>2117162</v>
+      </c>
+      <c r="X126" s="13">
+        <v>2231667</v>
       </c>
       <c r="Y126" s="13">
-        <v>2117162</v>
+        <v>2231657</v>
       </c>
       <c r="Z126" s="13">
-        <v>2231667</v>
+        <v>2231566</v>
       </c>
       <c r="AA126" s="13">
-        <v>2231657</v>
+        <v>2231577</v>
       </c>
       <c r="AB126" s="13">
-        <v>2231566</v>
-      </c>
-      <c r="AC126" s="13">
-        <v>2231577</v>
+        <v>2231826</v>
+      </c>
+      <c r="AC126" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD126" s="13">
-        <v>2231826</v>
+        <v>2231125</v>
       </c>
       <c r="AE126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF126" s="13">
-        <v>2231125</v>
+      <c r="AF126" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG126" s="13" t="s">
         <v>58</v>
@@ -17377,14 +17377,14 @@
       <c r="AQ126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR126" s="13" t="s">
-        <v>58</v>
+      <c r="AR126" s="13">
+        <v>5283898</v>
       </c>
       <c r="AS126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT126" s="13">
-        <v>5283898</v>
+      <c r="AT126" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU126" s="13" t="s">
         <v>58</v>
@@ -17411,7 +17411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>66</v>
       </c>
@@ -17479,23 +17479,23 @@
       <c r="X127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y127" s="11" t="s">
-        <v>58</v>
+      <c r="Y127" s="11">
+        <v>2700063</v>
       </c>
       <c r="Z127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA127" s="11">
-        <v>2700063</v>
-      </c>
-      <c r="AB127" s="11" t="s">
-        <v>58</v>
+      <c r="AA127" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB127" s="11">
+        <v>2719665</v>
       </c>
       <c r="AC127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD127" s="11">
-        <v>2719665</v>
+      <c r="AD127" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE127" s="11" t="s">
         <v>58</v>
@@ -17570,7 +17570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>67</v>
       </c>
@@ -17635,36 +17635,36 @@
       <c r="W128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X128" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y128" s="13" t="s">
-        <v>58</v>
+      <c r="X128" s="13">
+        <v>2632887</v>
+      </c>
+      <c r="Y128" s="13">
+        <v>2647870</v>
       </c>
       <c r="Z128" s="13">
-        <v>2632887</v>
+        <v>2738881</v>
       </c>
       <c r="AA128" s="13">
-        <v>2647870</v>
+        <v>2981729</v>
       </c>
       <c r="AB128" s="13">
-        <v>2738881</v>
+        <v>3042256</v>
       </c>
       <c r="AC128" s="13">
-        <v>2981729</v>
+        <v>3048107</v>
       </c>
       <c r="AD128" s="13">
-        <v>3042256</v>
+        <v>3047977</v>
       </c>
       <c r="AE128" s="13">
-        <v>3048107</v>
-      </c>
-      <c r="AF128" s="13">
-        <v>3047977</v>
-      </c>
-      <c r="AG128" s="13">
         <v>3048595</v>
       </c>
+      <c r="AF128" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG128" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH128" s="13" t="s">
         <v>58</v>
       </c>
@@ -17695,41 +17695,41 @@
       <c r="AQ128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR128" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS128" s="13" t="s">
-        <v>58</v>
+      <c r="AR128" s="13">
+        <v>6227562</v>
+      </c>
+      <c r="AS128" s="13">
+        <v>6027022</v>
       </c>
       <c r="AT128" s="13">
-        <v>6227562</v>
+        <v>7097731</v>
       </c>
       <c r="AU128" s="13">
-        <v>6027022</v>
+        <v>7192401</v>
       </c>
       <c r="AV128" s="13">
-        <v>7097731</v>
+        <v>6764495</v>
       </c>
       <c r="AW128" s="13">
-        <v>7192401</v>
+        <v>6381808</v>
       </c>
       <c r="AX128" s="13">
-        <v>6764411</v>
+        <v>6016987</v>
       </c>
       <c r="AY128" s="13">
-        <v>6381808</v>
+        <v>5794531</v>
       </c>
       <c r="AZ128" s="13">
-        <v>6016987</v>
+        <v>5822843</v>
       </c>
       <c r="BA128" s="13">
-        <v>5794531</v>
+        <v>5856162</v>
       </c>
       <c r="BB128" s="13">
-        <v>5822843</v>
+        <v>5912454</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>68</v>
       </c>
@@ -17854,14 +17854,14 @@
       <c r="AQ129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR129" s="11" t="s">
-        <v>58</v>
+      <c r="AR129" s="11">
+        <v>3391304</v>
       </c>
       <c r="AS129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT129" s="11">
-        <v>3391304</v>
+      <c r="AT129" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU129" s="11" t="s">
         <v>58</v>
@@ -17872,8 +17872,8 @@
       <c r="AW129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX129" s="11">
-        <v>0</v>
+      <c r="AX129" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY129" s="11" t="s">
         <v>58</v>
@@ -17888,7 +17888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>69</v>
       </c>
@@ -18016,38 +18016,38 @@
       <c r="AR130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS130" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT130" s="13" t="s">
-        <v>58</v>
+      <c r="AS130" s="13">
+        <v>4770884</v>
+      </c>
+      <c r="AT130" s="13">
+        <v>5653044</v>
       </c>
       <c r="AU130" s="13">
-        <v>4770884</v>
+        <v>5775726</v>
       </c>
       <c r="AV130" s="13">
-        <v>5653044</v>
+        <v>5870971</v>
       </c>
       <c r="AW130" s="13">
-        <v>5775726</v>
+        <v>5867458</v>
       </c>
       <c r="AX130" s="13">
-        <v>0</v>
+        <v>5713184</v>
       </c>
       <c r="AY130" s="13">
-        <v>5867458</v>
+        <v>5472841</v>
       </c>
       <c r="AZ130" s="13">
-        <v>5713184</v>
+        <v>5350935</v>
       </c>
       <c r="BA130" s="13">
-        <v>5472841</v>
+        <v>5342332</v>
       </c>
       <c r="BB130" s="13">
-        <v>5350935</v>
+        <v>5224677</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>70</v>
       </c>
@@ -18172,41 +18172,41 @@
       <c r="AQ131" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR131" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS131" s="11" t="s">
-        <v>58</v>
+      <c r="AR131" s="11">
+        <v>5359306</v>
+      </c>
+      <c r="AS131" s="11">
+        <v>5364971</v>
       </c>
       <c r="AT131" s="11">
-        <v>5359306</v>
+        <v>6417424</v>
       </c>
       <c r="AU131" s="11">
-        <v>5364971</v>
+        <v>6770026</v>
       </c>
       <c r="AV131" s="11">
-        <v>6417424</v>
+        <v>6517707</v>
       </c>
       <c r="AW131" s="11">
-        <v>6770026</v>
+        <v>6369843</v>
       </c>
       <c r="AX131" s="11">
-        <v>6517441</v>
+        <v>6165482</v>
       </c>
       <c r="AY131" s="11">
-        <v>6369843</v>
+        <v>5793951</v>
       </c>
       <c r="AZ131" s="11">
-        <v>6165482</v>
+        <v>5638752</v>
       </c>
       <c r="BA131" s="11">
-        <v>5793951</v>
+        <v>5800000</v>
       </c>
       <c r="BB131" s="11">
-        <v>5638752</v>
+        <v>5947955</v>
       </c>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B132" s="8" t="s">
         <v>99</v>
       </c>
@@ -18263,7 +18263,7 @@
       <c r="BA132" s="9"/>
       <c r="BB132" s="9"/>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>56</v>
       </c>
@@ -18352,18 +18352,18 @@
       <c r="AE133" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH133" s="11">
+      <c r="AF133" s="11">
         <v>3980448</v>
       </c>
-      <c r="AI133" s="11">
+      <c r="AG133" s="11">
         <v>4063462</v>
       </c>
+      <c r="AH133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI133" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ133" s="11" t="s">
         <v>58</v>
       </c>
@@ -18376,18 +18376,18 @@
       <c r="AM133" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP133" s="11">
+      <c r="AN133" s="11">
         <v>6132323</v>
       </c>
-      <c r="AQ133" s="11">
+      <c r="AO133" s="11">
         <v>6200000</v>
       </c>
+      <c r="AP133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ133" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR133" s="11" t="s">
         <v>58</v>
       </c>
@@ -18418,11 +18418,11 @@
       <c r="BA133" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB133" s="11" t="s">
-        <v>58</v>
+      <c r="BB133" s="11">
+        <v>6000000</v>
       </c>
     </row>
-    <row r="134" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
         <v>59</v>
       </c>
@@ -18511,14 +18511,14 @@
       <c r="AE134" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF134" s="13" t="s">
-        <v>58</v>
+      <c r="AF134" s="13">
+        <v>5834800</v>
       </c>
       <c r="AG134" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH134" s="13">
-        <v>5834800</v>
+      <c r="AH134" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI134" s="13" t="s">
         <v>58</v>
@@ -18532,27 +18532,27 @@
       <c r="AL134" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM134" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN134" s="13" t="s">
-        <v>58</v>
+      <c r="AM134" s="13">
+        <v>8336634</v>
+      </c>
+      <c r="AN134" s="13">
+        <v>8625750</v>
       </c>
       <c r="AO134" s="13">
-        <v>8336634</v>
+        <v>8923338</v>
       </c>
       <c r="AP134" s="13">
-        <v>8625750</v>
+        <v>8596187</v>
       </c>
       <c r="AQ134" s="13">
-        <v>8923338</v>
-      </c>
-      <c r="AR134" s="13">
-        <v>8596187</v>
-      </c>
-      <c r="AS134" s="13">
         <v>9120513</v>
       </c>
+      <c r="AR134" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS134" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT134" s="13" t="s">
         <v>58</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>73</v>
       </c>
@@ -18643,39 +18643,39 @@
       <c r="V135" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W135" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X135" s="11" t="s">
-        <v>58</v>
+      <c r="W135" s="11">
+        <v>1749269</v>
+      </c>
+      <c r="X135" s="11">
+        <v>1803569</v>
       </c>
       <c r="Y135" s="11">
-        <v>1749269</v>
+        <v>2036843</v>
       </c>
       <c r="Z135" s="11">
-        <v>1803569</v>
+        <v>2232131</v>
       </c>
       <c r="AA135" s="11">
-        <v>2036843</v>
+        <v>2665121</v>
       </c>
       <c r="AB135" s="11">
-        <v>2232131</v>
+        <v>2669660</v>
       </c>
       <c r="AC135" s="11">
-        <v>2665121</v>
+        <v>2739579</v>
       </c>
       <c r="AD135" s="11">
-        <v>2669660</v>
+        <v>2717745</v>
       </c>
       <c r="AE135" s="11">
-        <v>2739579</v>
-      </c>
-      <c r="AF135" s="11">
-        <v>2717745</v>
-      </c>
-      <c r="AG135" s="11">
         <v>2859274</v>
       </c>
+      <c r="AF135" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG135" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH135" s="11" t="s">
         <v>58</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
         <v>61</v>
       </c>
@@ -18865,41 +18865,41 @@
       <c r="AQ136" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR136" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS136" s="13" t="s">
-        <v>58</v>
+      <c r="AR136" s="13">
+        <v>9283401</v>
+      </c>
+      <c r="AS136" s="13">
+        <v>9337621</v>
       </c>
       <c r="AT136" s="13">
-        <v>9283401</v>
+        <v>9596404</v>
       </c>
       <c r="AU136" s="13">
-        <v>9337621</v>
+        <v>9954474</v>
       </c>
       <c r="AV136" s="13">
-        <v>9596404</v>
+        <v>9613208</v>
       </c>
       <c r="AW136" s="13">
-        <v>9954474</v>
+        <v>9542797</v>
       </c>
       <c r="AX136" s="13">
-        <v>9618450</v>
+        <v>8450146</v>
       </c>
       <c r="AY136" s="13">
-        <v>9542797</v>
+        <v>7956796</v>
       </c>
       <c r="AZ136" s="13">
-        <v>8450146</v>
+        <v>8057026</v>
       </c>
       <c r="BA136" s="13">
-        <v>7956796</v>
+        <v>8296837</v>
       </c>
       <c r="BB136" s="13">
-        <v>8057026</v>
+        <v>8065217</v>
       </c>
     </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
         <v>74</v>
       </c>
@@ -18961,36 +18961,36 @@
       <c r="V137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X137" s="11" t="s">
-        <v>58</v>
+      <c r="W137" s="11">
+        <v>3247777</v>
+      </c>
+      <c r="X137" s="11">
+        <v>3437550</v>
       </c>
       <c r="Y137" s="11">
-        <v>3247777</v>
+        <v>3898121</v>
       </c>
       <c r="Z137" s="11">
-        <v>3437550</v>
+        <v>4201020</v>
       </c>
       <c r="AA137" s="11">
-        <v>3898121</v>
-      </c>
-      <c r="AB137" s="11">
-        <v>4201020</v>
+        <v>4970155</v>
+      </c>
+      <c r="AB137" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AC137" s="11">
-        <v>4970155</v>
-      </c>
-      <c r="AD137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE137" s="11">
         <v>4812268</v>
       </c>
-      <c r="AF137" s="11">
+      <c r="AD137" s="11">
         <v>4715938</v>
       </c>
+      <c r="AE137" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF137" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG137" s="11" t="s">
         <v>58</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>75</v>
       </c>
@@ -19120,39 +19120,39 @@
       <c r="V138" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W138" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X138" s="13" t="s">
-        <v>58</v>
+      <c r="W138" s="13">
+        <v>2919786</v>
+      </c>
+      <c r="X138" s="13">
+        <v>3230248</v>
       </c>
       <c r="Y138" s="13">
-        <v>2919786</v>
+        <v>3181628</v>
       </c>
       <c r="Z138" s="13">
-        <v>3230248</v>
+        <v>2828947</v>
       </c>
       <c r="AA138" s="13">
-        <v>3181628</v>
-      </c>
-      <c r="AB138" s="13">
-        <v>2828947</v>
+        <v>2818792</v>
+      </c>
+      <c r="AB138" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC138" s="13">
-        <v>2818792</v>
-      </c>
-      <c r="AD138" s="13" t="s">
-        <v>58</v>
+        <v>3903409</v>
+      </c>
+      <c r="AD138" s="13">
+        <v>4781810</v>
       </c>
       <c r="AE138" s="13">
-        <v>3903409</v>
-      </c>
-      <c r="AF138" s="13">
-        <v>4781810</v>
-      </c>
-      <c r="AG138" s="13">
         <v>4978036</v>
       </c>
+      <c r="AF138" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG138" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH138" s="13" t="s">
         <v>58</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
         <v>76</v>
       </c>
@@ -19282,33 +19282,33 @@
       <c r="W139" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X139" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y139" s="11" t="s">
-        <v>58</v>
+      <c r="X139" s="11">
+        <v>3247253</v>
+      </c>
+      <c r="Y139" s="11">
+        <v>3551385</v>
       </c>
       <c r="Z139" s="11">
-        <v>3247253</v>
-      </c>
-      <c r="AA139" s="11">
-        <v>3551385</v>
-      </c>
-      <c r="AB139" s="11">
         <v>3919355</v>
       </c>
-      <c r="AC139" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD139" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE139" s="11">
+      <c r="AA139" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB139" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC139" s="11">
         <v>4183381</v>
       </c>
-      <c r="AF139" s="11">
+      <c r="AD139" s="11">
         <v>4174757</v>
       </c>
+      <c r="AE139" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF139" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG139" s="11" t="s">
         <v>58</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
         <v>69</v>
       </c>
@@ -19504,35 +19504,35 @@
       <c r="AR140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS140" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT140" s="13" t="s">
-        <v>58</v>
+      <c r="AS140" s="13">
+        <v>9343434</v>
+      </c>
+      <c r="AT140" s="13">
+        <v>9026786</v>
       </c>
       <c r="AU140" s="13">
-        <v>9343434</v>
-      </c>
-      <c r="AV140" s="13">
-        <v>9026786</v>
-      </c>
-      <c r="AW140" s="13">
         <v>9111675</v>
       </c>
+      <c r="AV140" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW140" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX140" s="13">
-        <v>-55769</v>
-      </c>
-      <c r="AY140" s="13" t="s">
-        <v>58</v>
+        <v>7164265</v>
+      </c>
+      <c r="AY140" s="13">
+        <v>7203593</v>
       </c>
       <c r="AZ140" s="13">
-        <v>7164265</v>
+        <v>7515351</v>
       </c>
       <c r="BA140" s="13">
-        <v>7203593</v>
+        <v>7115152</v>
       </c>
       <c r="BB140" s="13">
-        <v>7515351</v>
+        <v>7075949</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/siman/sesoufi/product/monthly_seprated.xlsx
+++ b/database/industries/siman/sesoufi/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="100">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3575,8 +3575,8 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V11" s="13" t="n">
         <v>0</v>
@@ -3605,8 +3605,8 @@
       <c r="AD11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" s="13" t="n">
-        <v>0</v>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF11" s="13" t="s">
         <v>58</v>
@@ -3656,11 +3656,11 @@
       <c r="AU11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV11" s="13" t="s">
-        <v>58</v>
+      <c r="AV11" s="13" t="n">
+        <v>3621</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="13" t="n">
         <v>0</v>
@@ -3761,50 +3761,50 @@
       <c r="AC12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" s="16" t="s">
-        <v>58</v>
+      <c r="AD12" s="16" t="n">
+        <v>127510</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>127510</v>
+        <v>160367</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>160367</v>
+        <v>175578</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>175578</v>
+        <v>125023</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>125023</v>
+        <v>132647</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>132647</v>
+        <v>166769</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>166769</v>
+        <v>193019</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>193019</v>
+        <v>170804</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>170804</v>
+        <v>163290</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>163290</v>
+        <v>73241</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>73241</v>
+        <v>94486</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>94486</v>
-      </c>
-      <c r="AP12" s="16" t="n">
         <v>166084</v>
       </c>
-      <c r="AQ12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="16" t="n">
-        <v>0</v>
+      <c r="AP12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS12" s="16" t="s">
         <v>58</v>
@@ -3893,36 +3893,36 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>97872</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>97872</v>
+        <v>67087</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>67087</v>
+        <v>68411</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>68411</v>
+        <v>64245</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>64245</v>
+        <v>55320</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>55320</v>
+        <v>61660</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>61660</v>
+        <v>35239</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>35239</v>
+        <v>42079</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>42079</v>
-      </c>
-      <c r="AD13" s="13" t="n">
         <v>56222</v>
       </c>
+      <c r="AD13" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE13" s="13" t="s">
         <v>58</v>
       </c>
@@ -3956,44 +3956,44 @@
       <c r="AO13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP13" s="13" t="s">
-        <v>58</v>
+      <c r="AP13" s="13" t="n">
+        <v>61258</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>61258</v>
+        <v>69165</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>69165</v>
+        <v>72172</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>72172</v>
+        <v>52548</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>52548</v>
+        <v>52024</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>52024</v>
+        <v>68487</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>68487</v>
+        <v>64433</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>64433</v>
+        <v>60936</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>60936</v>
+        <v>36337</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>36337</v>
+        <v>22004</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>22004</v>
+        <v>28423</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>28423</v>
+        <v>55880</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>55880</v>
+        <v>46226</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,32 +4127,32 @@
       <c r="AS14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="16" t="s">
-        <v>58</v>
+      <c r="AT14" s="16" t="n">
+        <v>1607</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>1607</v>
+        <v>11036</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>11036</v>
+        <v>13252</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>13252</v>
+        <v>17696</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>17696</v>
+        <v>21015</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>21015</v>
+        <v>19044</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>19044</v>
+        <v>23978</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>23978</v>
+        <v>31495</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>31495</v>
+        <v>25446</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,36 +4211,36 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>73497</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>73497</v>
+        <v>67338</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>67338</v>
+        <v>58923</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>58923</v>
+        <v>65087</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>65087</v>
+        <v>40103</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>40103</v>
+        <v>44607</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>44607</v>
+        <v>35055</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>35055</v>
+        <v>46944</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>46944</v>
-      </c>
-      <c r="AD15" s="13" t="n">
         <v>79229</v>
       </c>
+      <c r="AD15" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE15" s="13" t="s">
         <v>58</v>
       </c>
@@ -4274,44 +4274,44 @@
       <c r="AO15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP15" s="13" t="s">
-        <v>58</v>
+      <c r="AP15" s="13" t="n">
+        <v>30189</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>30189</v>
+        <v>69431</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>69431</v>
+        <v>57757</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>57757</v>
+        <v>64337</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>64337</v>
+        <v>35806</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>35806</v>
+        <v>29273</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>29273</v>
+        <v>33780</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>33780</v>
+        <v>28009</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>28009</v>
+        <v>29623</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>29623</v>
+        <v>36526</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>36526</v>
+        <v>14527</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>14527</v>
+        <v>26327</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>26327</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,23 +4370,23 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="16" t="n">
         <v>0</v>
@@ -4397,8 +4397,8 @@
       <c r="AC16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD16" s="16" t="n">
-        <v>0</v>
+      <c r="AD16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE16" s="16" t="s">
         <v>58</v>
@@ -4529,89 +4529,89 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>600</v>
       </c>
       <c r="V17" s="13" t="n">
+        <v>546</v>
+      </c>
+      <c r="W17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="13" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="13" t="n">
+        <v>1637</v>
+      </c>
+      <c r="Z17" s="13" t="n">
+        <v>430</v>
+      </c>
+      <c r="AA17" s="13" t="n">
+        <v>748</v>
+      </c>
+      <c r="AB17" s="13" t="n">
+        <v>1362</v>
+      </c>
+      <c r="AC17" s="13" t="n">
+        <v>1097</v>
+      </c>
+      <c r="AD17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="13" t="n">
         <v>600</v>
       </c>
-      <c r="W17" s="13" t="n">
-        <v>546</v>
-      </c>
-      <c r="X17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="13" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z17" s="13" t="n">
-        <v>1637</v>
-      </c>
-      <c r="AA17" s="13" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB17" s="13" t="n">
-        <v>748</v>
-      </c>
-      <c r="AC17" s="13" t="n">
-        <v>1362</v>
-      </c>
-      <c r="AD17" s="13" t="n">
-        <v>1097</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AQ17" s="13" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>0</v>
+        <v>2320</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="13" t="n">
         <v>0</v>
@@ -4688,36 +4688,36 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>17688</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>17688</v>
+        <v>18992</v>
       </c>
       <c r="W18" s="16" t="n">
-        <v>18992</v>
+        <v>17827</v>
       </c>
       <c r="X18" s="16" t="n">
-        <v>17827</v>
+        <v>17643</v>
       </c>
       <c r="Y18" s="16" t="n">
-        <v>17643</v>
+        <v>6246</v>
       </c>
       <c r="Z18" s="16" t="n">
-        <v>6246</v>
+        <v>4915</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>4915</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>1038</v>
-      </c>
-      <c r="AD18" s="16" t="n">
         <v>612</v>
       </c>
+      <c r="AD18" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE18" s="16" t="s">
         <v>58</v>
       </c>
@@ -4751,11 +4751,11 @@
       <c r="AO18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ18" s="16" t="n">
+      <c r="AP18" s="16" t="n">
         <v>559</v>
+      </c>
+      <c r="AQ18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AR18" s="16" t="s">
         <v>58</v>
@@ -4847,26 +4847,26 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="13" t="n">
-        <v>0</v>
+        <v>3622</v>
       </c>
       <c r="X19" s="13" t="n">
-        <v>3622</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="13" t="n">
         <v>0</v>
@@ -4874,8 +4874,8 @@
       <c r="AC19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD19" s="13" t="n">
-        <v>0</v>
+      <c r="AD19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE19" s="13" t="s">
         <v>58</v>
@@ -4910,8 +4910,8 @@
       <c r="AO19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP19" s="13" t="s">
-        <v>58</v>
+      <c r="AP19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ19" s="13" t="n">
         <v>0</v>
@@ -5006,36 +5006,36 @@
       <c r="T20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>58</v>
+      <c r="U20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="16" t="n">
-        <v>0</v>
+        <v>2601</v>
       </c>
       <c r="X20" s="16" t="n">
-        <v>2601</v>
+        <v>14817</v>
       </c>
       <c r="Y20" s="16" t="n">
-        <v>14817</v>
+        <v>13223</v>
       </c>
       <c r="Z20" s="16" t="n">
-        <v>13223</v>
+        <v>10161</v>
       </c>
       <c r="AA20" s="16" t="n">
-        <v>10161</v>
+        <v>11620</v>
       </c>
       <c r="AB20" s="16" t="n">
-        <v>11620</v>
+        <v>7712</v>
       </c>
       <c r="AC20" s="16" t="n">
-        <v>7712</v>
-      </c>
-      <c r="AD20" s="16" t="n">
         <v>30065</v>
       </c>
+      <c r="AD20" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE20" s="16" t="s">
         <v>58</v>
       </c>
@@ -5069,44 +5069,44 @@
       <c r="AO20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP20" s="16" t="s">
-        <v>58</v>
+      <c r="AP20" s="16" t="n">
+        <v>10731</v>
       </c>
       <c r="AQ20" s="16" t="n">
-        <v>10731</v>
+        <v>17685</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>17685</v>
+        <v>16794</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>16794</v>
+        <v>14449</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>14449</v>
+        <v>14539</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>14539</v>
+        <v>19316</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>19316</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>0</v>
+        <v>24995</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>24995</v>
+        <v>14823</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>14823</v>
+        <v>7571</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>7571</v>
+        <v>7676</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>7676</v>
+        <v>15062</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>15062</v>
+        <v>11735</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,36 +5165,36 @@
       <c r="T21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>58</v>
+      <c r="U21" s="13" t="n">
+        <v>922</v>
       </c>
       <c r="V21" s="13" t="n">
-        <v>922</v>
+        <v>6849</v>
       </c>
       <c r="W21" s="13" t="n">
-        <v>6849</v>
+        <v>7143</v>
       </c>
       <c r="X21" s="13" t="n">
-        <v>7143</v>
+        <v>103</v>
       </c>
       <c r="Y21" s="13" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AA21" s="13" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AB21" s="13" t="n">
-        <v>260</v>
+        <v>636</v>
       </c>
       <c r="AC21" s="13" t="n">
-        <v>636</v>
-      </c>
-      <c r="AD21" s="13" t="n">
         <v>539</v>
       </c>
+      <c r="AD21" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE21" s="13" t="s">
         <v>58</v>
       </c>
@@ -5228,44 +5228,44 @@
       <c r="AO21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP21" s="13" t="s">
-        <v>58</v>
+      <c r="AP21" s="13" t="n">
+        <v>3279</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>3279</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AS21" s="13" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="AT21" s="13" t="n">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="AU21" s="13" t="n">
-        <v>446</v>
+        <v>1234</v>
       </c>
       <c r="AV21" s="13" t="n">
-        <v>1234</v>
+        <v>24420</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>24420</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AZ21" s="13" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5390,41 +5390,41 @@
       <c r="AP22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="16" t="s">
-        <v>58</v>
+      <c r="AQ22" s="16" t="n">
+        <v>11757</v>
       </c>
       <c r="AR22" s="16" t="n">
-        <v>11757</v>
+        <v>16685</v>
       </c>
       <c r="AS22" s="16" t="n">
-        <v>16685</v>
+        <v>18139</v>
       </c>
       <c r="AT22" s="16" t="n">
-        <v>18139</v>
+        <v>17221</v>
       </c>
       <c r="AU22" s="16" t="n">
-        <v>17221</v>
+        <v>32488</v>
       </c>
       <c r="AV22" s="16" t="n">
-        <v>32488</v>
+        <v>31053</v>
       </c>
       <c r="AW22" s="16" t="n">
-        <v>31053</v>
+        <v>42723</v>
       </c>
       <c r="AX22" s="16" t="n">
-        <v>42723</v>
+        <v>44638</v>
       </c>
       <c r="AY22" s="16" t="n">
-        <v>44638</v>
+        <v>24354</v>
       </c>
       <c r="AZ22" s="16" t="n">
-        <v>24354</v>
+        <v>18185</v>
       </c>
       <c r="BA22" s="16" t="n">
-        <v>18185</v>
+        <v>35062</v>
       </c>
       <c r="BB22" s="16" t="n">
-        <v>35062</v>
+        <v>30476</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5546,44 +5546,44 @@
       <c r="AO23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP23" s="13" t="s">
-        <v>58</v>
+      <c r="AP23" s="13" t="n">
+        <v>5670</v>
       </c>
       <c r="AQ23" s="13" t="n">
-        <v>5670</v>
+        <v>12036</v>
       </c>
       <c r="AR23" s="13" t="n">
-        <v>12036</v>
+        <v>14465</v>
       </c>
       <c r="AS23" s="13" t="n">
-        <v>14465</v>
+        <v>12460</v>
       </c>
       <c r="AT23" s="13" t="n">
-        <v>12460</v>
+        <v>7220</v>
       </c>
       <c r="AU23" s="13" t="n">
-        <v>7220</v>
+        <v>3800</v>
       </c>
       <c r="AV23" s="13" t="n">
-        <v>3800</v>
+        <v>2970</v>
       </c>
       <c r="AW23" s="13" t="n">
-        <v>2970</v>
+        <v>1100</v>
       </c>
       <c r="AX23" s="13" t="n">
-        <v>1100</v>
+        <v>685</v>
       </c>
       <c r="AY23" s="13" t="n">
-        <v>685</v>
+        <v>100</v>
       </c>
       <c r="AZ23" s="13" t="n">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="BA23" s="13" t="n">
-        <v>270</v>
+        <v>1178</v>
       </c>
       <c r="BB23" s="13" t="n">
-        <v>1178</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5641,106 +5641,106 @@
         <v>0</v>
       </c>
       <c r="U24" s="18" t="n">
-        <v>0</v>
+        <v>190579</v>
       </c>
       <c r="V24" s="18" t="n">
-        <v>190579</v>
+        <v>160812</v>
       </c>
       <c r="W24" s="18" t="n">
-        <v>160812</v>
+        <v>158551</v>
       </c>
       <c r="X24" s="18" t="n">
-        <v>158551</v>
+        <v>162180</v>
       </c>
       <c r="Y24" s="18" t="n">
-        <v>162180</v>
+        <v>116544</v>
       </c>
       <c r="Z24" s="18" t="n">
-        <v>116544</v>
+        <v>122251</v>
       </c>
       <c r="AA24" s="18" t="n">
-        <v>122251</v>
+        <v>82922</v>
       </c>
       <c r="AB24" s="18" t="n">
-        <v>82922</v>
+        <v>99771</v>
       </c>
       <c r="AC24" s="18" t="n">
-        <v>99771</v>
+        <v>167764</v>
       </c>
       <c r="AD24" s="18" t="n">
-        <v>167764</v>
+        <v>127510</v>
       </c>
       <c r="AE24" s="18" t="n">
-        <v>127510</v>
+        <v>160367</v>
       </c>
       <c r="AF24" s="18" t="n">
-        <v>160367</v>
+        <v>175578</v>
       </c>
       <c r="AG24" s="18" t="n">
-        <v>175578</v>
+        <v>125023</v>
       </c>
       <c r="AH24" s="18" t="n">
-        <v>125023</v>
+        <v>132647</v>
       </c>
       <c r="AI24" s="18" t="n">
-        <v>132647</v>
+        <v>166769</v>
       </c>
       <c r="AJ24" s="18" t="n">
-        <v>166769</v>
+        <v>193019</v>
       </c>
       <c r="AK24" s="18" t="n">
-        <v>193019</v>
+        <v>170804</v>
       </c>
       <c r="AL24" s="18" t="n">
-        <v>170804</v>
+        <v>163290</v>
       </c>
       <c r="AM24" s="18" t="n">
-        <v>163290</v>
+        <v>73241</v>
       </c>
       <c r="AN24" s="18" t="n">
-        <v>73241</v>
+        <v>94486</v>
       </c>
       <c r="AO24" s="18" t="n">
-        <v>94486</v>
+        <v>166084</v>
       </c>
       <c r="AP24" s="18" t="n">
-        <v>166084</v>
+        <v>112286</v>
       </c>
       <c r="AQ24" s="18" t="n">
-        <v>112286</v>
+        <v>180684</v>
       </c>
       <c r="AR24" s="18" t="n">
-        <v>180684</v>
+        <v>177873</v>
       </c>
       <c r="AS24" s="18" t="n">
-        <v>177873</v>
+        <v>164684</v>
       </c>
       <c r="AT24" s="18" t="n">
-        <v>164684</v>
+        <v>128863</v>
       </c>
       <c r="AU24" s="18" t="n">
-        <v>128863</v>
+        <v>166204</v>
       </c>
       <c r="AV24" s="18" t="n">
-        <v>166204</v>
+        <v>173529</v>
       </c>
       <c r="AW24" s="18" t="n">
-        <v>173529</v>
+        <v>175459</v>
       </c>
       <c r="AX24" s="18" t="n">
-        <v>175459</v>
+        <v>147121</v>
       </c>
       <c r="AY24" s="18" t="n">
-        <v>147121</v>
+        <v>109638</v>
       </c>
       <c r="AZ24" s="18" t="n">
-        <v>109638</v>
+        <v>93143</v>
       </c>
       <c r="BA24" s="18" t="n">
-        <v>93143</v>
+        <v>165262</v>
       </c>
       <c r="BB24" s="18" t="n">
-        <v>165262</v>
+        <v>129337</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5883,15 +5883,15 @@
       <c r="AC26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD26" s="13" t="s">
-        <v>58</v>
+      <c r="AD26" s="13" t="n">
+        <v>4245</v>
       </c>
       <c r="AE26" s="13" t="n">
-        <v>4245</v>
-      </c>
-      <c r="AF26" s="13" t="n">
         <v>1040</v>
       </c>
+      <c r="AF26" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG26" s="13" t="s">
         <v>58</v>
       </c>
@@ -5907,20 +5907,20 @@
       <c r="AK26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL26" s="13" t="s">
-        <v>58</v>
+      <c r="AL26" s="13" t="n">
+        <v>990</v>
       </c>
       <c r="AM26" s="13" t="n">
-        <v>990</v>
-      </c>
-      <c r="AN26" s="13" t="n">
         <v>10</v>
       </c>
+      <c r="AN26" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP26" s="13" t="s">
-        <v>58</v>
+      <c r="AP26" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ26" s="13" t="n">
         <v>0</v>
@@ -5950,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BA26" s="13" t="n">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="BB26" s="13" t="n">
-        <v>222</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6042,12 +6042,12 @@
       <c r="AC27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE27" s="16" t="n">
+      <c r="AD27" s="16" t="n">
         <v>3752</v>
       </c>
+      <c r="AE27" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AF27" s="16" t="s">
         <v>58</v>
       </c>
@@ -6063,23 +6063,23 @@
       <c r="AJ27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK27" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL27" s="16" t="n">
+      <c r="AK27" s="16" t="n">
         <v>303</v>
       </c>
-      <c r="AM27" s="16" t="s">
-        <v>58</v>
+      <c r="AL27" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM27" s="16" t="n">
+        <v>1471</v>
       </c>
       <c r="AN27" s="16" t="n">
-        <v>1471</v>
+        <v>570</v>
       </c>
       <c r="AO27" s="16" t="n">
-        <v>570</v>
-      </c>
-      <c r="AP27" s="16" t="n">
         <v>371</v>
+      </c>
+      <c r="AP27" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ27" s="16" t="s">
         <v>58</v>
@@ -6174,35 +6174,35 @@
       <c r="T28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="13" t="s">
-        <v>58</v>
+      <c r="U28" s="13" t="n">
+        <v>6497</v>
       </c>
       <c r="V28" s="13" t="n">
-        <v>6497</v>
+        <v>7173</v>
       </c>
       <c r="W28" s="13" t="n">
-        <v>7173</v>
+        <v>8197</v>
       </c>
       <c r="X28" s="13" t="n">
-        <v>8197</v>
+        <v>4407</v>
       </c>
       <c r="Y28" s="13" t="n">
-        <v>4407</v>
+        <v>1941</v>
       </c>
       <c r="Z28" s="13" t="n">
-        <v>1941</v>
+        <v>2561</v>
       </c>
       <c r="AA28" s="13" t="n">
-        <v>2561</v>
+        <v>2615</v>
       </c>
       <c r="AB28" s="13" t="n">
-        <v>2615</v>
+        <v>2767</v>
       </c>
       <c r="AC28" s="13" t="n">
-        <v>2767</v>
-      </c>
-      <c r="AD28" s="13" t="n">
         <v>4960</v>
+      </c>
+      <c r="AD28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE28" s="13" t="s">
         <v>58</v>
@@ -6396,44 +6396,44 @@
       <c r="AO29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP29" s="16" t="s">
-        <v>58</v>
+      <c r="AP29" s="16" t="n">
+        <v>741</v>
       </c>
       <c r="AQ29" s="16" t="n">
-        <v>741</v>
+        <v>1244</v>
       </c>
       <c r="AR29" s="16" t="n">
-        <v>1244</v>
+        <v>1001</v>
       </c>
       <c r="AS29" s="16" t="n">
-        <v>1001</v>
+        <v>1274</v>
       </c>
       <c r="AT29" s="16" t="n">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AU29" s="16" t="n">
-        <v>1272</v>
+        <v>1916</v>
       </c>
       <c r="AV29" s="16" t="n">
-        <v>1916</v>
+        <v>3079</v>
       </c>
       <c r="AW29" s="16" t="n">
-        <v>3079</v>
+        <v>5717</v>
       </c>
       <c r="AX29" s="16" t="n">
-        <v>5717</v>
+        <v>2455</v>
       </c>
       <c r="AY29" s="16" t="n">
-        <v>2455</v>
+        <v>822</v>
       </c>
       <c r="AZ29" s="16" t="n">
-        <v>822</v>
+        <v>46</v>
       </c>
       <c r="BA29" s="16" t="n">
-        <v>46</v>
+        <v>739</v>
       </c>
       <c r="BB29" s="16" t="n">
-        <v>739</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,8 +6555,8 @@
       <c r="AO30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP30" s="13" t="s">
-        <v>58</v>
+      <c r="AP30" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ30" s="13" t="n">
         <v>0</v>
@@ -6651,35 +6651,35 @@
       <c r="T31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>58</v>
+      <c r="U31" s="16" t="n">
+        <v>8883</v>
       </c>
       <c r="V31" s="16" t="n">
-        <v>8883</v>
+        <v>7526</v>
       </c>
       <c r="W31" s="16" t="n">
-        <v>7526</v>
+        <v>10061</v>
       </c>
       <c r="X31" s="16" t="n">
-        <v>10061</v>
+        <v>3726</v>
       </c>
       <c r="Y31" s="16" t="n">
-        <v>3726</v>
+        <v>2580</v>
       </c>
       <c r="Z31" s="16" t="n">
-        <v>2580</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="16" t="n">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="AB31" s="16" t="n">
-        <v>1574</v>
+        <v>5879</v>
       </c>
       <c r="AC31" s="16" t="n">
-        <v>5879</v>
-      </c>
-      <c r="AD31" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE31" s="16" t="s">
         <v>58</v>
@@ -6810,35 +6810,35 @@
       <c r="T32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="13" t="s">
-        <v>58</v>
+      <c r="U32" s="13" t="n">
+        <v>2805</v>
       </c>
       <c r="V32" s="13" t="n">
-        <v>2805</v>
+        <v>1772</v>
       </c>
       <c r="W32" s="13" t="n">
-        <v>1772</v>
+        <v>479</v>
       </c>
       <c r="X32" s="13" t="n">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="13" t="n">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Z32" s="13" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="13" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="AB32" s="13" t="n">
-        <v>176</v>
+        <v>2122</v>
       </c>
       <c r="AC32" s="13" t="n">
-        <v>2122</v>
-      </c>
-      <c r="AD32" s="13" t="n">
         <v>1548</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE32" s="13" t="s">
         <v>58</v>
@@ -6972,32 +6972,32 @@
       <c r="U33" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="16" t="s">
-        <v>58</v>
+      <c r="V33" s="16" t="n">
+        <v>910</v>
       </c>
       <c r="W33" s="16" t="n">
-        <v>910</v>
+        <v>2238</v>
       </c>
       <c r="X33" s="16" t="n">
-        <v>2238</v>
+        <v>1240</v>
       </c>
       <c r="Y33" s="16" t="n">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AA33" s="16" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AB33" s="16" t="n">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="AC33" s="16" t="n">
-        <v>103</v>
-      </c>
-      <c r="AD33" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE33" s="16" t="s">
         <v>58</v>
@@ -7194,41 +7194,41 @@
       <c r="AP34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ34" s="13" t="s">
-        <v>58</v>
+      <c r="AQ34" s="13" t="n">
+        <v>99</v>
       </c>
       <c r="AR34" s="13" t="n">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AS34" s="13" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="AT34" s="13" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AV34" s="13" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="AW34" s="13" t="n">
-        <v>347</v>
+        <v>1169</v>
       </c>
       <c r="AX34" s="13" t="n">
-        <v>1169</v>
+        <v>456</v>
       </c>
       <c r="AY34" s="13" t="n">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="AZ34" s="13" t="n">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="BA34" s="13" t="n">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="BB34" s="13" t="n">
-        <v>110</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7286,40 +7286,40 @@
         <v>0</v>
       </c>
       <c r="U35" s="18" t="n">
-        <v>0</v>
+        <v>18185</v>
       </c>
       <c r="V35" s="18" t="n">
-        <v>18185</v>
+        <v>17381</v>
       </c>
       <c r="W35" s="18" t="n">
-        <v>17381</v>
+        <v>20975</v>
       </c>
       <c r="X35" s="18" t="n">
-        <v>20975</v>
+        <v>9449</v>
       </c>
       <c r="Y35" s="18" t="n">
-        <v>9449</v>
+        <v>4670</v>
       </c>
       <c r="Z35" s="18" t="n">
-        <v>4670</v>
+        <v>2561</v>
       </c>
       <c r="AA35" s="18" t="n">
-        <v>2561</v>
+        <v>4714</v>
       </c>
       <c r="AB35" s="18" t="n">
-        <v>4714</v>
+        <v>10871</v>
       </c>
       <c r="AC35" s="18" t="n">
-        <v>10871</v>
+        <v>6508</v>
       </c>
       <c r="AD35" s="18" t="n">
-        <v>6508</v>
+        <v>7997</v>
       </c>
       <c r="AE35" s="18" t="n">
-        <v>7997</v>
+        <v>1040</v>
       </c>
       <c r="AF35" s="18" t="n">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="18" t="n">
         <v>0</v>
@@ -7334,58 +7334,58 @@
         <v>0</v>
       </c>
       <c r="AK35" s="18" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="AL35" s="18" t="n">
-        <v>303</v>
+        <v>990</v>
       </c>
       <c r="AM35" s="18" t="n">
-        <v>990</v>
+        <v>1481</v>
       </c>
       <c r="AN35" s="18" t="n">
-        <v>1481</v>
+        <v>570</v>
       </c>
       <c r="AO35" s="18" t="n">
-        <v>570</v>
+        <v>371</v>
       </c>
       <c r="AP35" s="18" t="n">
-        <v>371</v>
+        <v>741</v>
       </c>
       <c r="AQ35" s="18" t="n">
-        <v>741</v>
+        <v>1343</v>
       </c>
       <c r="AR35" s="18" t="n">
-        <v>1343</v>
+        <v>1225</v>
       </c>
       <c r="AS35" s="18" t="n">
-        <v>1225</v>
+        <v>1471</v>
       </c>
       <c r="AT35" s="18" t="n">
-        <v>1471</v>
+        <v>1272</v>
       </c>
       <c r="AU35" s="18" t="n">
-        <v>1272</v>
+        <v>1916</v>
       </c>
       <c r="AV35" s="18" t="n">
-        <v>1916</v>
+        <v>3426</v>
       </c>
       <c r="AW35" s="18" t="n">
-        <v>3426</v>
+        <v>6886</v>
       </c>
       <c r="AX35" s="18" t="n">
-        <v>6886</v>
+        <v>2911</v>
       </c>
       <c r="AY35" s="18" t="n">
-        <v>2911</v>
+        <v>1152</v>
       </c>
       <c r="AZ35" s="18" t="n">
-        <v>1152</v>
+        <v>388</v>
       </c>
       <c r="BA35" s="18" t="n">
-        <v>388</v>
+        <v>1071</v>
       </c>
       <c r="BB35" s="18" t="n">
-        <v>1071</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7499,8 +7499,8 @@
       <c r="T37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="22" t="s">
-        <v>58</v>
+      <c r="U37" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="22" t="n">
         <v>0</v>
@@ -7657,106 +7657,106 @@
         <v>0</v>
       </c>
       <c r="U38" s="18" t="n">
-        <v>0</v>
+        <v>208764</v>
       </c>
       <c r="V38" s="18" t="n">
-        <v>208764</v>
+        <v>178193</v>
       </c>
       <c r="W38" s="18" t="n">
-        <v>178193</v>
+        <v>179526</v>
       </c>
       <c r="X38" s="18" t="n">
-        <v>179526</v>
+        <v>171629</v>
       </c>
       <c r="Y38" s="18" t="n">
-        <v>171629</v>
+        <v>121214</v>
       </c>
       <c r="Z38" s="18" t="n">
-        <v>121214</v>
+        <v>124812</v>
       </c>
       <c r="AA38" s="18" t="n">
-        <v>124812</v>
+        <v>87636</v>
       </c>
       <c r="AB38" s="18" t="n">
-        <v>87636</v>
+        <v>110642</v>
       </c>
       <c r="AC38" s="18" t="n">
-        <v>110642</v>
+        <v>174272</v>
       </c>
       <c r="AD38" s="18" t="n">
-        <v>174272</v>
+        <v>135507</v>
       </c>
       <c r="AE38" s="18" t="n">
-        <v>135507</v>
+        <v>161407</v>
       </c>
       <c r="AF38" s="18" t="n">
-        <v>161407</v>
+        <v>175578</v>
       </c>
       <c r="AG38" s="18" t="n">
-        <v>175578</v>
+        <v>125023</v>
       </c>
       <c r="AH38" s="18" t="n">
-        <v>125023</v>
+        <v>132647</v>
       </c>
       <c r="AI38" s="18" t="n">
-        <v>132647</v>
+        <v>166769</v>
       </c>
       <c r="AJ38" s="18" t="n">
-        <v>166769</v>
+        <v>193019</v>
       </c>
       <c r="AK38" s="18" t="n">
-        <v>193019</v>
+        <v>171107</v>
       </c>
       <c r="AL38" s="18" t="n">
-        <v>171107</v>
+        <v>164280</v>
       </c>
       <c r="AM38" s="18" t="n">
-        <v>164280</v>
+        <v>74722</v>
       </c>
       <c r="AN38" s="18" t="n">
-        <v>74722</v>
+        <v>95056</v>
       </c>
       <c r="AO38" s="18" t="n">
-        <v>95056</v>
+        <v>166455</v>
       </c>
       <c r="AP38" s="18" t="n">
-        <v>166455</v>
+        <v>113027</v>
       </c>
       <c r="AQ38" s="18" t="n">
-        <v>113027</v>
+        <v>182027</v>
       </c>
       <c r="AR38" s="18" t="n">
-        <v>182027</v>
+        <v>179098</v>
       </c>
       <c r="AS38" s="18" t="n">
-        <v>179098</v>
+        <v>166155</v>
       </c>
       <c r="AT38" s="18" t="n">
-        <v>166155</v>
+        <v>130135</v>
       </c>
       <c r="AU38" s="18" t="n">
-        <v>130135</v>
+        <v>168120</v>
       </c>
       <c r="AV38" s="18" t="n">
-        <v>168120</v>
+        <v>176955</v>
       </c>
       <c r="AW38" s="18" t="n">
-        <v>176955</v>
+        <v>182345</v>
       </c>
       <c r="AX38" s="18" t="n">
-        <v>182345</v>
+        <v>150032</v>
       </c>
       <c r="AY38" s="18" t="n">
-        <v>150032</v>
+        <v>110790</v>
       </c>
       <c r="AZ38" s="18" t="n">
-        <v>110790</v>
+        <v>93531</v>
       </c>
       <c r="BA38" s="18" t="n">
-        <v>93531</v>
+        <v>166333</v>
       </c>
       <c r="BB38" s="18" t="n">
-        <v>166333</v>
+        <v>132602</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,8 +8249,8 @@
       <c r="T45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>58</v>
+      <c r="U45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="13" t="n">
         <v>0</v>
@@ -8279,8 +8279,8 @@
       <c r="AD45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE45" s="13" t="n">
-        <v>0</v>
+      <c r="AE45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF45" s="13" t="s">
         <v>58</v>
@@ -8330,11 +8330,11 @@
       <c r="AU45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV45" s="13" t="s">
-        <v>58</v>
+      <c r="AV45" s="13" t="n">
+        <v>3621</v>
       </c>
       <c r="AW45" s="13" t="n">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="13" t="n">
         <v>0</v>
@@ -8435,50 +8435,50 @@
       <c r="AC46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD46" s="16" t="s">
-        <v>58</v>
+      <c r="AD46" s="16" t="n">
+        <v>132992</v>
       </c>
       <c r="AE46" s="16" t="n">
-        <v>132992</v>
+        <v>158829</v>
       </c>
       <c r="AF46" s="16" t="n">
-        <v>158829</v>
+        <v>172744</v>
       </c>
       <c r="AG46" s="16" t="n">
-        <v>172744</v>
+        <v>131116</v>
       </c>
       <c r="AH46" s="16" t="n">
-        <v>131116</v>
+        <v>112650</v>
       </c>
       <c r="AI46" s="16" t="n">
-        <v>112650</v>
+        <v>182807</v>
       </c>
       <c r="AJ46" s="16" t="n">
-        <v>182807</v>
+        <v>185165</v>
       </c>
       <c r="AK46" s="16" t="n">
-        <v>185165</v>
+        <v>171975</v>
       </c>
       <c r="AL46" s="16" t="n">
-        <v>171975</v>
+        <v>159026</v>
       </c>
       <c r="AM46" s="16" t="n">
-        <v>159026</v>
+        <v>71406</v>
       </c>
       <c r="AN46" s="16" t="n">
-        <v>71406</v>
+        <v>94628</v>
       </c>
       <c r="AO46" s="16" t="n">
-        <v>94628</v>
-      </c>
-      <c r="AP46" s="16" t="n">
         <v>162921</v>
       </c>
-      <c r="AQ46" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR46" s="16" t="n">
-        <v>0</v>
+      <c r="AP46" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS46" s="16" t="s">
         <v>58</v>
@@ -8567,36 +8567,36 @@
       <c r="T47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="13" t="s">
-        <v>58</v>
+      <c r="U47" s="13" t="n">
+        <v>97872</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>97872</v>
+        <v>67087</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>67087</v>
+        <v>68411</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>68411</v>
+        <v>64245</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>64245</v>
+        <v>55320</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>55320</v>
+        <v>61660</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>61660</v>
+        <v>35239</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>35239</v>
+        <v>42079</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>42079</v>
-      </c>
-      <c r="AD47" s="13" t="n">
         <v>56222</v>
       </c>
+      <c r="AD47" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE47" s="13" t="s">
         <v>58</v>
       </c>
@@ -8630,44 +8630,44 @@
       <c r="AO47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP47" s="13" t="s">
-        <v>58</v>
+      <c r="AP47" s="13" t="n">
+        <v>61258</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>61258</v>
+        <v>69165</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>69165</v>
+        <v>72172</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>72172</v>
+        <v>52548</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>52548</v>
+        <v>52024</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>52024</v>
+        <v>68487</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>68487</v>
+        <v>64433</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>64433</v>
+        <v>60936</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>60936</v>
+        <v>36337</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>36337</v>
+        <v>22004</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>22004</v>
+        <v>28423</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>28423</v>
+        <v>55880</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>55880</v>
+        <v>46226</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8801,32 +8801,32 @@
       <c r="AS48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT48" s="16" t="s">
-        <v>58</v>
+      <c r="AT48" s="16" t="n">
+        <v>1607</v>
       </c>
       <c r="AU48" s="16" t="n">
-        <v>1607</v>
+        <v>11036</v>
       </c>
       <c r="AV48" s="16" t="n">
-        <v>11036</v>
+        <v>13252</v>
       </c>
       <c r="AW48" s="16" t="n">
-        <v>13252</v>
+        <v>17696</v>
       </c>
       <c r="AX48" s="16" t="n">
-        <v>17696</v>
+        <v>21015</v>
       </c>
       <c r="AY48" s="16" t="n">
-        <v>21015</v>
+        <v>19044</v>
       </c>
       <c r="AZ48" s="16" t="n">
-        <v>19044</v>
+        <v>23978</v>
       </c>
       <c r="BA48" s="16" t="n">
-        <v>23978</v>
+        <v>31495</v>
       </c>
       <c r="BB48" s="16" t="n">
-        <v>31495</v>
+        <v>25446</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8885,36 +8885,36 @@
       <c r="T49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="13" t="s">
-        <v>58</v>
+      <c r="U49" s="13" t="n">
+        <v>76934</v>
       </c>
       <c r="V49" s="13" t="n">
-        <v>76934</v>
+        <v>68812</v>
       </c>
       <c r="W49" s="13" t="n">
-        <v>68812</v>
+        <v>60429</v>
       </c>
       <c r="X49" s="13" t="n">
-        <v>60429</v>
+        <v>62463</v>
       </c>
       <c r="Y49" s="13" t="n">
-        <v>62463</v>
+        <v>36697</v>
       </c>
       <c r="Z49" s="13" t="n">
-        <v>36697</v>
+        <v>55673</v>
       </c>
       <c r="AA49" s="13" t="n">
-        <v>55673</v>
+        <v>31725</v>
       </c>
       <c r="AB49" s="13" t="n">
-        <v>31725</v>
+        <v>42014</v>
       </c>
       <c r="AC49" s="13" t="n">
-        <v>42014</v>
-      </c>
-      <c r="AD49" s="13" t="n">
         <v>73716</v>
       </c>
+      <c r="AD49" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE49" s="13" t="s">
         <v>58</v>
       </c>
@@ -8948,44 +8948,44 @@
       <c r="AO49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="13" t="s">
-        <v>58</v>
+      <c r="AP49" s="13" t="n">
+        <v>48708</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>48708</v>
+        <v>60988</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>60988</v>
+        <v>60989</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>60989</v>
+        <v>49061</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>49061</v>
+        <v>39040</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>39040</v>
+        <v>40282</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>40282</v>
+        <v>34487</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>34487</v>
+        <v>31150</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>31150</v>
+        <v>31020</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>31020</v>
+        <v>22741</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>22741</v>
+        <v>18913</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>18913</v>
+        <v>26574</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>26574</v>
+        <v>22756</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9044,23 +9044,23 @@
       <c r="T50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="16" t="s">
-        <v>58</v>
+      <c r="U50" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V50" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W50" s="16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="X50" s="16" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="Y50" s="16" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="Z50" s="16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="16" t="n">
         <v>0</v>
@@ -9071,8 +9071,8 @@
       <c r="AC50" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD50" s="16" t="n">
-        <v>0</v>
+      <c r="AD50" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE50" s="16" t="s">
         <v>58</v>
@@ -9203,8 +9203,8 @@
       <c r="T51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="13" t="s">
-        <v>58</v>
+      <c r="U51" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V51" s="13" t="n">
         <v>0</v>
@@ -9213,26 +9213,26 @@
         <v>0</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>123</v>
+        <v>483</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>483</v>
+        <v>727</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>727</v>
+        <v>934</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>934</v>
+        <v>1073</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>1073</v>
-      </c>
-      <c r="AD51" s="13" t="n">
         <v>1330</v>
       </c>
+      <c r="AD51" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE51" s="13" t="s">
         <v>58</v>
       </c>
@@ -9266,32 +9266,32 @@
       <c r="AO51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP51" s="13" t="s">
-        <v>58</v>
+      <c r="AP51" s="13" t="n">
+        <v>579</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>579</v>
+        <v>119</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>119</v>
+        <v>823</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>823</v>
+        <v>1229</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>1229</v>
+        <v>616</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>616</v>
+        <v>306</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="13" t="n">
         <v>0</v>
@@ -9362,35 +9362,35 @@
       <c r="T52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>58</v>
+      <c r="U52" s="16" t="n">
+        <v>18658</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>18658</v>
+        <v>16528</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>16528</v>
+        <v>18890</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>18890</v>
+        <v>17373</v>
       </c>
       <c r="Y52" s="16" t="n">
-        <v>17373</v>
+        <v>6568</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>6568</v>
+        <v>4223</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>4223</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>1298</v>
-      </c>
-      <c r="AD52" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE52" s="16" t="s">
         <v>58</v>
@@ -9425,11 +9425,11 @@
       <c r="AO52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ52" s="16" t="n">
+      <c r="AP52" s="16" t="n">
         <v>472</v>
+      </c>
+      <c r="AQ52" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AR52" s="16" t="s">
         <v>58</v>
@@ -9521,26 +9521,26 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>0</v>
+        <v>4741</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>4741</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="13" t="n">
         <v>0</v>
@@ -9548,8 +9548,8 @@
       <c r="AC53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD53" s="13" t="n">
-        <v>0</v>
+      <c r="AD53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE53" s="13" t="s">
         <v>58</v>
@@ -9584,8 +9584,8 @@
       <c r="AO53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP53" s="13" t="s">
-        <v>58</v>
+      <c r="AP53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ53" s="13" t="n">
         <v>0</v>
@@ -9680,36 +9680,36 @@
       <c r="T54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>58</v>
+      <c r="U54" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>0</v>
+        <v>7401</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>7401</v>
+        <v>10002</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>10002</v>
+        <v>14817</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>14817</v>
+        <v>13300</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>13300</v>
+        <v>11525</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>11525</v>
+        <v>11620</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>11620</v>
+        <v>7712</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>7712</v>
-      </c>
-      <c r="AD54" s="16" t="n">
         <v>30065</v>
       </c>
+      <c r="AD54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE54" s="16" t="s">
         <v>58</v>
       </c>
@@ -9743,44 +9743,44 @@
       <c r="AO54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP54" s="16" t="s">
-        <v>58</v>
+      <c r="AP54" s="16" t="n">
+        <v>14005</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>14005</v>
+        <v>17689</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>17689</v>
+        <v>17671</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>17671</v>
+        <v>14449</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>14449</v>
+        <v>14539</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>14539</v>
+        <v>19316</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>19316</v>
+        <v>23960</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>23960</v>
+        <v>25454</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>25454</v>
+        <v>14823</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>14823</v>
+        <v>7571</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>7571</v>
+        <v>7676</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>7676</v>
+        <v>15062</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>15062</v>
+        <v>11732</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9839,8 +9839,8 @@
       <c r="T55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>58</v>
+      <c r="U55" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V55" s="13" t="n">
         <v>0</v>
@@ -9866,8 +9866,8 @@
       <c r="AC55" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD55" s="13" t="n">
-        <v>0</v>
+      <c r="AD55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE55" s="13" t="s">
         <v>58</v>
@@ -9902,11 +9902,11 @@
       <c r="AO55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP55" s="13" t="s">
-        <v>58</v>
+      <c r="AP55" s="13" t="n">
+        <v>23</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="13" t="n">
         <v>0</v>
@@ -10064,41 +10064,41 @@
       <c r="AP56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ56" s="16" t="s">
-        <v>58</v>
+      <c r="AQ56" s="16" t="n">
+        <v>11025</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>11025</v>
+        <v>16247</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>16247</v>
+        <v>18357</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>18357</v>
+        <v>17407</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>17407</v>
+        <v>33793</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>33793</v>
+        <v>32024</v>
       </c>
       <c r="AW56" s="16" t="n">
-        <v>32024</v>
+        <v>42177</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>42177</v>
+        <v>44162</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>44162</v>
+        <v>23819</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>23819</v>
+        <v>18195</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>18195</v>
+        <v>35264</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>35264</v>
+        <v>33179</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10220,44 +10220,44 @@
       <c r="AO57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP57" s="13" t="s">
-        <v>58</v>
+      <c r="AP57" s="13" t="n">
+        <v>5647</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>5647</v>
+        <v>11031</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>11031</v>
+        <v>14635</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>14635</v>
+        <v>11323</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>11323</v>
+        <v>7483</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>7483</v>
+        <v>5478</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>5478</v>
+        <v>2532</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>2532</v>
+        <v>1587</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>1587</v>
+        <v>609</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>609</v>
+        <v>70</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>269</v>
+        <v>1197</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>1197</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10315,106 +10315,106 @@
         <v>0</v>
       </c>
       <c r="U58" s="18" t="n">
-        <v>0</v>
+        <v>193464</v>
       </c>
       <c r="V58" s="18" t="n">
-        <v>193464</v>
+        <v>159828</v>
       </c>
       <c r="W58" s="18" t="n">
-        <v>159828</v>
+        <v>162497</v>
       </c>
       <c r="X58" s="18" t="n">
-        <v>162497</v>
+        <v>159106</v>
       </c>
       <c r="Y58" s="18" t="n">
-        <v>159106</v>
+        <v>112383</v>
       </c>
       <c r="Z58" s="18" t="n">
-        <v>112383</v>
+        <v>134286</v>
       </c>
       <c r="AA58" s="18" t="n">
-        <v>134286</v>
+        <v>79518</v>
       </c>
       <c r="AB58" s="18" t="n">
-        <v>79518</v>
+        <v>94176</v>
       </c>
       <c r="AC58" s="18" t="n">
-        <v>94176</v>
+        <v>161333</v>
       </c>
       <c r="AD58" s="18" t="n">
-        <v>161333</v>
+        <v>132992</v>
       </c>
       <c r="AE58" s="18" t="n">
-        <v>132992</v>
+        <v>158829</v>
       </c>
       <c r="AF58" s="18" t="n">
-        <v>158829</v>
+        <v>172744</v>
       </c>
       <c r="AG58" s="18" t="n">
-        <v>172744</v>
+        <v>131116</v>
       </c>
       <c r="AH58" s="18" t="n">
-        <v>131116</v>
+        <v>112650</v>
       </c>
       <c r="AI58" s="18" t="n">
-        <v>112650</v>
+        <v>182807</v>
       </c>
       <c r="AJ58" s="18" t="n">
-        <v>182807</v>
+        <v>185165</v>
       </c>
       <c r="AK58" s="18" t="n">
-        <v>185165</v>
+        <v>171975</v>
       </c>
       <c r="AL58" s="18" t="n">
-        <v>171975</v>
+        <v>159026</v>
       </c>
       <c r="AM58" s="18" t="n">
-        <v>159026</v>
+        <v>71406</v>
       </c>
       <c r="AN58" s="18" t="n">
-        <v>71406</v>
+        <v>94628</v>
       </c>
       <c r="AO58" s="18" t="n">
-        <v>94628</v>
+        <v>162921</v>
       </c>
       <c r="AP58" s="18" t="n">
-        <v>162921</v>
+        <v>130692</v>
       </c>
       <c r="AQ58" s="18" t="n">
-        <v>130692</v>
+        <v>170017</v>
       </c>
       <c r="AR58" s="18" t="n">
-        <v>170017</v>
+        <v>182537</v>
       </c>
       <c r="AS58" s="18" t="n">
-        <v>182537</v>
+        <v>146967</v>
       </c>
       <c r="AT58" s="18" t="n">
-        <v>146967</v>
+        <v>132716</v>
       </c>
       <c r="AU58" s="18" t="n">
-        <v>132716</v>
+        <v>178698</v>
       </c>
       <c r="AV58" s="18" t="n">
-        <v>178698</v>
+        <v>174309</v>
       </c>
       <c r="AW58" s="18" t="n">
-        <v>174309</v>
+        <v>179100</v>
       </c>
       <c r="AX58" s="18" t="n">
-        <v>179100</v>
+        <v>147966</v>
       </c>
       <c r="AY58" s="18" t="n">
-        <v>147966</v>
+        <v>95249</v>
       </c>
       <c r="AZ58" s="18" t="n">
-        <v>95249</v>
+        <v>97454</v>
       </c>
       <c r="BA58" s="18" t="n">
-        <v>97454</v>
+        <v>165472</v>
       </c>
       <c r="BB58" s="18" t="n">
-        <v>165472</v>
+        <v>141342</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10557,15 +10557,15 @@
       <c r="AC60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD60" s="13" t="s">
-        <v>58</v>
+      <c r="AD60" s="13" t="n">
+        <v>4245</v>
       </c>
       <c r="AE60" s="13" t="n">
-        <v>4245</v>
-      </c>
-      <c r="AF60" s="13" t="n">
         <v>1040</v>
       </c>
+      <c r="AF60" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG60" s="13" t="s">
         <v>58</v>
       </c>
@@ -10581,20 +10581,20 @@
       <c r="AK60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL60" s="13" t="s">
-        <v>58</v>
+      <c r="AL60" s="13" t="n">
+        <v>990</v>
       </c>
       <c r="AM60" s="13" t="n">
-        <v>990</v>
-      </c>
-      <c r="AN60" s="13" t="n">
         <v>10</v>
       </c>
+      <c r="AN60" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP60" s="13" t="s">
-        <v>58</v>
+      <c r="AP60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ60" s="13" t="n">
         <v>0</v>
@@ -10624,13 +10624,13 @@
         <v>0</v>
       </c>
       <c r="AZ60" s="13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BA60" s="13" t="n">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>222</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10716,12 +10716,12 @@
       <c r="AC61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE61" s="16" t="n">
+      <c r="AD61" s="16" t="n">
         <v>5454</v>
       </c>
+      <c r="AE61" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AF61" s="16" t="s">
         <v>58</v>
       </c>
@@ -10737,23 +10737,23 @@
       <c r="AJ61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK61" s="16" t="s">
-        <v>58</v>
+      <c r="AK61" s="16" t="n">
+        <v>303</v>
       </c>
       <c r="AL61" s="16" t="n">
-        <v>303</v>
+        <v>1833</v>
       </c>
       <c r="AM61" s="16" t="n">
-        <v>1833</v>
+        <v>1474</v>
       </c>
       <c r="AN61" s="16" t="n">
-        <v>1474</v>
+        <v>577</v>
       </c>
       <c r="AO61" s="16" t="n">
-        <v>577</v>
-      </c>
-      <c r="AP61" s="16" t="n">
         <v>390</v>
+      </c>
+      <c r="AP61" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ61" s="16" t="s">
         <v>58</v>
@@ -10848,35 +10848,35 @@
       <c r="T62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="13" t="s">
-        <v>58</v>
+      <c r="U62" s="13" t="n">
+        <v>6497</v>
       </c>
       <c r="V62" s="13" t="n">
-        <v>6497</v>
+        <v>7173</v>
       </c>
       <c r="W62" s="13" t="n">
-        <v>7173</v>
+        <v>8197</v>
       </c>
       <c r="X62" s="13" t="n">
-        <v>8197</v>
+        <v>4407</v>
       </c>
       <c r="Y62" s="13" t="n">
-        <v>4407</v>
+        <v>1941</v>
       </c>
       <c r="Z62" s="13" t="n">
-        <v>1941</v>
+        <v>2561</v>
       </c>
       <c r="AA62" s="13" t="n">
-        <v>2561</v>
+        <v>2615</v>
       </c>
       <c r="AB62" s="13" t="n">
-        <v>2615</v>
+        <v>2767</v>
       </c>
       <c r="AC62" s="13" t="n">
-        <v>2767</v>
-      </c>
-      <c r="AD62" s="13" t="n">
         <v>4960</v>
+      </c>
+      <c r="AD62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE62" s="13" t="s">
         <v>58</v>
@@ -11070,44 +11070,44 @@
       <c r="AO63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP63" s="16" t="s">
-        <v>58</v>
+      <c r="AP63" s="16" t="n">
+        <v>741</v>
       </c>
       <c r="AQ63" s="16" t="n">
-        <v>741</v>
+        <v>1244</v>
       </c>
       <c r="AR63" s="16" t="n">
-        <v>1244</v>
+        <v>1001</v>
       </c>
       <c r="AS63" s="16" t="n">
-        <v>1001</v>
+        <v>1274</v>
       </c>
       <c r="AT63" s="16" t="n">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AU63" s="16" t="n">
-        <v>1272</v>
+        <v>1916</v>
       </c>
       <c r="AV63" s="16" t="n">
-        <v>1916</v>
+        <v>3079</v>
       </c>
       <c r="AW63" s="16" t="n">
-        <v>3079</v>
+        <v>5717</v>
       </c>
       <c r="AX63" s="16" t="n">
-        <v>5717</v>
+        <v>2455</v>
       </c>
       <c r="AY63" s="16" t="n">
-        <v>2455</v>
+        <v>822</v>
       </c>
       <c r="AZ63" s="16" t="n">
-        <v>822</v>
+        <v>46</v>
       </c>
       <c r="BA63" s="16" t="n">
-        <v>46</v>
+        <v>739</v>
       </c>
       <c r="BB63" s="16" t="n">
-        <v>739</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11229,8 +11229,8 @@
       <c r="AO64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP64" s="13" t="s">
-        <v>58</v>
+      <c r="AP64" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ64" s="13" t="n">
         <v>0</v>
@@ -11325,35 +11325,35 @@
       <c r="T65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="16" t="s">
-        <v>58</v>
+      <c r="U65" s="16" t="n">
+        <v>8883</v>
       </c>
       <c r="V65" s="16" t="n">
-        <v>8883</v>
+        <v>7526</v>
       </c>
       <c r="W65" s="16" t="n">
-        <v>7526</v>
+        <v>10061</v>
       </c>
       <c r="X65" s="16" t="n">
-        <v>10061</v>
+        <v>3726</v>
       </c>
       <c r="Y65" s="16" t="n">
-        <v>3726</v>
+        <v>2580</v>
       </c>
       <c r="Z65" s="16" t="n">
-        <v>2580</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="16" t="n">
-        <v>0</v>
+        <v>2152</v>
       </c>
       <c r="AB65" s="16" t="n">
-        <v>2152</v>
+        <v>5879</v>
       </c>
       <c r="AC65" s="16" t="n">
-        <v>5879</v>
-      </c>
-      <c r="AD65" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD65" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE65" s="16" t="s">
         <v>58</v>
@@ -11484,35 +11484,35 @@
       <c r="T66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="13" t="s">
-        <v>58</v>
+      <c r="U66" s="13" t="n">
+        <v>2805</v>
       </c>
       <c r="V66" s="13" t="n">
-        <v>2805</v>
+        <v>1772</v>
       </c>
       <c r="W66" s="13" t="n">
-        <v>1772</v>
+        <v>479</v>
       </c>
       <c r="X66" s="13" t="n">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="Y66" s="13" t="n">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Z66" s="13" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="13" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="AB66" s="13" t="n">
-        <v>176</v>
+        <v>2122</v>
       </c>
       <c r="AC66" s="13" t="n">
-        <v>2122</v>
-      </c>
-      <c r="AD66" s="13" t="n">
         <v>1548</v>
+      </c>
+      <c r="AD66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE66" s="13" t="s">
         <v>58</v>
@@ -11646,32 +11646,32 @@
       <c r="U67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V67" s="16" t="s">
-        <v>58</v>
+      <c r="V67" s="16" t="n">
+        <v>910</v>
       </c>
       <c r="W67" s="16" t="n">
-        <v>910</v>
+        <v>2238</v>
       </c>
       <c r="X67" s="16" t="n">
-        <v>2238</v>
+        <v>1240</v>
       </c>
       <c r="Y67" s="16" t="n">
-        <v>1240</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AA67" s="16" t="n">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="AB67" s="16" t="n">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="AC67" s="16" t="n">
-        <v>103</v>
-      </c>
-      <c r="AD67" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD67" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE67" s="16" t="s">
         <v>58</v>
@@ -11868,41 +11868,41 @@
       <c r="AP68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ68" s="13" t="s">
-        <v>58</v>
+      <c r="AQ68" s="13" t="n">
+        <v>99</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AV68" s="13" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>347</v>
+        <v>1169</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>1169</v>
+        <v>456</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>110</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11960,40 +11960,40 @@
         <v>0</v>
       </c>
       <c r="U69" s="18" t="n">
-        <v>0</v>
+        <v>18185</v>
       </c>
       <c r="V69" s="18" t="n">
-        <v>18185</v>
+        <v>17381</v>
       </c>
       <c r="W69" s="18" t="n">
-        <v>17381</v>
+        <v>20975</v>
       </c>
       <c r="X69" s="18" t="n">
-        <v>20975</v>
+        <v>9449</v>
       </c>
       <c r="Y69" s="18" t="n">
-        <v>9449</v>
+        <v>4670</v>
       </c>
       <c r="Z69" s="18" t="n">
-        <v>4670</v>
+        <v>2561</v>
       </c>
       <c r="AA69" s="18" t="n">
-        <v>2561</v>
+        <v>5292</v>
       </c>
       <c r="AB69" s="18" t="n">
-        <v>5292</v>
+        <v>10871</v>
       </c>
       <c r="AC69" s="18" t="n">
-        <v>10871</v>
+        <v>6508</v>
       </c>
       <c r="AD69" s="18" t="n">
-        <v>6508</v>
+        <v>9699</v>
       </c>
       <c r="AE69" s="18" t="n">
-        <v>9699</v>
+        <v>1040</v>
       </c>
       <c r="AF69" s="18" t="n">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="18" t="n">
         <v>0</v>
@@ -12008,58 +12008,58 @@
         <v>0</v>
       </c>
       <c r="AK69" s="18" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="AL69" s="18" t="n">
-        <v>303</v>
+        <v>2823</v>
       </c>
       <c r="AM69" s="18" t="n">
-        <v>2823</v>
+        <v>1484</v>
       </c>
       <c r="AN69" s="18" t="n">
-        <v>1484</v>
+        <v>577</v>
       </c>
       <c r="AO69" s="18" t="n">
-        <v>577</v>
+        <v>390</v>
       </c>
       <c r="AP69" s="18" t="n">
-        <v>390</v>
+        <v>741</v>
       </c>
       <c r="AQ69" s="18" t="n">
-        <v>741</v>
+        <v>1343</v>
       </c>
       <c r="AR69" s="18" t="n">
-        <v>1343</v>
+        <v>1225</v>
       </c>
       <c r="AS69" s="18" t="n">
-        <v>1225</v>
+        <v>1471</v>
       </c>
       <c r="AT69" s="18" t="n">
-        <v>1471</v>
+        <v>1272</v>
       </c>
       <c r="AU69" s="18" t="n">
-        <v>1272</v>
+        <v>1916</v>
       </c>
       <c r="AV69" s="18" t="n">
-        <v>1916</v>
+        <v>3426</v>
       </c>
       <c r="AW69" s="18" t="n">
-        <v>3426</v>
+        <v>6886</v>
       </c>
       <c r="AX69" s="18" t="n">
-        <v>6886</v>
+        <v>2911</v>
       </c>
       <c r="AY69" s="18" t="n">
-        <v>2911</v>
+        <v>1152</v>
       </c>
       <c r="AZ69" s="18" t="n">
-        <v>1152</v>
+        <v>388</v>
       </c>
       <c r="BA69" s="18" t="n">
-        <v>388</v>
+        <v>1071</v>
       </c>
       <c r="BB69" s="18" t="n">
-        <v>1071</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12173,8 +12173,8 @@
       <c r="T71" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="22" t="s">
-        <v>58</v>
+      <c r="U71" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V71" s="22" t="n">
         <v>0</v>
@@ -12387,8 +12387,8 @@
       <c r="T73" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U73" s="22" t="s">
-        <v>58</v>
+      <c r="U73" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V73" s="22" t="n">
         <v>0</v>
@@ -12545,106 +12545,106 @@
         <v>0</v>
       </c>
       <c r="U74" s="18" t="n">
-        <v>0</v>
+        <v>211649</v>
       </c>
       <c r="V74" s="18" t="n">
-        <v>211649</v>
+        <v>177209</v>
       </c>
       <c r="W74" s="18" t="n">
-        <v>177209</v>
+        <v>183472</v>
       </c>
       <c r="X74" s="18" t="n">
-        <v>183472</v>
+        <v>168555</v>
       </c>
       <c r="Y74" s="18" t="n">
-        <v>168555</v>
+        <v>117053</v>
       </c>
       <c r="Z74" s="18" t="n">
-        <v>117053</v>
+        <v>136847</v>
       </c>
       <c r="AA74" s="18" t="n">
-        <v>136847</v>
+        <v>84810</v>
       </c>
       <c r="AB74" s="18" t="n">
-        <v>84810</v>
+        <v>105047</v>
       </c>
       <c r="AC74" s="18" t="n">
-        <v>105047</v>
+        <v>167841</v>
       </c>
       <c r="AD74" s="18" t="n">
-        <v>167841</v>
+        <v>142691</v>
       </c>
       <c r="AE74" s="18" t="n">
-        <v>142691</v>
+        <v>159869</v>
       </c>
       <c r="AF74" s="18" t="n">
-        <v>159869</v>
+        <v>172744</v>
       </c>
       <c r="AG74" s="18" t="n">
-        <v>172744</v>
+        <v>131116</v>
       </c>
       <c r="AH74" s="18" t="n">
-        <v>131116</v>
+        <v>112650</v>
       </c>
       <c r="AI74" s="18" t="n">
-        <v>112650</v>
+        <v>182807</v>
       </c>
       <c r="AJ74" s="18" t="n">
-        <v>182807</v>
+        <v>185165</v>
       </c>
       <c r="AK74" s="18" t="n">
-        <v>185165</v>
+        <v>172278</v>
       </c>
       <c r="AL74" s="18" t="n">
-        <v>172278</v>
+        <v>161849</v>
       </c>
       <c r="AM74" s="18" t="n">
-        <v>161849</v>
+        <v>72890</v>
       </c>
       <c r="AN74" s="18" t="n">
-        <v>72890</v>
+        <v>95205</v>
       </c>
       <c r="AO74" s="18" t="n">
-        <v>95205</v>
+        <v>163311</v>
       </c>
       <c r="AP74" s="18" t="n">
-        <v>163311</v>
+        <v>131433</v>
       </c>
       <c r="AQ74" s="18" t="n">
-        <v>131433</v>
+        <v>171360</v>
       </c>
       <c r="AR74" s="18" t="n">
-        <v>171360</v>
+        <v>183762</v>
       </c>
       <c r="AS74" s="18" t="n">
-        <v>183762</v>
+        <v>148438</v>
       </c>
       <c r="AT74" s="18" t="n">
-        <v>148438</v>
+        <v>133988</v>
       </c>
       <c r="AU74" s="18" t="n">
-        <v>133988</v>
+        <v>180614</v>
       </c>
       <c r="AV74" s="18" t="n">
-        <v>180614</v>
+        <v>177735</v>
       </c>
       <c r="AW74" s="18" t="n">
-        <v>177735</v>
+        <v>185986</v>
       </c>
       <c r="AX74" s="18" t="n">
-        <v>185986</v>
+        <v>150877</v>
       </c>
       <c r="AY74" s="18" t="n">
-        <v>150877</v>
+        <v>96401</v>
       </c>
       <c r="AZ74" s="18" t="n">
-        <v>96401</v>
+        <v>97842</v>
       </c>
       <c r="BA74" s="18" t="n">
-        <v>97842</v>
+        <v>166543</v>
       </c>
       <c r="BB74" s="18" t="n">
-        <v>166543</v>
+        <v>144607</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13137,8 +13137,8 @@
       <c r="T81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="13" t="s">
-        <v>58</v>
+      <c r="U81" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V81" s="13" t="n">
         <v>0</v>
@@ -13200,8 +13200,8 @@
       <c r="AO81" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP81" s="13" t="n">
-        <v>0</v>
+      <c r="AP81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ81" s="13" t="s">
         <v>58</v>
@@ -13218,11 +13218,11 @@
       <c r="AU81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV81" s="13" t="s">
-        <v>58</v>
+      <c r="AV81" s="13" t="n">
+        <v>1620</v>
       </c>
       <c r="AW81" s="13" t="n">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="AX81" s="13" t="n">
         <v>0</v>
@@ -13323,50 +13323,50 @@
       <c r="AC82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD82" s="16" t="s">
-        <v>58</v>
+      <c r="AD82" s="16" t="n">
+        <v>370316</v>
       </c>
       <c r="AE82" s="16" t="n">
-        <v>370316</v>
+        <v>593166</v>
       </c>
       <c r="AF82" s="16" t="n">
-        <v>593166</v>
+        <v>656975</v>
       </c>
       <c r="AG82" s="16" t="n">
-        <v>656975</v>
+        <v>663330</v>
       </c>
       <c r="AH82" s="16" t="n">
-        <v>663330</v>
+        <v>678947</v>
       </c>
       <c r="AI82" s="16" t="n">
-        <v>678947</v>
+        <v>1132444</v>
       </c>
       <c r="AJ82" s="16" t="n">
-        <v>1132444</v>
+        <v>854807</v>
       </c>
       <c r="AK82" s="16" t="n">
-        <v>854807</v>
+        <v>788989</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>788989</v>
+        <v>683241</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>683241</v>
+        <v>316567</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>316567</v>
+        <v>462861</v>
       </c>
       <c r="AO82" s="16" t="n">
-        <v>462861</v>
-      </c>
-      <c r="AP82" s="16" t="n">
         <v>855789</v>
       </c>
-      <c r="AQ82" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR82" s="16" t="n">
-        <v>0</v>
+      <c r="AP82" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ82" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR82" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS82" s="16" t="s">
         <v>58</v>
@@ -13455,36 +13455,36 @@
       <c r="T83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="13" t="s">
-        <v>58</v>
+      <c r="U83" s="13" t="n">
+        <v>240050</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>240050</v>
+        <v>175882</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>175882</v>
+        <v>183844</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>183844</v>
+        <v>178487</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>178487</v>
+        <v>167448</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>167448</v>
+        <v>190559</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>190559</v>
+        <v>109119</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>109119</v>
+        <v>130400</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>130400</v>
-      </c>
-      <c r="AD83" s="13" t="n">
         <v>174094</v>
       </c>
+      <c r="AD83" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE83" s="13" t="s">
         <v>58</v>
       </c>
@@ -13518,44 +13518,44 @@
       <c r="AO83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP83" s="13" t="s">
-        <v>58</v>
+      <c r="AP83" s="13" t="n">
+        <v>412214</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>412214</v>
+        <v>465818</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>465818</v>
+        <v>555529</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>555529</v>
+        <v>438161</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>438161</v>
+        <v>408674</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>408674</v>
+        <v>509975</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>509975</v>
+        <v>469885</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>469885</v>
+        <v>443554</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>443554</v>
+        <v>262130</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>262130</v>
+        <v>155316</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>155316</v>
+        <v>205013</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>205013</v>
+        <v>461775</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>461775</v>
+        <v>425898</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13689,32 +13689,32 @@
       <c r="AS84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT84" s="16" t="s">
-        <v>58</v>
+      <c r="AT84" s="16" t="n">
+        <v>11090</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>11090</v>
+        <v>71784</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>71784</v>
+        <v>85772</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>85772</v>
+        <v>113312</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>113312</v>
+        <v>124936</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>124936</v>
+        <v>112923</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>112923</v>
+        <v>147213</v>
       </c>
       <c r="BA84" s="16" t="n">
-        <v>147213</v>
+        <v>217381</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>217381</v>
+        <v>197194</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13773,36 +13773,36 @@
       <c r="T85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="13" t="s">
-        <v>58</v>
+      <c r="U85" s="13" t="n">
+        <v>161027</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>161027</v>
+        <v>151856</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>151856</v>
+        <v>133004</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>133004</v>
+        <v>137472</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>137472</v>
+        <v>80737</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>80737</v>
+        <v>122525</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>122525</v>
+        <v>69816</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>69816</v>
+        <v>92435</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>92435</v>
-      </c>
-      <c r="AD85" s="13" t="n">
         <v>162174</v>
       </c>
+      <c r="AD85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE85" s="13" t="s">
         <v>58</v>
       </c>
@@ -13836,44 +13836,44 @@
       <c r="AO85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP85" s="13" t="s">
-        <v>58</v>
+      <c r="AP85" s="13" t="n">
+        <v>255681</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>255681</v>
+        <v>333582</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>333582</v>
+        <v>376193</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>376193</v>
+        <v>355744</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>355744</v>
+        <v>281873</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>281873</v>
+        <v>285493</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>285493</v>
+        <v>234304</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>234304</v>
+        <v>211020</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>211020</v>
+        <v>208868</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>208868</v>
+        <v>154246</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>154246</v>
+        <v>126623</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>126623</v>
+        <v>199880</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>199880</v>
+        <v>183042</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13932,23 +13932,23 @@
       <c r="T86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="16" t="s">
-        <v>58</v>
+      <c r="U86" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V86" s="16" t="n">
         <v>0</v>
       </c>
       <c r="W86" s="16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="X86" s="16" t="n">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="Y86" s="16" t="n">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="Z86" s="16" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="16" t="n">
         <v>0</v>
@@ -13959,8 +13959,8 @@
       <c r="AC86" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD86" s="16" t="n">
-        <v>0</v>
+      <c r="AD86" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE86" s="16" t="s">
         <v>58</v>
@@ -14091,8 +14091,8 @@
       <c r="T87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="13" t="s">
-        <v>58</v>
+      <c r="U87" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V87" s="13" t="n">
         <v>0</v>
@@ -14101,26 +14101,26 @@
         <v>0</v>
       </c>
       <c r="X87" s="13" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="Y87" s="13" t="n">
-        <v>264</v>
+        <v>1034</v>
       </c>
       <c r="Z87" s="13" t="n">
-        <v>1034</v>
+        <v>1557</v>
       </c>
       <c r="AA87" s="13" t="n">
-        <v>1557</v>
+        <v>2002</v>
       </c>
       <c r="AB87" s="13" t="n">
-        <v>2002</v>
+        <v>2301</v>
       </c>
       <c r="AC87" s="13" t="n">
-        <v>2301</v>
-      </c>
-      <c r="AD87" s="13" t="n">
         <v>2851</v>
       </c>
+      <c r="AD87" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE87" s="13" t="s">
         <v>58</v>
       </c>
@@ -14154,32 +14154,32 @@
       <c r="AO87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP87" s="13" t="s">
-        <v>58</v>
+      <c r="AP87" s="13" t="n">
+        <v>1997</v>
       </c>
       <c r="AQ87" s="13" t="n">
-        <v>1997</v>
+        <v>412</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>412</v>
+        <v>2838</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>2838</v>
+        <v>4241</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>4241</v>
+        <v>2126</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>2126</v>
+        <v>1057</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>1057</v>
+        <v>0</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AY87" s="13" t="n">
         <v>0</v>
@@ -14250,35 +14250,35 @@
       <c r="T88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="16" t="s">
-        <v>58</v>
+      <c r="U88" s="16" t="n">
+        <v>39502</v>
       </c>
       <c r="V88" s="16" t="n">
-        <v>39502</v>
+        <v>36885</v>
       </c>
       <c r="W88" s="16" t="n">
-        <v>36885</v>
+        <v>42156</v>
       </c>
       <c r="X88" s="16" t="n">
-        <v>42156</v>
+        <v>38769</v>
       </c>
       <c r="Y88" s="16" t="n">
-        <v>38769</v>
+        <v>14657</v>
       </c>
       <c r="Z88" s="16" t="n">
-        <v>14657</v>
+        <v>9425</v>
       </c>
       <c r="AA88" s="16" t="n">
-        <v>9425</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="16" t="n">
-        <v>0</v>
+        <v>2896</v>
       </c>
       <c r="AC88" s="16" t="n">
-        <v>2896</v>
-      </c>
-      <c r="AD88" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD88" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE88" s="16" t="s">
         <v>58</v>
@@ -14313,11 +14313,11 @@
       <c r="AO88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP88" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ88" s="16" t="n">
+      <c r="AP88" s="16" t="n">
         <v>2494</v>
+      </c>
+      <c r="AQ88" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AR88" s="16" t="s">
         <v>58</v>
@@ -14409,26 +14409,26 @@
       <c r="T89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U89" s="13" t="s">
-        <v>58</v>
+      <c r="U89" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V89" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W89" s="13" t="n">
-        <v>0</v>
+        <v>12801</v>
       </c>
       <c r="X89" s="13" t="n">
-        <v>12801</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Z89" s="13" t="n">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="AA89" s="13" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="AB89" s="13" t="n">
         <v>0</v>
@@ -14436,8 +14436,8 @@
       <c r="AC89" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD89" s="13" t="n">
-        <v>0</v>
+      <c r="AD89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE89" s="13" t="s">
         <v>58</v>
@@ -14472,8 +14472,8 @@
       <c r="AO89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP89" s="13" t="s">
-        <v>58</v>
+      <c r="AP89" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ89" s="13" t="n">
         <v>0</v>
@@ -14568,36 +14568,36 @@
       <c r="T90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U90" s="16" t="s">
-        <v>58</v>
+      <c r="U90" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V90" s="16" t="n">
-        <v>0</v>
+        <v>19486</v>
       </c>
       <c r="W90" s="16" t="n">
-        <v>19486</v>
+        <v>26484</v>
       </c>
       <c r="X90" s="16" t="n">
-        <v>26484</v>
+        <v>40582</v>
       </c>
       <c r="Y90" s="16" t="n">
-        <v>40582</v>
+        <v>39657</v>
       </c>
       <c r="Z90" s="16" t="n">
-        <v>39657</v>
+        <v>35062</v>
       </c>
       <c r="AA90" s="16" t="n">
-        <v>35062</v>
+        <v>35419</v>
       </c>
       <c r="AB90" s="16" t="n">
-        <v>35419</v>
+        <v>23506</v>
       </c>
       <c r="AC90" s="16" t="n">
-        <v>23506</v>
-      </c>
-      <c r="AD90" s="16" t="n">
         <v>91656</v>
       </c>
+      <c r="AD90" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE90" s="16" t="s">
         <v>58</v>
       </c>
@@ -14631,44 +14631,44 @@
       <c r="AO90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP90" s="16" t="s">
-        <v>58</v>
+      <c r="AP90" s="16" t="n">
+        <v>87217</v>
       </c>
       <c r="AQ90" s="16" t="n">
-        <v>87217</v>
+        <v>106612</v>
       </c>
       <c r="AR90" s="16" t="n">
-        <v>106612</v>
+        <v>125424</v>
       </c>
       <c r="AS90" s="16" t="n">
-        <v>125424</v>
+        <v>103923</v>
       </c>
       <c r="AT90" s="16" t="n">
-        <v>103923</v>
+        <v>98349</v>
       </c>
       <c r="AU90" s="16" t="n">
-        <v>98349</v>
+        <v>123271</v>
       </c>
       <c r="AV90" s="16" t="n">
-        <v>123271</v>
+        <v>144167</v>
       </c>
       <c r="AW90" s="16" t="n">
-        <v>144167</v>
+        <v>147494</v>
       </c>
       <c r="AX90" s="16" t="n">
-        <v>147494</v>
+        <v>86312</v>
       </c>
       <c r="AY90" s="16" t="n">
-        <v>86312</v>
+        <v>44337</v>
       </c>
       <c r="AZ90" s="16" t="n">
-        <v>44337</v>
+        <v>45384</v>
       </c>
       <c r="BA90" s="16" t="n">
-        <v>45384</v>
+        <v>101064</v>
       </c>
       <c r="BB90" s="16" t="n">
-        <v>101064</v>
+        <v>89147</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14727,8 +14727,8 @@
       <c r="T91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U91" s="13" t="s">
-        <v>58</v>
+      <c r="U91" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V91" s="13" t="n">
         <v>0</v>
@@ -14754,8 +14754,8 @@
       <c r="AC91" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD91" s="13" t="n">
-        <v>0</v>
+      <c r="AD91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE91" s="13" t="s">
         <v>58</v>
@@ -14790,11 +14790,11 @@
       <c r="AO91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP91" s="13" t="s">
-        <v>58</v>
+      <c r="AP91" s="13" t="n">
+        <v>78</v>
       </c>
       <c r="AQ91" s="13" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="AR91" s="13" t="n">
         <v>0</v>
@@ -14952,41 +14952,41 @@
       <c r="AP92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ92" s="16" t="s">
-        <v>58</v>
+      <c r="AQ92" s="16" t="n">
+        <v>52599</v>
       </c>
       <c r="AR92" s="16" t="n">
-        <v>52599</v>
+        <v>91845</v>
       </c>
       <c r="AS92" s="16" t="n">
-        <v>91845</v>
+        <v>106025</v>
       </c>
       <c r="AT92" s="16" t="n">
-        <v>106025</v>
+        <v>102196</v>
       </c>
       <c r="AU92" s="16" t="n">
-        <v>102196</v>
+        <v>198279</v>
       </c>
       <c r="AV92" s="16" t="n">
-        <v>198279</v>
+        <v>182959</v>
       </c>
       <c r="AW92" s="16" t="n">
-        <v>182959</v>
+        <v>230828</v>
       </c>
       <c r="AX92" s="16" t="n">
-        <v>230828</v>
+        <v>236308</v>
       </c>
       <c r="AY92" s="16" t="n">
-        <v>236308</v>
+        <v>127249</v>
       </c>
       <c r="AZ92" s="16" t="n">
-        <v>127249</v>
+        <v>95063</v>
       </c>
       <c r="BA92" s="16" t="n">
-        <v>95063</v>
+        <v>209194</v>
       </c>
       <c r="BB92" s="16" t="n">
-        <v>209194</v>
+        <v>223259</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15108,44 +15108,44 @@
       <c r="AO93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP93" s="13" t="s">
-        <v>58</v>
+      <c r="AP93" s="13" t="n">
+        <v>30264</v>
       </c>
       <c r="AQ93" s="13" t="n">
-        <v>30264</v>
+        <v>59181</v>
       </c>
       <c r="AR93" s="13" t="n">
-        <v>59181</v>
+        <v>93919</v>
       </c>
       <c r="AS93" s="13" t="n">
-        <v>93919</v>
+        <v>76657</v>
       </c>
       <c r="AT93" s="13" t="n">
-        <v>76657</v>
+        <v>48772</v>
       </c>
       <c r="AU93" s="13" t="n">
-        <v>48772</v>
+        <v>34894</v>
       </c>
       <c r="AV93" s="13" t="n">
-        <v>34894</v>
+        <v>15611</v>
       </c>
       <c r="AW93" s="13" t="n">
-        <v>15611</v>
+        <v>9195</v>
       </c>
       <c r="AX93" s="13" t="n">
-        <v>9195</v>
+        <v>3434</v>
       </c>
       <c r="AY93" s="13" t="n">
-        <v>3434</v>
+        <v>406</v>
       </c>
       <c r="AZ93" s="13" t="n">
-        <v>406</v>
+        <v>1600</v>
       </c>
       <c r="BA93" s="13" t="n">
-        <v>1600</v>
+        <v>8074</v>
       </c>
       <c r="BB93" s="13" t="n">
-        <v>8074</v>
+        <v>14176</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15203,106 +15203,106 @@
         <v>0</v>
       </c>
       <c r="U94" s="18" t="n">
-        <v>0</v>
+        <v>440579</v>
       </c>
       <c r="V94" s="18" t="n">
-        <v>440579</v>
+        <v>384109</v>
       </c>
       <c r="W94" s="18" t="n">
-        <v>384109</v>
+        <v>398354</v>
       </c>
       <c r="X94" s="18" t="n">
-        <v>398354</v>
+        <v>395812</v>
       </c>
       <c r="Y94" s="18" t="n">
-        <v>395812</v>
+        <v>303579</v>
       </c>
       <c r="Z94" s="18" t="n">
-        <v>303579</v>
+        <v>360428</v>
       </c>
       <c r="AA94" s="18" t="n">
-        <v>360428</v>
+        <v>216356</v>
       </c>
       <c r="AB94" s="18" t="n">
-        <v>216356</v>
+        <v>251538</v>
       </c>
       <c r="AC94" s="18" t="n">
-        <v>251538</v>
+        <v>430775</v>
       </c>
       <c r="AD94" s="18" t="n">
-        <v>430775</v>
+        <v>370316</v>
       </c>
       <c r="AE94" s="18" t="n">
-        <v>370316</v>
+        <v>593166</v>
       </c>
       <c r="AF94" s="18" t="n">
-        <v>593166</v>
+        <v>656975</v>
       </c>
       <c r="AG94" s="18" t="n">
-        <v>656975</v>
+        <v>663330</v>
       </c>
       <c r="AH94" s="18" t="n">
-        <v>663330</v>
+        <v>678947</v>
       </c>
       <c r="AI94" s="18" t="n">
-        <v>678947</v>
+        <v>1132444</v>
       </c>
       <c r="AJ94" s="18" t="n">
-        <v>1132444</v>
+        <v>854807</v>
       </c>
       <c r="AK94" s="18" t="n">
-        <v>854807</v>
+        <v>788989</v>
       </c>
       <c r="AL94" s="18" t="n">
-        <v>788989</v>
+        <v>683241</v>
       </c>
       <c r="AM94" s="18" t="n">
-        <v>683241</v>
+        <v>316567</v>
       </c>
       <c r="AN94" s="18" t="n">
-        <v>316567</v>
+        <v>462861</v>
       </c>
       <c r="AO94" s="18" t="n">
-        <v>462861</v>
+        <v>855789</v>
       </c>
       <c r="AP94" s="18" t="n">
-        <v>855789</v>
+        <v>789945</v>
       </c>
       <c r="AQ94" s="18" t="n">
-        <v>789945</v>
+        <v>1018204</v>
       </c>
       <c r="AR94" s="18" t="n">
-        <v>1018204</v>
+        <v>1245748</v>
       </c>
       <c r="AS94" s="18" t="n">
-        <v>1245748</v>
+        <v>1084751</v>
       </c>
       <c r="AT94" s="18" t="n">
-        <v>1084751</v>
+        <v>953080</v>
       </c>
       <c r="AU94" s="18" t="n">
-        <v>953080</v>
+        <v>1224753</v>
       </c>
       <c r="AV94" s="18" t="n">
-        <v>1224753</v>
+        <v>1134318</v>
       </c>
       <c r="AW94" s="18" t="n">
-        <v>1134318</v>
+        <v>1156203</v>
       </c>
       <c r="AX94" s="18" t="n">
-        <v>1156203</v>
+        <v>921988</v>
       </c>
       <c r="AY94" s="18" t="n">
-        <v>921988</v>
+        <v>594477</v>
       </c>
       <c r="AZ94" s="18" t="n">
-        <v>594477</v>
+        <v>620896</v>
       </c>
       <c r="BA94" s="18" t="n">
-        <v>620896</v>
+        <v>1197368</v>
       </c>
       <c r="BB94" s="18" t="n">
-        <v>1197368</v>
+        <v>1132716</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15445,14 +15445,14 @@
       <c r="AC96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD96" s="13" t="s">
-        <v>58</v>
+      <c r="AD96" s="13" t="n">
+        <v>16897</v>
       </c>
       <c r="AE96" s="13" t="n">
-        <v>16897</v>
+        <v>4226</v>
       </c>
       <c r="AF96" s="13" t="n">
-        <v>4226</v>
+        <v>0</v>
       </c>
       <c r="AG96" s="13" t="n">
         <v>0</v>
@@ -15470,13 +15470,13 @@
         <v>0</v>
       </c>
       <c r="AL96" s="13" t="n">
-        <v>0</v>
+        <v>6071</v>
       </c>
       <c r="AM96" s="13" t="n">
-        <v>6071</v>
+        <v>62</v>
       </c>
       <c r="AN96" s="13" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AO96" s="13" t="n">
         <v>0</v>
@@ -15512,13 +15512,13 @@
         <v>0</v>
       </c>
       <c r="AZ96" s="13" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="BA96" s="13" t="n">
-        <v>156</v>
+        <v>1350</v>
       </c>
       <c r="BB96" s="13" t="n">
-        <v>1350</v>
+        <v>10365</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15604,11 +15604,11 @@
       <c r="AC97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD97" s="16" t="s">
-        <v>58</v>
+      <c r="AD97" s="16" t="n">
+        <v>31823</v>
       </c>
       <c r="AE97" s="16" t="n">
-        <v>31823</v>
+        <v>0</v>
       </c>
       <c r="AF97" s="16" t="n">
         <v>0</v>
@@ -15626,22 +15626,22 @@
         <v>0</v>
       </c>
       <c r="AK97" s="16" t="n">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="AL97" s="16" t="n">
-        <v>2526</v>
+        <v>15811</v>
       </c>
       <c r="AM97" s="16" t="n">
-        <v>15811</v>
+        <v>13153</v>
       </c>
       <c r="AN97" s="16" t="n">
-        <v>13153</v>
+        <v>4960</v>
       </c>
       <c r="AO97" s="16" t="n">
-        <v>4960</v>
-      </c>
-      <c r="AP97" s="16" t="n">
         <v>3557</v>
+      </c>
+      <c r="AP97" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ97" s="16" t="s">
         <v>58</v>
@@ -15736,35 +15736,35 @@
       <c r="T98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U98" s="13" t="s">
-        <v>58</v>
+      <c r="U98" s="13" t="n">
+        <v>11365</v>
       </c>
       <c r="V98" s="13" t="n">
-        <v>11365</v>
+        <v>12937</v>
       </c>
       <c r="W98" s="13" t="n">
-        <v>12937</v>
+        <v>16696</v>
       </c>
       <c r="X98" s="13" t="n">
-        <v>16696</v>
+        <v>9837</v>
       </c>
       <c r="Y98" s="13" t="n">
-        <v>9837</v>
+        <v>5173</v>
       </c>
       <c r="Z98" s="13" t="n">
-        <v>5173</v>
+        <v>6837</v>
       </c>
       <c r="AA98" s="13" t="n">
-        <v>6837</v>
+        <v>7164</v>
       </c>
       <c r="AB98" s="13" t="n">
-        <v>7164</v>
+        <v>7520</v>
       </c>
       <c r="AC98" s="13" t="n">
-        <v>7520</v>
-      </c>
-      <c r="AD98" s="13" t="n">
         <v>14182</v>
+      </c>
+      <c r="AD98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE98" s="13" t="s">
         <v>58</v>
@@ -15958,44 +15958,44 @@
       <c r="AO99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP99" s="16" t="s">
-        <v>58</v>
+      <c r="AP99" s="16" t="n">
+        <v>6879</v>
       </c>
       <c r="AQ99" s="16" t="n">
-        <v>6879</v>
+        <v>11616</v>
       </c>
       <c r="AR99" s="16" t="n">
-        <v>11616</v>
+        <v>9606</v>
       </c>
       <c r="AS99" s="16" t="n">
-        <v>9606</v>
+        <v>12682</v>
       </c>
       <c r="AT99" s="16" t="n">
-        <v>12682</v>
+        <v>12228</v>
       </c>
       <c r="AU99" s="16" t="n">
-        <v>12228</v>
+        <v>18284</v>
       </c>
       <c r="AV99" s="16" t="n">
-        <v>18284</v>
+        <v>26018</v>
       </c>
       <c r="AW99" s="16" t="n">
-        <v>26018</v>
+        <v>45489</v>
       </c>
       <c r="AX99" s="16" t="n">
-        <v>45489</v>
+        <v>19780</v>
       </c>
       <c r="AY99" s="16" t="n">
-        <v>19780</v>
+        <v>6820</v>
       </c>
       <c r="AZ99" s="16" t="n">
-        <v>6820</v>
+        <v>371</v>
       </c>
       <c r="BA99" s="16" t="n">
-        <v>371</v>
+        <v>8463</v>
       </c>
       <c r="BB99" s="16" t="n">
-        <v>8463</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16117,8 +16117,8 @@
       <c r="AO100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP100" s="13" t="s">
-        <v>58</v>
+      <c r="AP100" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ100" s="13" t="n">
         <v>0</v>
@@ -16213,35 +16213,35 @@
       <c r="T101" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U101" s="16" t="s">
-        <v>58</v>
+      <c r="U101" s="16" t="n">
+        <v>28850</v>
       </c>
       <c r="V101" s="16" t="n">
-        <v>28850</v>
+        <v>25871</v>
       </c>
       <c r="W101" s="16" t="n">
-        <v>25871</v>
+        <v>39219</v>
       </c>
       <c r="X101" s="16" t="n">
-        <v>39219</v>
+        <v>15653</v>
       </c>
       <c r="Y101" s="16" t="n">
-        <v>15653</v>
+        <v>12823</v>
       </c>
       <c r="Z101" s="16" t="n">
-        <v>12823</v>
+        <v>0</v>
       </c>
       <c r="AA101" s="16" t="n">
-        <v>0</v>
+        <v>10356</v>
       </c>
       <c r="AB101" s="16" t="n">
-        <v>10356</v>
+        <v>27725</v>
       </c>
       <c r="AC101" s="16" t="n">
-        <v>27725</v>
-      </c>
-      <c r="AD101" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD101" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE101" s="16" t="s">
         <v>58</v>
@@ -16372,35 +16372,35 @@
       <c r="T102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U102" s="13" t="s">
-        <v>58</v>
+      <c r="U102" s="13" t="n">
+        <v>8190</v>
       </c>
       <c r="V102" s="13" t="n">
-        <v>8190</v>
+        <v>5724</v>
       </c>
       <c r="W102" s="13" t="n">
-        <v>5724</v>
+        <v>1524</v>
       </c>
       <c r="X102" s="13" t="n">
-        <v>1524</v>
+        <v>215</v>
       </c>
       <c r="Y102" s="13" t="n">
-        <v>215</v>
+        <v>420</v>
       </c>
       <c r="Z102" s="13" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="13" t="n">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="AB102" s="13" t="n">
-        <v>687</v>
+        <v>10147</v>
       </c>
       <c r="AC102" s="13" t="n">
-        <v>10147</v>
-      </c>
-      <c r="AD102" s="13" t="n">
         <v>7706</v>
+      </c>
+      <c r="AD102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE102" s="13" t="s">
         <v>58</v>
@@ -16534,32 +16534,32 @@
       <c r="U103" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V103" s="16" t="s">
-        <v>58</v>
+      <c r="V103" s="16" t="n">
+        <v>2955</v>
       </c>
       <c r="W103" s="16" t="n">
-        <v>2955</v>
+        <v>7948</v>
       </c>
       <c r="X103" s="16" t="n">
-        <v>7948</v>
+        <v>4860</v>
       </c>
       <c r="Y103" s="16" t="n">
-        <v>4860</v>
+        <v>0</v>
       </c>
       <c r="Z103" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AA103" s="16" t="n">
-        <v>0</v>
+        <v>1460</v>
       </c>
       <c r="AB103" s="16" t="n">
-        <v>1460</v>
+        <v>430</v>
       </c>
       <c r="AC103" s="16" t="n">
-        <v>430</v>
-      </c>
-      <c r="AD103" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AD103" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE103" s="16" t="s">
         <v>58</v>
@@ -16756,41 +16756,41 @@
       <c r="AP104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ104" s="13" t="s">
-        <v>58</v>
+      <c r="AQ104" s="13" t="n">
+        <v>925</v>
       </c>
       <c r="AR104" s="13" t="n">
-        <v>925</v>
+        <v>2022</v>
       </c>
       <c r="AS104" s="13" t="n">
-        <v>2022</v>
+        <v>1795</v>
       </c>
       <c r="AT104" s="13" t="n">
-        <v>1795</v>
+        <v>0</v>
       </c>
       <c r="AU104" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AV104" s="13" t="n">
-        <v>0</v>
+        <v>2486</v>
       </c>
       <c r="AW104" s="13" t="n">
-        <v>2486</v>
+        <v>8421</v>
       </c>
       <c r="AX104" s="13" t="n">
-        <v>8421</v>
+        <v>3427</v>
       </c>
       <c r="AY104" s="13" t="n">
-        <v>3427</v>
+        <v>2348</v>
       </c>
       <c r="AZ104" s="13" t="n">
-        <v>2348</v>
+        <v>2236</v>
       </c>
       <c r="BA104" s="13" t="n">
-        <v>2236</v>
+        <v>974</v>
       </c>
       <c r="BB104" s="13" t="n">
-        <v>974</v>
+        <v>12971</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16848,40 +16848,40 @@
         <v>0</v>
       </c>
       <c r="U105" s="18" t="n">
-        <v>0</v>
+        <v>48405</v>
       </c>
       <c r="V105" s="18" t="n">
-        <v>48405</v>
+        <v>47487</v>
       </c>
       <c r="W105" s="18" t="n">
-        <v>47487</v>
+        <v>65387</v>
       </c>
       <c r="X105" s="18" t="n">
-        <v>65387</v>
+        <v>30565</v>
       </c>
       <c r="Y105" s="18" t="n">
-        <v>30565</v>
+        <v>18416</v>
       </c>
       <c r="Z105" s="18" t="n">
-        <v>18416</v>
+        <v>6837</v>
       </c>
       <c r="AA105" s="18" t="n">
-        <v>6837</v>
+        <v>19667</v>
       </c>
       <c r="AB105" s="18" t="n">
-        <v>19667</v>
+        <v>45822</v>
       </c>
       <c r="AC105" s="18" t="n">
-        <v>45822</v>
+        <v>21888</v>
       </c>
       <c r="AD105" s="18" t="n">
-        <v>21888</v>
+        <v>48720</v>
       </c>
       <c r="AE105" s="18" t="n">
-        <v>48720</v>
+        <v>4226</v>
       </c>
       <c r="AF105" s="18" t="n">
-        <v>4226</v>
+        <v>0</v>
       </c>
       <c r="AG105" s="18" t="n">
         <v>0</v>
@@ -16896,58 +16896,58 @@
         <v>0</v>
       </c>
       <c r="AK105" s="18" t="n">
-        <v>0</v>
+        <v>2526</v>
       </c>
       <c r="AL105" s="18" t="n">
-        <v>2526</v>
+        <v>21882</v>
       </c>
       <c r="AM105" s="18" t="n">
-        <v>21882</v>
+        <v>13215</v>
       </c>
       <c r="AN105" s="18" t="n">
-        <v>13215</v>
+        <v>4960</v>
       </c>
       <c r="AO105" s="18" t="n">
-        <v>4960</v>
+        <v>3557</v>
       </c>
       <c r="AP105" s="18" t="n">
-        <v>3557</v>
+        <v>6879</v>
       </c>
       <c r="AQ105" s="18" t="n">
-        <v>6879</v>
+        <v>12541</v>
       </c>
       <c r="AR105" s="18" t="n">
-        <v>12541</v>
+        <v>11628</v>
       </c>
       <c r="AS105" s="18" t="n">
-        <v>11628</v>
+        <v>14477</v>
       </c>
       <c r="AT105" s="18" t="n">
-        <v>14477</v>
+        <v>12228</v>
       </c>
       <c r="AU105" s="18" t="n">
-        <v>12228</v>
+        <v>18284</v>
       </c>
       <c r="AV105" s="18" t="n">
-        <v>18284</v>
+        <v>28504</v>
       </c>
       <c r="AW105" s="18" t="n">
-        <v>28504</v>
+        <v>53910</v>
       </c>
       <c r="AX105" s="18" t="n">
-        <v>53910</v>
+        <v>23207</v>
       </c>
       <c r="AY105" s="18" t="n">
-        <v>23207</v>
+        <v>9168</v>
       </c>
       <c r="AZ105" s="18" t="n">
-        <v>9168</v>
+        <v>2763</v>
       </c>
       <c r="BA105" s="18" t="n">
-        <v>2763</v>
+        <v>10787</v>
       </c>
       <c r="BB105" s="18" t="n">
-        <v>10787</v>
+        <v>29471</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17063,8 +17063,8 @@
       <c r="T107" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U107" s="22" t="s">
-        <v>58</v>
+      <c r="U107" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V107" s="23" t="n">
         <v>0</v>
@@ -17279,8 +17279,8 @@
       <c r="T109" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="U109" s="22" t="s">
-        <v>58</v>
+      <c r="U109" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V109" s="23" t="n">
         <v>0</v>
@@ -17495,8 +17495,8 @@
       <c r="T111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U111" s="13" t="s">
-        <v>58</v>
+      <c r="U111" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V111" s="13" t="n">
         <v>0</v>
@@ -17653,106 +17653,106 @@
         <v>0</v>
       </c>
       <c r="U112" s="18" t="n">
-        <v>0</v>
+        <v>488984</v>
       </c>
       <c r="V112" s="18" t="n">
-        <v>488984</v>
+        <v>431596</v>
       </c>
       <c r="W112" s="18" t="n">
-        <v>431596</v>
+        <v>463741</v>
       </c>
       <c r="X112" s="18" t="n">
-        <v>463741</v>
+        <v>426377</v>
       </c>
       <c r="Y112" s="18" t="n">
-        <v>426377</v>
+        <v>321995</v>
       </c>
       <c r="Z112" s="18" t="n">
-        <v>321995</v>
+        <v>367265</v>
       </c>
       <c r="AA112" s="18" t="n">
-        <v>367265</v>
+        <v>236023</v>
       </c>
       <c r="AB112" s="18" t="n">
-        <v>236023</v>
+        <v>297360</v>
       </c>
       <c r="AC112" s="18" t="n">
-        <v>297360</v>
+        <v>452663</v>
       </c>
       <c r="AD112" s="18" t="n">
-        <v>452663</v>
+        <v>419036</v>
       </c>
       <c r="AE112" s="18" t="n">
-        <v>419036</v>
+        <v>597392</v>
       </c>
       <c r="AF112" s="18" t="n">
-        <v>597392</v>
+        <v>656975</v>
       </c>
       <c r="AG112" s="18" t="n">
-        <v>656975</v>
+        <v>663330</v>
       </c>
       <c r="AH112" s="18" t="n">
-        <v>663330</v>
+        <v>678947</v>
       </c>
       <c r="AI112" s="18" t="n">
-        <v>678947</v>
+        <v>1132444</v>
       </c>
       <c r="AJ112" s="18" t="n">
-        <v>1132444</v>
+        <v>854807</v>
       </c>
       <c r="AK112" s="18" t="n">
-        <v>854807</v>
+        <v>791515</v>
       </c>
       <c r="AL112" s="18" t="n">
-        <v>791515</v>
+        <v>705123</v>
       </c>
       <c r="AM112" s="18" t="n">
-        <v>705123</v>
+        <v>329782</v>
       </c>
       <c r="AN112" s="18" t="n">
-        <v>329782</v>
+        <v>467821</v>
       </c>
       <c r="AO112" s="18" t="n">
-        <v>467821</v>
+        <v>859346</v>
       </c>
       <c r="AP112" s="18" t="n">
-        <v>859346</v>
+        <v>796824</v>
       </c>
       <c r="AQ112" s="18" t="n">
-        <v>796824</v>
+        <v>1030745</v>
       </c>
       <c r="AR112" s="18" t="n">
-        <v>1030745</v>
+        <v>1257376</v>
       </c>
       <c r="AS112" s="18" t="n">
-        <v>1257376</v>
+        <v>1099228</v>
       </c>
       <c r="AT112" s="18" t="n">
-        <v>1099228</v>
+        <v>965308</v>
       </c>
       <c r="AU112" s="18" t="n">
-        <v>965308</v>
+        <v>1243037</v>
       </c>
       <c r="AV112" s="18" t="n">
-        <v>1243037</v>
+        <v>1162822</v>
       </c>
       <c r="AW112" s="18" t="n">
-        <v>1162822</v>
+        <v>1210113</v>
       </c>
       <c r="AX112" s="18" t="n">
-        <v>1210113</v>
+        <v>945195</v>
       </c>
       <c r="AY112" s="18" t="n">
-        <v>945195</v>
+        <v>603645</v>
       </c>
       <c r="AZ112" s="18" t="n">
-        <v>603645</v>
+        <v>623659</v>
       </c>
       <c r="BA112" s="18" t="n">
-        <v>623659</v>
+        <v>1208155</v>
       </c>
       <c r="BB112" s="18" t="n">
-        <v>1208155</v>
+        <v>1162187</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18326,11 +18326,11 @@
       <c r="AU119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW119" s="13" t="n">
+      <c r="AV119" s="13" t="n">
         <v>447390</v>
+      </c>
+      <c r="AW119" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX119" s="13" t="s">
         <v>58</v>
@@ -18431,44 +18431,44 @@
       <c r="AC120" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD120" s="16" t="s">
-        <v>58</v>
+      <c r="AD120" s="16" t="n">
+        <v>2784498</v>
       </c>
       <c r="AE120" s="16" t="n">
-        <v>2784498</v>
+        <v>3734620</v>
       </c>
       <c r="AF120" s="16" t="n">
-        <v>3734620</v>
+        <v>3803171</v>
       </c>
       <c r="AG120" s="16" t="n">
-        <v>3803171</v>
+        <v>5059108</v>
       </c>
       <c r="AH120" s="16" t="n">
-        <v>5059108</v>
+        <v>6027048</v>
       </c>
       <c r="AI120" s="16" t="n">
-        <v>6027048</v>
+        <v>6194752</v>
       </c>
       <c r="AJ120" s="16" t="n">
-        <v>6194752</v>
+        <v>4616461</v>
       </c>
       <c r="AK120" s="16" t="n">
-        <v>4616461</v>
+        <v>4587812</v>
       </c>
       <c r="AL120" s="16" t="n">
-        <v>4587812</v>
+        <v>4296411</v>
       </c>
       <c r="AM120" s="16" t="n">
-        <v>4296411</v>
+        <v>4433339</v>
       </c>
       <c r="AN120" s="16" t="n">
-        <v>4433339</v>
+        <v>4891375</v>
       </c>
       <c r="AO120" s="16" t="n">
-        <v>4891375</v>
-      </c>
-      <c r="AP120" s="16" t="n">
         <v>5252785</v>
+      </c>
+      <c r="AP120" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ120" s="16" t="s">
         <v>58</v>
@@ -18563,36 +18563,36 @@
       <c r="T121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U121" s="13" t="s">
-        <v>58</v>
+      <c r="U121" s="13" t="n">
+        <v>2452693</v>
       </c>
       <c r="V121" s="13" t="n">
-        <v>2452693</v>
+        <v>2621700</v>
       </c>
       <c r="W121" s="13" t="n">
-        <v>2621700</v>
+        <v>2687346</v>
       </c>
       <c r="X121" s="13" t="n">
-        <v>2687346</v>
+        <v>2778224</v>
       </c>
       <c r="Y121" s="13" t="n">
-        <v>2778224</v>
+        <v>3026898</v>
       </c>
       <c r="Z121" s="13" t="n">
-        <v>3026898</v>
+        <v>3090480</v>
       </c>
       <c r="AA121" s="13" t="n">
-        <v>3090480</v>
+        <v>3096541</v>
       </c>
       <c r="AB121" s="13" t="n">
-        <v>3096541</v>
+        <v>3098933</v>
       </c>
       <c r="AC121" s="13" t="n">
-        <v>3098933</v>
-      </c>
-      <c r="AD121" s="13" t="n">
         <v>3096546</v>
       </c>
+      <c r="AD121" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE121" s="13" t="s">
         <v>58</v>
       </c>
@@ -18626,44 +18626,44 @@
       <c r="AO121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP121" s="13" t="s">
-        <v>58</v>
+      <c r="AP121" s="13" t="n">
+        <v>6729146</v>
       </c>
       <c r="AQ121" s="13" t="n">
-        <v>6729146</v>
+        <v>6734880</v>
       </c>
       <c r="AR121" s="13" t="n">
-        <v>6734880</v>
+        <v>7697293</v>
       </c>
       <c r="AS121" s="13" t="n">
-        <v>7697293</v>
+        <v>8338300</v>
       </c>
       <c r="AT121" s="13" t="n">
-        <v>8338300</v>
+        <v>7855490</v>
       </c>
       <c r="AU121" s="13" t="n">
-        <v>7855490</v>
+        <v>7446304</v>
       </c>
       <c r="AV121" s="13" t="n">
-        <v>7446304</v>
+        <v>7292614</v>
       </c>
       <c r="AW121" s="13" t="n">
-        <v>7292614</v>
+        <v>7279014</v>
       </c>
       <c r="AX121" s="13" t="n">
-        <v>7279014</v>
+        <v>7213859</v>
       </c>
       <c r="AY121" s="13" t="n">
-        <v>7213859</v>
+        <v>7058535</v>
       </c>
       <c r="AZ121" s="13" t="n">
-        <v>7058535</v>
+        <v>7212926</v>
       </c>
       <c r="BA121" s="13" t="n">
-        <v>7212926</v>
+        <v>8263690</v>
       </c>
       <c r="BB121" s="13" t="n">
-        <v>8263690</v>
+        <v>9213386</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18797,32 +18797,32 @@
       <c r="AS122" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT122" s="16" t="s">
-        <v>58</v>
+      <c r="AT122" s="16" t="n">
+        <v>6901058</v>
       </c>
       <c r="AU122" s="16" t="n">
-        <v>6901058</v>
+        <v>6504531</v>
       </c>
       <c r="AV122" s="16" t="n">
-        <v>6504531</v>
+        <v>6472382</v>
       </c>
       <c r="AW122" s="16" t="n">
-        <v>6472382</v>
+        <v>6403255</v>
       </c>
       <c r="AX122" s="16" t="n">
-        <v>6403255</v>
+        <v>5945087</v>
       </c>
       <c r="AY122" s="16" t="n">
-        <v>5945087</v>
+        <v>5929584</v>
       </c>
       <c r="AZ122" s="16" t="n">
-        <v>5929584</v>
+        <v>6139503</v>
       </c>
       <c r="BA122" s="16" t="n">
-        <v>6139503</v>
+        <v>6902080</v>
       </c>
       <c r="BB122" s="16" t="n">
-        <v>6902080</v>
+        <v>7749509</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18881,36 +18881,36 @@
       <c r="T123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U123" s="13" t="s">
-        <v>58</v>
+      <c r="U123" s="13" t="n">
+        <v>2093054</v>
       </c>
       <c r="V123" s="13" t="n">
-        <v>2093054</v>
+        <v>2206824</v>
       </c>
       <c r="W123" s="13" t="n">
-        <v>2206824</v>
+        <v>2200996</v>
       </c>
       <c r="X123" s="13" t="n">
-        <v>2200996</v>
+        <v>2200855</v>
       </c>
       <c r="Y123" s="13" t="n">
-        <v>2200855</v>
+        <v>2200098</v>
       </c>
       <c r="Z123" s="13" t="n">
-        <v>2200098</v>
+        <v>2200798</v>
       </c>
       <c r="AA123" s="13" t="n">
-        <v>2200798</v>
+        <v>2200662</v>
       </c>
       <c r="AB123" s="13" t="n">
-        <v>2200662</v>
+        <v>2200100</v>
       </c>
       <c r="AC123" s="13" t="n">
-        <v>2200100</v>
-      </c>
-      <c r="AD123" s="13" t="n">
         <v>2199984</v>
       </c>
+      <c r="AD123" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE123" s="13" t="s">
         <v>58</v>
       </c>
@@ -18944,44 +18944,44 @@
       <c r="AO123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP123" s="13" t="s">
-        <v>58</v>
+      <c r="AP123" s="13" t="n">
+        <v>5249261</v>
       </c>
       <c r="AQ123" s="13" t="n">
-        <v>5249261</v>
+        <v>5469633</v>
       </c>
       <c r="AR123" s="13" t="n">
-        <v>5469633</v>
+        <v>6168211</v>
       </c>
       <c r="AS123" s="13" t="n">
-        <v>6168211</v>
+        <v>7251055</v>
       </c>
       <c r="AT123" s="13" t="n">
-        <v>7251055</v>
+        <v>7220108</v>
       </c>
       <c r="AU123" s="13" t="n">
-        <v>7220108</v>
+        <v>7087359</v>
       </c>
       <c r="AV123" s="13" t="n">
-        <v>7087359</v>
+        <v>6793980</v>
       </c>
       <c r="AW123" s="13" t="n">
-        <v>6793980</v>
+        <v>6774318</v>
       </c>
       <c r="AX123" s="13" t="n">
-        <v>6774318</v>
+        <v>6733333</v>
       </c>
       <c r="AY123" s="13" t="n">
-        <v>6733333</v>
+        <v>6782727</v>
       </c>
       <c r="AZ123" s="13" t="n">
-        <v>6782727</v>
+        <v>6695025</v>
       </c>
       <c r="BA123" s="13" t="n">
-        <v>6695025</v>
+        <v>7521638</v>
       </c>
       <c r="BB123" s="13" t="n">
-        <v>7521638</v>
+        <v>8043681</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19046,17 +19046,17 @@
       <c r="V124" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W124" s="16" t="s">
-        <v>58</v>
+      <c r="W124" s="16" t="n">
+        <v>2708333</v>
       </c>
       <c r="X124" s="16" t="n">
-        <v>2708333</v>
+        <v>2800000</v>
       </c>
       <c r="Y124" s="16" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="Z124" s="16" t="n">
         <v>3066667</v>
+      </c>
+      <c r="Z124" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AA124" s="16" t="s">
         <v>58</v>
@@ -19208,27 +19208,27 @@
       <c r="W125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X125" s="13" t="s">
-        <v>58</v>
+      <c r="X125" s="13" t="n">
+        <v>2146341</v>
       </c>
       <c r="Y125" s="13" t="n">
-        <v>2146341</v>
+        <v>2140787</v>
       </c>
       <c r="Z125" s="13" t="n">
-        <v>2140787</v>
+        <v>2141678</v>
       </c>
       <c r="AA125" s="13" t="n">
-        <v>2141678</v>
+        <v>2143469</v>
       </c>
       <c r="AB125" s="13" t="n">
-        <v>2143469</v>
+        <v>2144455</v>
       </c>
       <c r="AC125" s="13" t="n">
-        <v>2144455</v>
-      </c>
-      <c r="AD125" s="13" t="n">
         <v>2143609</v>
       </c>
+      <c r="AD125" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE125" s="13" t="s">
         <v>58</v>
       </c>
@@ -19262,32 +19262,32 @@
       <c r="AO125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP125" s="13" t="s">
-        <v>58</v>
+      <c r="AP125" s="13" t="n">
+        <v>3449050</v>
       </c>
       <c r="AQ125" s="13" t="n">
-        <v>3449050</v>
+        <v>3462185</v>
       </c>
       <c r="AR125" s="13" t="n">
-        <v>3462185</v>
+        <v>3448360</v>
       </c>
       <c r="AS125" s="13" t="n">
-        <v>3448360</v>
+        <v>3450773</v>
       </c>
       <c r="AT125" s="13" t="n">
-        <v>3450773</v>
+        <v>3451299</v>
       </c>
       <c r="AU125" s="13" t="n">
-        <v>3451299</v>
-      </c>
-      <c r="AV125" s="13" t="n">
         <v>3454248</v>
       </c>
-      <c r="AW125" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX125" s="13" t="n">
+      <c r="AV125" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW125" s="13" t="n">
         <v>8000000</v>
+      </c>
+      <c r="AX125" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY125" s="13" t="s">
         <v>58</v>
@@ -19358,33 +19358,33 @@
       <c r="T126" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U126" s="16" t="s">
-        <v>58</v>
+      <c r="U126" s="16" t="n">
+        <v>2117162</v>
       </c>
       <c r="V126" s="16" t="n">
-        <v>2117162</v>
+        <v>2231667</v>
       </c>
       <c r="W126" s="16" t="n">
-        <v>2231667</v>
+        <v>2231657</v>
       </c>
       <c r="X126" s="16" t="n">
-        <v>2231657</v>
+        <v>2231566</v>
       </c>
       <c r="Y126" s="16" t="n">
-        <v>2231566</v>
+        <v>2231577</v>
       </c>
       <c r="Z126" s="16" t="n">
-        <v>2231577</v>
-      </c>
-      <c r="AA126" s="16" t="n">
         <v>2231826</v>
       </c>
-      <c r="AB126" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC126" s="16" t="n">
+      <c r="AA126" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB126" s="16" t="n">
         <v>2231125</v>
       </c>
+      <c r="AC126" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AD126" s="16" t="s">
         <v>58</v>
       </c>
@@ -19421,11 +19421,11 @@
       <c r="AO126" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP126" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ126" s="16" t="n">
+      <c r="AP126" s="16" t="n">
         <v>5283898</v>
+      </c>
+      <c r="AQ126" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AR126" s="16" t="s">
         <v>58</v>
@@ -19523,20 +19523,20 @@
       <c r="V127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W127" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X127" s="13" t="n">
+      <c r="W127" s="13" t="n">
         <v>2700063</v>
       </c>
+      <c r="X127" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z127" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA127" s="13" t="n">
+      <c r="Z127" s="13" t="n">
         <v>2719665</v>
+      </c>
+      <c r="AA127" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB127" s="13" t="s">
         <v>58</v>
@@ -19679,33 +19679,33 @@
       <c r="U128" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V128" s="16" t="s">
-        <v>58</v>
+      <c r="V128" s="16" t="n">
+        <v>2632887</v>
       </c>
       <c r="W128" s="16" t="n">
-        <v>2632887</v>
+        <v>2647870</v>
       </c>
       <c r="X128" s="16" t="n">
-        <v>2647870</v>
+        <v>2738881</v>
       </c>
       <c r="Y128" s="16" t="n">
-        <v>2738881</v>
+        <v>2981729</v>
       </c>
       <c r="Z128" s="16" t="n">
-        <v>2981729</v>
+        <v>3042256</v>
       </c>
       <c r="AA128" s="16" t="n">
-        <v>3042256</v>
+        <v>3048107</v>
       </c>
       <c r="AB128" s="16" t="n">
-        <v>3048107</v>
+        <v>3047977</v>
       </c>
       <c r="AC128" s="16" t="n">
-        <v>3047977</v>
-      </c>
-      <c r="AD128" s="16" t="n">
         <v>3048595</v>
       </c>
+      <c r="AD128" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE128" s="16" t="s">
         <v>58</v>
       </c>
@@ -19739,44 +19739,44 @@
       <c r="AO128" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP128" s="16" t="s">
-        <v>58</v>
+      <c r="AP128" s="16" t="n">
+        <v>6227562</v>
       </c>
       <c r="AQ128" s="16" t="n">
-        <v>6227562</v>
+        <v>6027022</v>
       </c>
       <c r="AR128" s="16" t="n">
-        <v>6027022</v>
+        <v>7097731</v>
       </c>
       <c r="AS128" s="16" t="n">
-        <v>7097731</v>
+        <v>7192401</v>
       </c>
       <c r="AT128" s="16" t="n">
-        <v>7192401</v>
+        <v>6764495</v>
       </c>
       <c r="AU128" s="16" t="n">
-        <v>6764495</v>
+        <v>6381808</v>
       </c>
       <c r="AV128" s="16" t="n">
-        <v>6381808</v>
+        <v>6016987</v>
       </c>
       <c r="AW128" s="16" t="n">
-        <v>6016987</v>
+        <v>5794531</v>
       </c>
       <c r="AX128" s="16" t="n">
-        <v>5794531</v>
+        <v>5822843</v>
       </c>
       <c r="AY128" s="16" t="n">
-        <v>5822843</v>
+        <v>5856162</v>
       </c>
       <c r="AZ128" s="16" t="n">
-        <v>5856162</v>
+        <v>5912454</v>
       </c>
       <c r="BA128" s="16" t="n">
-        <v>5912454</v>
+        <v>6709866</v>
       </c>
       <c r="BB128" s="16" t="n">
-        <v>6709866</v>
+        <v>7598619</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19898,11 +19898,11 @@
       <c r="AO129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP129" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ129" s="13" t="n">
+      <c r="AP129" s="13" t="n">
         <v>3391304</v>
+      </c>
+      <c r="AQ129" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR129" s="13" t="s">
         <v>58</v>
@@ -20060,41 +20060,41 @@
       <c r="AP130" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ130" s="16" t="s">
-        <v>58</v>
+      <c r="AQ130" s="16" t="n">
+        <v>4770884</v>
       </c>
       <c r="AR130" s="16" t="n">
-        <v>4770884</v>
+        <v>5653044</v>
       </c>
       <c r="AS130" s="16" t="n">
-        <v>5653044</v>
+        <v>5775726</v>
       </c>
       <c r="AT130" s="16" t="n">
-        <v>5775726</v>
+        <v>5870971</v>
       </c>
       <c r="AU130" s="16" t="n">
-        <v>5870971</v>
+        <v>5867458</v>
       </c>
       <c r="AV130" s="16" t="n">
-        <v>5867458</v>
+        <v>5713184</v>
       </c>
       <c r="AW130" s="16" t="n">
-        <v>5713184</v>
+        <v>5472841</v>
       </c>
       <c r="AX130" s="16" t="n">
-        <v>5472841</v>
+        <v>5350935</v>
       </c>
       <c r="AY130" s="16" t="n">
-        <v>5350935</v>
+        <v>5342332</v>
       </c>
       <c r="AZ130" s="16" t="n">
-        <v>5342332</v>
+        <v>5224677</v>
       </c>
       <c r="BA130" s="16" t="n">
-        <v>5224677</v>
+        <v>5932226</v>
       </c>
       <c r="BB130" s="16" t="n">
-        <v>5932226</v>
+        <v>6728925</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20216,44 +20216,44 @@
       <c r="AO131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP131" s="13" t="s">
-        <v>58</v>
+      <c r="AP131" s="13" t="n">
+        <v>5359306</v>
       </c>
       <c r="AQ131" s="13" t="n">
-        <v>5359306</v>
+        <v>5364971</v>
       </c>
       <c r="AR131" s="13" t="n">
-        <v>5364971</v>
+        <v>6417424</v>
       </c>
       <c r="AS131" s="13" t="n">
-        <v>6417424</v>
+        <v>6770026</v>
       </c>
       <c r="AT131" s="13" t="n">
-        <v>6770026</v>
+        <v>6517707</v>
       </c>
       <c r="AU131" s="13" t="n">
-        <v>6517707</v>
+        <v>6369843</v>
       </c>
       <c r="AV131" s="13" t="n">
-        <v>6369843</v>
+        <v>6165482</v>
       </c>
       <c r="AW131" s="13" t="n">
-        <v>6165482</v>
+        <v>5793951</v>
       </c>
       <c r="AX131" s="13" t="n">
-        <v>5793951</v>
+        <v>5638752</v>
       </c>
       <c r="AY131" s="13" t="n">
-        <v>5638752</v>
+        <v>5800000</v>
       </c>
       <c r="AZ131" s="13" t="n">
-        <v>5800000</v>
+        <v>5947955</v>
       </c>
       <c r="BA131" s="13" t="n">
-        <v>5947955</v>
+        <v>6745196</v>
       </c>
       <c r="BB131" s="13" t="n">
-        <v>6745196</v>
+        <v>7077384</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20396,15 +20396,15 @@
       <c r="AC133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD133" s="13" t="s">
-        <v>58</v>
+      <c r="AD133" s="13" t="n">
+        <v>3980448</v>
       </c>
       <c r="AE133" s="13" t="n">
-        <v>3980448</v>
-      </c>
-      <c r="AF133" s="13" t="n">
         <v>4063462</v>
       </c>
+      <c r="AF133" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AG133" s="13" t="s">
         <v>58</v>
       </c>
@@ -20420,15 +20420,15 @@
       <c r="AK133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL133" s="13" t="s">
-        <v>58</v>
+      <c r="AL133" s="13" t="n">
+        <v>6132323</v>
       </c>
       <c r="AM133" s="13" t="n">
-        <v>6132323</v>
-      </c>
-      <c r="AN133" s="13" t="n">
         <v>6200000</v>
       </c>
+      <c r="AN133" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO133" s="13" t="s">
         <v>58</v>
       </c>
@@ -20462,14 +20462,14 @@
       <c r="AY133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ133" s="13" t="s">
-        <v>58</v>
+      <c r="AZ133" s="13" t="n">
+        <v>6000000</v>
       </c>
       <c r="BA133" s="13" t="n">
-        <v>6000000</v>
+        <v>6081081</v>
       </c>
       <c r="BB133" s="13" t="n">
-        <v>6081081</v>
+        <v>7238128</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20555,12 +20555,12 @@
       <c r="AC134" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD134" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE134" s="16" t="n">
+      <c r="AD134" s="16" t="n">
         <v>5834800</v>
       </c>
+      <c r="AE134" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AF134" s="16" t="s">
         <v>58</v>
       </c>
@@ -20576,23 +20576,23 @@
       <c r="AJ134" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK134" s="16" t="s">
-        <v>58</v>
+      <c r="AK134" s="16" t="n">
+        <v>8336634</v>
       </c>
       <c r="AL134" s="16" t="n">
-        <v>8336634</v>
+        <v>8625750</v>
       </c>
       <c r="AM134" s="16" t="n">
-        <v>8625750</v>
+        <v>8923338</v>
       </c>
       <c r="AN134" s="16" t="n">
-        <v>8923338</v>
+        <v>8596187</v>
       </c>
       <c r="AO134" s="16" t="n">
-        <v>8596187</v>
-      </c>
-      <c r="AP134" s="16" t="n">
         <v>9120513</v>
+      </c>
+      <c r="AP134" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ134" s="16" t="s">
         <v>58</v>
@@ -20687,35 +20687,35 @@
       <c r="T135" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U135" s="13" t="s">
-        <v>58</v>
+      <c r="U135" s="13" t="n">
+        <v>1749269</v>
       </c>
       <c r="V135" s="13" t="n">
-        <v>1749269</v>
+        <v>1803569</v>
       </c>
       <c r="W135" s="13" t="n">
-        <v>1803569</v>
+        <v>2036843</v>
       </c>
       <c r="X135" s="13" t="n">
-        <v>2036843</v>
+        <v>2232131</v>
       </c>
       <c r="Y135" s="13" t="n">
-        <v>2232131</v>
+        <v>2665121</v>
       </c>
       <c r="Z135" s="13" t="n">
-        <v>2665121</v>
+        <v>2669660</v>
       </c>
       <c r="AA135" s="13" t="n">
-        <v>2669660</v>
+        <v>2739579</v>
       </c>
       <c r="AB135" s="13" t="n">
-        <v>2739579</v>
+        <v>2717745</v>
       </c>
       <c r="AC135" s="13" t="n">
-        <v>2717745</v>
-      </c>
-      <c r="AD135" s="13" t="n">
         <v>2859274</v>
+      </c>
+      <c r="AD135" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE135" s="13" t="s">
         <v>58</v>
@@ -20909,44 +20909,44 @@
       <c r="AO136" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP136" s="16" t="s">
-        <v>58</v>
+      <c r="AP136" s="16" t="n">
+        <v>9283401</v>
       </c>
       <c r="AQ136" s="16" t="n">
-        <v>9283401</v>
+        <v>9337621</v>
       </c>
       <c r="AR136" s="16" t="n">
-        <v>9337621</v>
+        <v>9596404</v>
       </c>
       <c r="AS136" s="16" t="n">
-        <v>9596404</v>
+        <v>9954474</v>
       </c>
       <c r="AT136" s="16" t="n">
-        <v>9954474</v>
+        <v>9613208</v>
       </c>
       <c r="AU136" s="16" t="n">
-        <v>9613208</v>
+        <v>9542797</v>
       </c>
       <c r="AV136" s="16" t="n">
-        <v>9542797</v>
+        <v>8450146</v>
       </c>
       <c r="AW136" s="16" t="n">
-        <v>8450146</v>
+        <v>7956796</v>
       </c>
       <c r="AX136" s="16" t="n">
-        <v>7956796</v>
+        <v>8057026</v>
       </c>
       <c r="AY136" s="16" t="n">
-        <v>8057026</v>
+        <v>8296837</v>
       </c>
       <c r="AZ136" s="16" t="n">
-        <v>8296837</v>
+        <v>8065217</v>
       </c>
       <c r="BA136" s="16" t="n">
-        <v>8065217</v>
+        <v>11451962</v>
       </c>
       <c r="BB136" s="16" t="n">
-        <v>11451962</v>
+        <v>10994624</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21005,32 +21005,32 @@
       <c r="T137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U137" s="13" t="s">
-        <v>58</v>
+      <c r="U137" s="13" t="n">
+        <v>3247777</v>
       </c>
       <c r="V137" s="13" t="n">
-        <v>3247777</v>
+        <v>3437550</v>
       </c>
       <c r="W137" s="13" t="n">
-        <v>3437550</v>
+        <v>3898121</v>
       </c>
       <c r="X137" s="13" t="n">
-        <v>3898121</v>
+        <v>4201020</v>
       </c>
       <c r="Y137" s="13" t="n">
-        <v>4201020</v>
-      </c>
-      <c r="Z137" s="13" t="n">
         <v>4970155</v>
       </c>
-      <c r="AA137" s="13" t="s">
-        <v>58</v>
+      <c r="Z137" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA137" s="13" t="n">
+        <v>4812268</v>
       </c>
       <c r="AB137" s="13" t="n">
-        <v>4812268</v>
-      </c>
-      <c r="AC137" s="13" t="n">
         <v>4715938</v>
+      </c>
+      <c r="AC137" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD137" s="13" t="s">
         <v>58</v>
@@ -21164,35 +21164,35 @@
       <c r="T138" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U138" s="16" t="s">
-        <v>58</v>
+      <c r="U138" s="16" t="n">
+        <v>2919786</v>
       </c>
       <c r="V138" s="16" t="n">
-        <v>2919786</v>
+        <v>3230248</v>
       </c>
       <c r="W138" s="16" t="n">
-        <v>3230248</v>
+        <v>3181628</v>
       </c>
       <c r="X138" s="16" t="n">
-        <v>3181628</v>
+        <v>2828947</v>
       </c>
       <c r="Y138" s="16" t="n">
-        <v>2828947</v>
-      </c>
-      <c r="Z138" s="16" t="n">
         <v>2818792</v>
       </c>
-      <c r="AA138" s="16" t="s">
-        <v>58</v>
+      <c r="Z138" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA138" s="16" t="n">
+        <v>3903409</v>
       </c>
       <c r="AB138" s="16" t="n">
-        <v>3903409</v>
+        <v>4781810</v>
       </c>
       <c r="AC138" s="16" t="n">
-        <v>4781810</v>
-      </c>
-      <c r="AD138" s="16" t="n">
         <v>4978036</v>
+      </c>
+      <c r="AD138" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE138" s="16" t="s">
         <v>58</v>
@@ -21326,29 +21326,29 @@
       <c r="U139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V139" s="13" t="s">
-        <v>58</v>
+      <c r="V139" s="13" t="n">
+        <v>3247253</v>
       </c>
       <c r="W139" s="13" t="n">
-        <v>3247253</v>
+        <v>3551385</v>
       </c>
       <c r="X139" s="13" t="n">
-        <v>3551385</v>
-      </c>
-      <c r="Y139" s="13" t="n">
         <v>3919355</v>
       </c>
+      <c r="Y139" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Z139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA139" s="13" t="s">
-        <v>58</v>
+      <c r="AA139" s="13" t="n">
+        <v>4183381</v>
       </c>
       <c r="AB139" s="13" t="n">
-        <v>4183381</v>
-      </c>
-      <c r="AC139" s="13" t="n">
         <v>4174757</v>
+      </c>
+      <c r="AC139" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD139" s="13" t="s">
         <v>58</v>
@@ -21548,41 +21548,41 @@
       <c r="AP140" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ140" s="16" t="s">
-        <v>58</v>
+      <c r="AQ140" s="16" t="n">
+        <v>9343434</v>
       </c>
       <c r="AR140" s="16" t="n">
-        <v>9343434</v>
+        <v>9026786</v>
       </c>
       <c r="AS140" s="16" t="n">
-        <v>9026786</v>
-      </c>
-      <c r="AT140" s="16" t="n">
         <v>9111675</v>
       </c>
+      <c r="AT140" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AU140" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV140" s="16" t="s">
-        <v>58</v>
+      <c r="AV140" s="16" t="n">
+        <v>7164265</v>
       </c>
       <c r="AW140" s="16" t="n">
-        <v>7164265</v>
+        <v>7203593</v>
       </c>
       <c r="AX140" s="16" t="n">
-        <v>7203593</v>
+        <v>7515351</v>
       </c>
       <c r="AY140" s="16" t="n">
-        <v>7515351</v>
+        <v>7115152</v>
       </c>
       <c r="AZ140" s="16" t="n">
-        <v>7115152</v>
+        <v>7075949</v>
       </c>
       <c r="BA140" s="16" t="n">
-        <v>7075949</v>
+        <v>8854545</v>
       </c>
       <c r="BB140" s="16" t="n">
-        <v>8854545</v>
+        <v>10173333</v>
       </c>
     </row>
   </sheetData>
